--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25840" windowHeight="11640" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25840" windowHeight="11640" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>[c]: specie_2 + (2) specie_4 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t>Min flux</t>
+  </si>
+  <si>
+    <t>Max flux</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +466,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -495,7 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -520,6 +531,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1763,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1788,7 @@
     <col min="3" max="3" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -1790,14 +1804,20 @@
       <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1827,14 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1822,8 +1848,14 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1839,8 +1871,10 @@
       <c r="E4" s="6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1856,8 +1890,10 @@
       <c r="E5" s="6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1873,6 +1909,8 @@
       <c r="E6" s="6">
         <v>1E-3</v>
       </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1883,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25840" windowHeight="11640" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-30960" yWindow="1820" windowWidth="28940" windowHeight="13300" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Max flux</t>
+  </si>
+  <si>
+    <t>Objective proportion</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,7 +1651,7 @@
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -1670,8 +1673,11 @@
       <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1684,13 +1690,16 @@
       <c r="D2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1703,13 +1712,16 @@
       <c r="D3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1722,13 +1734,16 @@
       <c r="D4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1741,13 +1756,16 @@
       <c r="D5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
@@ -1760,8 +1778,11 @@
       <c r="D6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7" t="b">
         <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30960" yWindow="1820" windowWidth="28940" windowHeight="13300" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="460" yWindow="1600" windowWidth="33580" windowHeight="18860" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -20,15 +20,17 @@
     <sheet name="Concentrations" sheetId="10" r:id="rId6"/>
     <sheet name="Reactions" sheetId="4" r:id="rId7"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
-    <sheet name="Parameters" sheetId="5" r:id="rId9"/>
-    <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Biomass components" sheetId="15" r:id="rId9"/>
+    <sheet name="Biomass reactions" sheetId="16" r:id="rId10"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId11"/>
+    <sheet name="References" sheetId="6" r:id="rId12"/>
+    <sheet name="Cross references" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -335,15 +337,6 @@
     <t>specie_4[c]</t>
   </si>
   <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>Metabolism production</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
     <t>backward</t>
   </si>
   <si>
@@ -386,9 +379,6 @@
     <t>[c]: (2) specie_1 ==&gt; specie_3</t>
   </si>
   <si>
-    <t>[c]: (2) specie_1 ==&gt; biomass</t>
-  </si>
-  <si>
     <t>k_cat * specie_1[c]</t>
   </si>
   <si>
@@ -401,7 +391,46 @@
     <t>Max flux</t>
   </si>
   <si>
-    <t>Objective proportion</t>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>biomass_id_004</t>
+  </si>
+  <si>
+    <t>biomass_id_003</t>
+  </si>
+  <si>
+    <t>biomass_id_002</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>biomass_id_001</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
   </si>
 </sst>
 </file>
@@ -412,7 +441,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,8 +486,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -495,7 +553,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,8 +566,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -537,8 +596,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -551,6 +621,7 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -970,6 +1041,128 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1045,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1153,7 +1346,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1395,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1311,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1566,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1397,7 +1590,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1421,7 +1614,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1446,7 +1639,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1472,7 +1665,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1497,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1507,26 +1700,6 @@
       </c>
       <c r="H7" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1784,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
         <v>1E-3</v>
@@ -1619,7 +1792,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2">
         <v>2E-3</v>
@@ -1636,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,10 +1821,11 @@
     <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -1667,17 +1841,20 @@
       <c r="E1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1688,18 +1865,21 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,18 +1890,21 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,18 +1915,17 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1759,31 +1941,10 @@
       <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -1798,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1970,7 @@
     <col min="3" max="3" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -1825,20 +1986,14 @@
       <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1846,16 +2001,10 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1863,20 +2012,14 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1892,18 +2035,16 @@
       <c r="E4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1911,10 +2052,8 @@
       <c r="E5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1930,8 +2069,6 @@
       <c r="E6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,71 +2077,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>93</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="12">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1600" windowWidth="33580" windowHeight="18860" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Objective function</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1057,7 @@
     <col min="3" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -1062,26 +1065,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1343,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1355,13 +1352,14 @@
     <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -1375,16 +1373,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1397,11 +1401,14 @@
       <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1811,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+    <sheetView zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Biomass reactions" sheetId="16" r:id="rId10"/>
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId13"/>
+    <sheet name="Database references" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1046,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1239,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -609,6 +609,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1044,34 +1047,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="23.1640625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>114</v>
       </c>
@@ -1079,6 +1086,9 @@
         <v>122</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1239,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -394,15 +394,9 @@
     <t>Metabolism_biomass</t>
   </si>
   <si>
-    <t>biomass_id_004</t>
-  </si>
-  <si>
     <t>biomass_id_003</t>
   </si>
   <si>
-    <t>biomass_id_002</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -424,13 +418,7 @@
     <t>biomass_comp_1</t>
   </si>
   <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
     <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
   </si>
   <si>
     <t>Objective function</t>
@@ -1049,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1083,13 +1071,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1341,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1386,10 +1374,10 @@
         <v>70</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1415,6 +1403,9 @@
         <v>4</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1828,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -1979,7 +1970,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2094,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2120,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>71</v>
@@ -2137,10 +2128,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>114</v>
@@ -2152,59 +2143,25 @@
         <v>31</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D3" s="12">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="33580" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Objective function</t>
+  </si>
+  <si>
+    <t>max( specie_4[c], 2)</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="197" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1819,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1969,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2072,7 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D6" s="6">
         <v>2.9999999999999997E-4</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="17540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
     <sheet name="Database references" sheetId="12" r:id="rId13"/>
+    <sheet name="Functions" sheetId="17" r:id="rId14"/>
+    <sheet name="Observables" sheetId="18" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="19" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -1281,6 +1284,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
@@ -1972,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -18,22 +18,22 @@
     <sheet name="Compartments" sheetId="2" r:id="rId4"/>
     <sheet name="Species types" sheetId="3" r:id="rId5"/>
     <sheet name="Concentrations" sheetId="10" r:id="rId6"/>
-    <sheet name="Reactions" sheetId="4" r:id="rId7"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
-    <sheet name="Biomass components" sheetId="15" r:id="rId9"/>
-    <sheet name="Biomass reactions" sheetId="16" r:id="rId10"/>
-    <sheet name="Parameters" sheetId="5" r:id="rId11"/>
-    <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Database references" sheetId="12" r:id="rId13"/>
-    <sheet name="Functions" sheetId="17" r:id="rId14"/>
-    <sheet name="Observables" sheetId="18" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="19" r:id="rId16"/>
+    <sheet name="Observables" sheetId="18" r:id="rId7"/>
+    <sheet name="Functions" sheetId="17" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="4" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="15" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="16" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="19" r:id="rId14"/>
+    <sheet name="References" sheetId="6" r:id="rId15"/>
+    <sheet name="Database references" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>max( specie_4[c], 2)</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
   </si>
 </sst>
 </file>
@@ -1041,6 +1047,210 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="12">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
@@ -1091,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1162,7 +1372,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
@@ -1239,7 +1481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1280,42 +1522,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1859,6 +2065,73 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
@@ -2005,208 +2278,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="12">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>Expression</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -994,9 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1027,16 +1038,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1376,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,15 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="134">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -245,9 +250,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[e]</t>
   </si>
   <si>
@@ -381,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -528,7 +536,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,12 +564,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,7 +582,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,11 +594,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,40 +606,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -734,7 +725,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -827,25 +818,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -856,24 +847,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -882,13 +873,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -899,13 +890,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -916,13 +907,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -955,71 +946,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="9" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="9" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="9" width="10.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="12" t="n">
         <v>-3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="14"/>
+      <c r="F2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1050,25 +1041,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="12" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="12" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="9" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="9" width="10.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1076,14 +1067,14 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>109</v>
+      <c r="D2" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1110,12 +1101,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1130,13 +1121,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1147,10 +1138,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1159,10 +1150,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1236,9 +1227,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1253,46 +1244,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1329,10 +1320,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1341,22 +1332,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1455,12 +1446,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="8.78542510121457"/>
@@ -1560,9 +1551,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1648,12 +1639,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
@@ -1851,24 +1842,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1879,58 +1870,79 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.000148</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0002</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.001</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2018,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2042,16 +2054,16 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="8.78542510121457"/>
@@ -2065,41 +2077,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -2108,23 +2120,23 @@
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
@@ -2133,50 +2145,50 @@
       <c r="G3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="8" t="n">
+      <c r="D5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,35 +13,46 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -241,6 +252,36 @@
     <t xml:space="preserve">U238</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -250,30 +291,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">molecules</t>
   </si>
   <si>
@@ -388,9 +408,6 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_001</t>
   </si>
   <si>
@@ -404,9 +421,6 @@
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -831,34 +845,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -869,24 +1062,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -895,13 +1088,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -912,10 +1105,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>70</v>
@@ -929,13 +1122,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -946,13 +1139,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -994,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>13</v>
@@ -1008,10 +1201,10 @@
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>27</v>
@@ -1023,16 +1216,16 @@
         <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>27</v>
@@ -1055,7 +1248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1080,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>13</v>
@@ -1094,13 +1287,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1142,13 +1335,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1159,10 +1352,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1171,10 +1364,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1217,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1234,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1262,46 +1455,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1320,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1338,10 +1531,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1350,22 +1543,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1651,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1834,28 +2027,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D14" activeCellId="0" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1872,7 +2223,7 @@
         <v>0.000148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1883,18 +2234,18 @@
         <v>0.0002</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1905,7 +2256,7 @@
         <v>0.0005</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1916,7 +2267,7 @@
         <v>0.001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1927,18 +2278,18 @@
         <v>0.002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1979,10 +2330,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1999,7 +2350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2026,7 +2377,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2041,183 +2392,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,40 +19,45 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,319 +119,316 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_1 ==&gt; specie_3 + (2) specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A species, specie_1, appears multiple times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_4 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min( 0, 1 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_4[c], 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( 1, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 ==&gt; specie_3 + (2) specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A species, specie_1, appears multiple times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_4 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min( 0, 1 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_4[c], 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( 1, 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -848,19 +850,18 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="46.919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
@@ -873,39 +874,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -919,18 +920,18 @@
       <c r="H2" s="0"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -942,22 +943,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -966,18 +967,18 @@
       <c r="G4" s="5"/>
       <c r="H4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -986,24 +987,24 @@
       <c r="G5" s="5"/>
       <c r="H5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1033,53 +1034,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1088,13 +1089,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -1105,13 +1106,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1122,13 +1123,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -1139,13 +1140,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1164,99 +1165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="9" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1273,27 +1185,116 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="7" min="1" style="9" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1332,30 +1333,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1364,10 +1365,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1388,18 +1389,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1407,12 +1408,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1432,16 +1430,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1452,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
@@ -1464,10 +1462,10 @@
         <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>130</v>
@@ -1494,14 +1492,12 @@
         <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1531,34 +1527,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1573,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1609,12 +1605,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1622,17 +1618,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1652,13 +1641,13 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1669,57 +1658,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1738,16 +1714,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1758,54 +1734,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1822,16 +1790,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1842,175 +1810,155 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
+      <c r="E5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
+      <c r="E6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
+      <c r="E7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2029,7 +1977,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2039,7 +1987,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2051,104 +1999,104 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2193,103 +2141,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2308,18 +2256,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2327,15 +2275,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2355,18 +2297,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2374,12 +2316,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -165,76 +165,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>species_1</t>
@@ -623,12 +644,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -663,9 +684,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,17 +698,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,14 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,16 +750,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,32 +768,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,22 +797,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +853,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,61 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,19 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,49 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,6 +1065,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1059,11 +1098,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,25 +1128,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1115,154 +1147,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1315,11 +1336,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,20 +1349,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1804,25 +1819,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1830,25 +1845,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1896,22 +1911,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1928,16 +1943,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1949,22 +1964,22 @@
         <v>2</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1976,25 +1991,25 @@
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I3" s="18"/>
       <c r="K3" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -2004,16 +2019,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2023,22 +2038,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2085,19 +2100,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2114,22 +2129,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2137,22 +2152,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2160,22 +2175,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2183,22 +2198,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="F5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2207,22 +2222,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2231,22 +2246,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2299,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2322,16 +2337,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2372,13 +2387,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2395,22 +2410,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2453,16 +2468,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>18</v>
@@ -2479,45 +2494,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E2" s="12">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2547,7 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2560,16 +2575,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2586,142 +2601,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2761,10 +2776,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2812,28 +2827,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2882,46 +2897,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3027,7 +3042,7 @@
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="24" customFormat="1" customHeight="1" spans="1:1024">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3086,34 +3101,34 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
-    <col min="5" max="1028" width="8.78333333333333" style="5"/>
-    <col min="1029" max="16384" width="9" style="5"/>
+    <col min="2" max="3" width="16.25" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
+    <col min="8" max="1031" width="8.78333333333333" style="5"/>
+    <col min="1032" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3138,90 +3153,114 @@
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="9">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="9">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="5">
+      <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="I3" s="9">
         <v>1e-12</v>
       </c>
-      <c r="G3" s="5">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>51</v>
+      <c r="K3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3233,7 +3272,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3243,7 +3282,7 @@
       <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
@@ -3268,19 +3307,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>18</v>
@@ -3297,10 +3336,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
@@ -3309,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E3" s="21">
         <v>2</v>
@@ -3327,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E4" s="21">
         <v>3</v>
@@ -3345,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
@@ -3363,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E6" s="21">
         <v>5</v>
@@ -3381,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -3399,14 +3438,8 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="8:8">
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" customHeight="1" spans="8:8">
-      <c r="H14" s="24"/>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -3451,13 +3484,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3474,114 +3507,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3631,19 +3664,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3660,121 +3693,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="20">
         <v>0.000148</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="20">
         <v>0.0002</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="20">
         <v>0.0005</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="20">
         <v>0.0005</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="20">
         <v>0.001</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="20">
         <v>0.002</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3811,10 +3844,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3863,10 +3896,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -387,7 +387,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>k_cat_5_for * max( 1, 2)</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -644,12 +650,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -684,6 +690,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -698,17 +712,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,9 +726,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,39 +762,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,23 +778,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,14 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +859,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,19 +955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,109 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +1009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,11 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,17 +1110,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,11 +1138,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,136 +1156,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,11 +1342,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1355,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,7 +1891,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2287,14 +2293,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P41" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2302,11 +2308,11 @@
     <col min="1" max="1" width="17.625" style="5" customWidth="1"/>
     <col min="2" max="3" width="9" style="5"/>
     <col min="4" max="4" width="10.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="5" max="7" width="12.25" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2323,30 +2329,42 @@
         <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2411,7 @@
         <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2410,10 +2428,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
@@ -2425,7 +2443,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2468,13 +2486,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>82</v>
@@ -2494,13 +2512,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>83</v>
@@ -2512,18 +2530,18 @@
         <v>114</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>88</v>
@@ -2578,10 +2596,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>82</v>
@@ -2601,10 +2619,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>133</v>
@@ -2613,29 +2631,29 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -2646,52 +2664,52 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>135</v>
@@ -2699,7 +2717,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>133</v>
@@ -2713,10 +2731,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
@@ -2727,7 +2745,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>133</v>
@@ -2736,7 +2754,7 @@
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>82</v>
@@ -2836,19 +2854,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2897,46 +2915,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3103,12 +3121,12 @@
   <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="201">
   <si>
     <t>Id</t>
   </si>
@@ -177,457 +177,472 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>species_1</t>
+  </si>
+  <si>
+    <t>species_name_1</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>species_2</t>
+  </si>
+  <si>
+    <t>species_name_2</t>
+  </si>
+  <si>
+    <t>species_3</t>
+  </si>
+  <si>
+    <t>species_name_3</t>
+  </si>
+  <si>
+    <t>species_4</t>
+  </si>
+  <si>
+    <t>species_name_4</t>
+  </si>
+  <si>
+    <t>species_5</t>
+  </si>
+  <si>
+    <t>species_name_5</t>
+  </si>
+  <si>
+    <t>species_6</t>
+  </si>
+  <si>
+    <t>species_name_6</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>species_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>species_1[e]</t>
+  </si>
+  <si>
+    <t>species_2[c]</t>
+  </si>
+  <si>
+    <t>species_2[e]</t>
+  </si>
+  <si>
+    <t>species_3[c]</t>
+  </si>
+  <si>
+    <t>species_4[c]</t>
+  </si>
+  <si>
+    <t>species_5[c]</t>
+  </si>
+  <si>
+    <t>species_6[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_6[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>species_1[e] + species_2[e] ==&gt; species_1[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: species_1 ==&gt; species_3 + (2) species_1</t>
+  </si>
+  <si>
+    <t>A species, species_1, appears multiple times</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: species_2 + (2) species_4 ==&gt; species_5</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: species_4 ==&gt; (2) species_5 + species_6</t>
+  </si>
+  <si>
+    <t>reaction_5</t>
+  </si>
+  <si>
+    <t>reaction_name_5</t>
+  </si>
+  <si>
+    <t>[c]: species_3 ==&gt; species_4</t>
+  </si>
+  <si>
+    <t>Not enabled</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( species_1[e], species_2[e])</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * min( 0, 1 )</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * (species_4[c] / Avogadro / volume_c) / ((species_4[c] / Avogadro / volume_c) + K_m_3) * Avogadro * volume_c</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * species_5[c]</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * max( species_4[c], p_4)</t>
+  </si>
+  <si>
+    <t>reaction_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_5_for * max( 1, 2)</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>M molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>k_cat_5_for</t>
+  </si>
+  <si>
+    <t>p_4</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>species_1</t>
-  </si>
-  <si>
-    <t>species_name_1</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>species_2</t>
-  </si>
-  <si>
-    <t>species_name_2</t>
-  </si>
-  <si>
-    <t>species_3</t>
-  </si>
-  <si>
-    <t>species_name_3</t>
-  </si>
-  <si>
-    <t>species_4</t>
-  </si>
-  <si>
-    <t>species_name_4</t>
-  </si>
-  <si>
-    <t>species_5</t>
-  </si>
-  <si>
-    <t>species_name_5</t>
-  </si>
-  <si>
-    <t>species_6</t>
-  </si>
-  <si>
-    <t>species_name_6</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>species_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>species_1[e]</t>
-  </si>
-  <si>
-    <t>species_2[c]</t>
-  </si>
-  <si>
-    <t>species_2[e]</t>
-  </si>
-  <si>
-    <t>species_3[c]</t>
-  </si>
-  <si>
-    <t>species_4[c]</t>
-  </si>
-  <si>
-    <t>species_5[c]</t>
-  </si>
-  <si>
-    <t>species_6[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_6[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>species_1[e] + species_2[e] ==&gt; species_1[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: species_1 ==&gt; species_3 + (2) species_1</t>
-  </si>
-  <si>
-    <t>A species, species_1, appears multiple times</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: species_2 + (2) species_4 ==&gt; species_5</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: species_4 ==&gt; (2) species_5 + species_6</t>
-  </si>
-  <si>
-    <t>reaction_5</t>
-  </si>
-  <si>
-    <t>reaction_name_5</t>
-  </si>
-  <si>
-    <t>[c]: species_3 ==&gt; species_4</t>
-  </si>
-  <si>
-    <t>Not enabled</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( species_1[e], species_2[e])</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * min( 0, 1 )</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * (species_4[c] / Avogadro / c) / ((species_4[c] / Avogadro / c) + K_m_3) * Avogadro * c</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * species_5[c]</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * max( species_4[c], p_4)</t>
-  </si>
-  <si>
-    <t>reaction_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_5_for * max( 1, 2)</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>M molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>k_cat_5_for</t>
-  </si>
-  <si>
-    <t>p_4</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -650,12 +665,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -690,6 +705,49 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -698,21 +756,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,89 +771,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -816,7 +779,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -831,8 +793,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,13 +868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,37 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +934,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,31 +994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,60 +1052,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1056,16 +1071,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1095,6 +1110,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1112,32 +1147,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1145,147 +1154,153 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1917,22 +1932,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1949,16 +1964,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1970,22 +1985,22 @@
         <v>2</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1997,25 +2012,25 @@
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I3" s="18"/>
       <c r="K3" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -2025,16 +2040,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2044,22 +2059,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2097,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2106,19 +2121,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2135,22 +2150,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2158,22 +2173,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2181,22 +2196,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2204,22 +2219,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2228,22 +2243,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2252,22 +2267,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2295,7 +2310,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2320,19 +2335,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2349,19 +2364,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2405,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2428,22 +2443,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2486,16 +2501,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>18</v>
@@ -2512,45 +2527,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="12">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2563,14 +2578,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2593,16 +2608,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2619,142 +2634,170 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2794,10 +2837,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2845,28 +2888,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2915,46 +2958,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3119,14 +3162,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3135,11 +3178,11 @@
     <col min="2" max="3" width="16.25" style="5" customWidth="1"/>
     <col min="4" max="5" width="10.375" style="5" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
-    <col min="8" max="1031" width="8.78333333333333" style="5"/>
-    <col min="1032" max="16384" width="9" style="5"/>
+    <col min="8" max="1030" width="8.78333333333333" style="5"/>
+    <col min="1031" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3177,45 +3220,42 @@
         <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="9">
         <v>4.58e-17</v>
@@ -3224,39 +3264,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="9">
         <v>1e-12</v>
@@ -3265,16 +3302,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3325,19 +3359,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>18</v>
@@ -3354,10 +3388,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
@@ -3366,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="E3" s="21">
         <v>2</v>
@@ -3384,16 +3418,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="E4" s="21">
         <v>3</v>
@@ -3402,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
@@ -3420,16 +3454,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="21">
         <v>5</v>
@@ -3438,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -3456,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3502,13 +3536,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3525,114 +3559,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3682,19 +3716,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3711,121 +3745,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="20">
         <v>0.000148</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="20">
         <v>0.0002</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="20">
         <v>0.0005</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="20">
         <v>0.0005</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="20">
         <v>0.001</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="20">
         <v>0.002</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3862,10 +3896,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -3890,19 +3924,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
+    <col min="1" max="2" width="8.78333333333333" style="5"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="5"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3914,10 +3950,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3930,6 +3966,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -390,6 +390,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -408,6 +411,9 @@
     <t>species_1[e] + species_2[e] ==&gt; species_1[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -469,9 +475,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( species_1[e], species_2[e])</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -665,12 +668,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -705,11 +708,131 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -725,129 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,19 +871,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,7 +973,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,67 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,31 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,17 +1074,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,7 +1087,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1103,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,39 +1158,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1171,136 +1174,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1899,14 +1902,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1915,16 +1918,16 @@
     <col min="2" max="2" width="17.1416666666667" style="5"/>
     <col min="3" max="3" width="10.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="46.9166666666667" style="5"/>
-    <col min="5" max="5" width="8.14166666666667" style="5"/>
-    <col min="6" max="6" width="7.5" style="16"/>
-    <col min="7" max="7" width="7.71666666666667" style="16"/>
-    <col min="8" max="8" width="37.8166666666667" style="5"/>
-    <col min="9" max="9" width="8.78333333333333" style="5"/>
-    <col min="10" max="1025" width="8.78333333333333" style="16"/>
-    <col min="1026" max="16384" width="9" style="16"/>
+    <col min="5" max="6" width="8.14166666666667" style="5"/>
+    <col min="7" max="7" width="7.5" style="16"/>
+    <col min="8" max="8" width="7.71666666666667" style="16"/>
+    <col min="9" max="9" width="37.8166666666667" style="5"/>
+    <col min="10" max="10" width="8.78333333333333" style="5"/>
+    <col min="11" max="1026" width="8.78333333333333" style="16"/>
+    <col min="1027" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1950,131 +1953,149 @@
         <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
+      <c r="H2" s="16">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:11">
+      <c r="I2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="K3" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
+      <c r="I3" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="L3" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>131</v>
+      <c r="F6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2121,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>65</v>
@@ -2150,22 +2171,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2173,22 +2194,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2196,22 +2217,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2219,22 +2240,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2243,22 +2264,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2267,22 +2288,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2344,10 +2365,10 @@
         <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2364,19 +2385,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2426,7 +2447,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2443,22 +2464,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2501,13 +2522,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>81</v>
@@ -2527,13 +2548,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>82</v>
@@ -2542,21 +2563,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>87</v>
@@ -2565,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2611,10 +2632,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>81</v>
@@ -2634,108 +2655,108 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -2746,10 +2767,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
@@ -2760,16 +2781,16 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -2777,13 +2798,13 @@
         <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" s="5">
         <v>1100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -2791,17 +2812,17 @@
         <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F11">
+  <autoFilter ref="A1:F13">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2888,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>81</v>
@@ -2897,19 +2918,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
@@ -2958,46 +2979,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3926,7 +3947,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,57 +5,58 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -123,7 +124,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -141,6 +142,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -619,9 +635,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -668,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -716,16 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -735,8 +748,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -751,8 +771,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,17 +795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,43 +810,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +834,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,6 +857,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,7 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +902,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +980,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,61 +1022,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,67 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1096,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1107,21 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1133,26 +1146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,143 +1164,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1378,6 +1391,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1843,25 +1859,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1869,25 +1885,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1902,9 +1918,85 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.78333333333333" style="5"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="1025" width="8.78333333333333" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1935,31 +2027,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1970,22 +2062,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2" s="16">
         <v>1</v>
@@ -1994,28 +2086,28 @@
         <v>2</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -2024,78 +2116,78 @@
         <v>2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J3" s="18"/>
       <c r="L3" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L9"/>
@@ -2142,25 +2234,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2171,22 +2263,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2194,22 +2286,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2217,22 +2309,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2240,22 +2332,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2264,22 +2356,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2288,22 +2380,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2326,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2356,25 +2448,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2385,19 +2477,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2409,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2441,19 +2533,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2464,22 +2556,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J3"/>
@@ -2522,22 +2614,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>19</v>
@@ -2548,45 +2640,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="12">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J13"/>
@@ -2629,22 +2721,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2655,170 +2747,170 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D12" s="5">
         <v>1100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2858,16 +2950,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2883,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2909,34 +3001,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -2951,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2979,46 +3071,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3046,7 +3138,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B2" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3105,6 +3197,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="5"/>
+    <col min="1016" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3132,13 +3301,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3152,25 +3321,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P3"/>
@@ -3211,40 +3380,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3255,28 +3424,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="9">
         <v>4.58e-17</v>
@@ -3285,36 +3454,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="9">
         <v>1e-12</v>
@@ -3323,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3380,25 +3549,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>19</v>
@@ -3409,10 +3578,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
@@ -3421,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" s="21">
         <v>2</v>
@@ -3439,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" s="21">
         <v>3</v>
@@ -3457,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
@@ -3475,16 +3644,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E6" s="21">
         <v>5</v>
@@ -3493,16 +3662,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -3511,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3557,19 +3726,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3580,114 +3749,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3737,25 +3906,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3766,121 +3935,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" s="20">
         <v>0.000148</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" s="20">
         <v>0.0002</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="20">
         <v>0.0005</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="20">
         <v>0.0005</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" s="20">
         <v>0.001</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="20">
         <v>0.002</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +4059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3917,98 +4086,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.78333333333333" style="5"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -550,7 +550,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -681,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -729,37 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,9 +758,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,30 +788,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,29 +828,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +836,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,25 +884,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,19 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,49 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +956,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,13 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,13 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,15 +1087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1115,7 +1106,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,17 +1126,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,13 +1161,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,140 +1187,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1373,11 +1373,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,14 +1386,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1859,25 +1856,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1885,25 +1882,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2511,7 +2508,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2586,12 +2583,12 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3201,7 +3198,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -3212,7 +3209,7 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="5"/>
-    <col min="1016" max="16384" width="9" style="25"/>
+    <col min="1016" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="207">
   <si>
     <t>Id</t>
   </si>
@@ -157,6 +157,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -681,12 +684,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -735,22 +738,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -758,16 +745,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,10 +768,47 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,37 +829,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,16 +843,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,19 +887,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +941,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,31 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,25 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,31 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1050,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,16 +1090,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1106,7 +1118,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,35 +1140,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,6 +1164,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1187,132 +1190,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1941,16 +1944,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1961,24 +1964,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2024,31 +2027,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2059,22 +2062,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="16">
         <v>1</v>
@@ -2083,28 +2086,28 @@
         <v>2</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -2113,78 +2116,78 @@
         <v>2</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J3" s="18"/>
       <c r="L3" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2231,25 +2234,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2260,22 +2263,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2283,22 +2286,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2306,22 +2309,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2329,22 +2332,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2353,22 +2356,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2377,22 +2380,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2445,25 +2448,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2474,19 +2477,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2530,19 +2533,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2553,22 +2556,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2586,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2611,22 +2614,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>19</v>
@@ -2637,45 +2640,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="12">
         <v>-3</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2718,22 +2721,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2744,170 +2747,170 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" s="9">
         <v>0.001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="5">
         <v>1100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2947,16 +2950,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2998,34 +3001,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>19</v>
@@ -3068,46 +3071,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3196,15 +3199,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
@@ -3249,18 +3252,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3298,13 +3309,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3318,25 +3329,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3377,40 +3388,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3421,28 +3432,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="9">
         <v>4.58e-17</v>
@@ -3451,36 +3462,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="9">
         <v>1e-12</v>
@@ -3489,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3546,25 +3557,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>19</v>
@@ -3575,10 +3586,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
@@ -3587,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="21">
         <v>2</v>
@@ -3605,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="21">
         <v>3</v>
@@ -3623,16 +3634,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
@@ -3641,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="21">
         <v>5</v>
@@ -3659,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="21">
         <v>6</v>
@@ -3677,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3723,19 +3734,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3746,114 +3757,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3903,25 +3914,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3932,121 +3943,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="20">
         <v>0.000148</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="20">
         <v>0.0002</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="20">
         <v>0.0005</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="20">
         <v>0.0005</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20">
         <v>0.001</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="20">
         <v>0.002</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4083,16 +4094,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>19</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -47,16 +48,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -169,6 +170,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -637,10 +641,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -684,12 +703,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -732,11 +751,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -754,6 +768,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -761,7 +809,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,21 +838,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -799,37 +846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,15 +859,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -865,6 +883,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -887,7 +906,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +954,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,157 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1118,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1116,9 +1159,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,32 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1178,152 +1206,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1343,6 +1362,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1376,11 +1398,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1411,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1859,25 +1881,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1885,25 +1907,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1918,25 +1940,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="5"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="4" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="4" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1944,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1956,32 +1978,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1994,14 +2019,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2011,15 +2036,15 @@
     <col min="3" max="3" width="10.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="46.9166666666667" style="5"/>
     <col min="5" max="6" width="8.14166666666667" style="5"/>
-    <col min="7" max="7" width="7.5" style="16"/>
-    <col min="8" max="8" width="7.71666666666667" style="16"/>
+    <col min="7" max="7" width="7.5" style="17"/>
+    <col min="8" max="8" width="7.71666666666667" style="17"/>
     <col min="9" max="9" width="37.8166666666667" style="5"/>
     <col min="10" max="10" width="8.78333333333333" style="5"/>
-    <col min="11" max="1026" width="8.78333333333333" style="16"/>
-    <col min="1027" max="16384" width="9" style="16"/>
+    <col min="11" max="1027" width="8.78333333333333" style="17"/>
+    <col min="1028" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2027,25 +2052,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2054,60 +2079,63 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="16">
+        <v>126</v>
+      </c>
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="17">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
+      <c r="I2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -2115,79 +2143,79 @@
       <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="L3" s="16" t="s">
-        <v>130</v>
+      <c r="I3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="M3" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="16">
+        <v>134</v>
+      </c>
+      <c r="E4" s="17">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+        <v>126</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>139</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2203,14 +2231,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2221,12 +2249,12 @@
     <col min="4" max="4" width="9.75" style="5"/>
     <col min="5" max="5" width="9.125" style="5"/>
     <col min="6" max="6" width="82" style="5" customWidth="1"/>
-    <col min="7" max="9" width="9.25" style="5"/>
-    <col min="10" max="1024" width="8.78333333333333" style="5"/>
-    <col min="1025" max="16384" width="9" style="5"/>
+    <col min="7" max="10" width="9.25" style="5"/>
+    <col min="11" max="1025" width="8.78333333333333" style="5"/>
+    <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2234,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2255,161 +2283,172 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="K5"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:10">
+      <c r="K6"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-    </row>
-    <row r="8" customHeight="1" spans="8:10">
+      <c r="K7"/>
+    </row>
+    <row r="8" customHeight="1" spans="8:11">
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-    </row>
-    <row r="9" customHeight="1" spans="8:10">
+      <c r="K8"/>
+    </row>
+    <row r="9" customHeight="1" spans="8:11">
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
+      <c r="K9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2421,14 +2460,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2440,7 +2479,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2448,19 +2487,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2469,27 +2508,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>161</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2504,28 +2546,28 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.78333333333333" style="13"/>
-    <col min="6" max="1025" width="8.78333333333333" style="14"/>
-    <col min="1026" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="19.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="14"/>
+    <col min="6" max="1026" width="8.78333333333333" style="15"/>
+    <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2533,13 +2575,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2548,30 +2590,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="13" t="s">
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>164</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2584,101 +2629,104 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="42" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10" style="10" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="10"/>
-    <col min="7" max="7" width="8.78333333333333" style="10"/>
-    <col min="8" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="42" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="11"/>
+    <col min="7" max="7" width="8.78333333333333" style="11"/>
+    <col min="8" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>161</v>
+      <c r="B2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="12">
+        <v>90</v>
+      </c>
+      <c r="E2" s="13">
         <v>-3</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>169</v>
+      <c r="F2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>161</v>
+      <c r="B3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="12">
+        <v>95</v>
+      </c>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>126</v>
+      <c r="F3" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2691,14 +2739,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2708,12 +2756,12 @@
     <col min="4" max="4" width="9.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.78333333333333" style="5"/>
     <col min="6" max="6" width="49.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="8.78333333333333" style="5"/>
-    <col min="9" max="1025" width="8.78333333333333" style="8"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="7" max="9" width="8.78333333333333" style="5"/>
+    <col min="10" max="1026" width="8.78333333333333" style="9"/>
+    <col min="1027" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2721,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2739,21 +2787,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
@@ -2761,156 +2812,156 @@
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>175</v>
+      <c r="J2" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="9">
+        <v>188</v>
+      </c>
+      <c r="D10" s="10">
         <v>0.001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="9">
+        <v>146</v>
+      </c>
+      <c r="D11" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5">
         <v>1100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2926,23 +2977,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2950,10 +3001,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2962,9 +3013,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2978,14 +3032,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2993,7 +3047,7 @@
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3001,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>192</v>
@@ -3019,21 +3073,45 @@
         <v>193</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3046,87 +3124,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="5" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="5"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AMJ1" s="3"/>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3196,12 +3285,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="17" width="8.78333333333333" style="2"/>
+    <col min="18" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
@@ -3212,7 +3388,7 @@
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="5" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="5"/>
-    <col min="1016" max="16384" width="9" style="14"/>
+    <col min="1016" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3284,24 +3460,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="8.78333333333333" style="15"/>
-    <col min="7" max="1025" width="8.78333333333333" style="19"/>
-    <col min="1026" max="16384" width="9" style="19"/>
+    <col min="1" max="7" width="8.78333333333333" style="16"/>
+    <col min="8" max="1026" width="8.78333333333333" style="20"/>
+    <col min="1027" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="25" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3318,36 +3494,39 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="19"/>
-      <c r="AMI1" s="19"/>
-      <c r="AMJ1" s="19"/>
+      <c r="AMI1" s="20"/>
+      <c r="AMJ1" s="20"/>
+      <c r="AMK1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>42</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3360,14 +3539,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3376,46 +3555,46 @@
     <col min="2" max="3" width="16.25" style="5" customWidth="1"/>
     <col min="4" max="5" width="10.375" style="5" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="5" customWidth="1"/>
-    <col min="8" max="1030" width="8.78333333333333" style="5"/>
-    <col min="1031" max="16384" width="9" style="5"/>
+    <col min="8" max="1031" width="8.78333333333333" style="5"/>
+    <col min="1032" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="5" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3424,89 +3603,92 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="9">
+        <v>61</v>
+      </c>
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="5">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>1e-12</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3522,173 +3704,176 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="21" customWidth="1"/>
-    <col min="6" max="6" width="7" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14" style="21" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="21" customWidth="1"/>
-    <col min="12" max="1025" width="8.78333333333333" style="21"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14" style="22" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="22" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="22" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="22"/>
+    <col min="1027" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="22" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="21">
+      <c r="B2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="22">
         <v>1</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="22">
         <v>0</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="23"/>
+      <c r="G2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="21">
-        <v>2</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3</v>
+      </c>
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="21">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="G4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="G5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="21">
-        <v>5</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="G6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="22">
+        <v>6</v>
+      </c>
+      <c r="F7" s="22">
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="21">
-        <v>6</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>75</v>
+      <c r="G7" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3704,14 +3889,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3722,11 +3907,11 @@
     <col min="4" max="4" width="12.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.6416666666667" style="5"/>
-    <col min="7" max="1025" width="9.10833333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="7" max="1026" width="9.10833333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3734,13 +3919,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3749,122 +3934,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3880,14 +4068,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -3899,14 +4087,14 @@
     <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="5" customWidth="1"/>
-    <col min="12" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="9" max="10" width="8.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="5" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="5"/>
+    <col min="1027" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3914,19 +4102,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3935,129 +4123,132 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="20">
+        <v>61</v>
+      </c>
+      <c r="E2" s="21">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>103</v>
+      <c r="G2" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="20">
+        <v>61</v>
+      </c>
+      <c r="E4" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>103</v>
+      <c r="G4" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="20">
+        <v>61</v>
+      </c>
+      <c r="E5" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>103</v>
+      <c r="G5" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="20">
+        <v>61</v>
+      </c>
+      <c r="E6" s="21">
         <v>0.001</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>103</v>
+      <c r="G6" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="20">
+        <v>61</v>
+      </c>
+      <c r="E7" s="21">
         <v>0.002</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>103</v>
+      <c r="G7" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4070,23 +4261,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="19"/>
-    <col min="1026" max="16384" width="9" style="19"/>
+    <col min="1" max="1026" width="8.78333333333333" style="20"/>
+    <col min="1027" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4094,10 +4285,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>18</v>
@@ -4105,10 +4296,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -164,7 +164,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -179,7 +179,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>submodel_2</t>
@@ -188,7 +188,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -227,13 +227,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -242,7 +242,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -257,7 +257,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( species_1[e], species_2[e])</t>
@@ -703,11 +700,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -743,9 +740,111 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,101 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,24 +874,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,13 +933,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +1035,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,127 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,11 +1106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,7 +1125,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1141,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1186,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,178 +1203,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2234,11 +2231,11 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2302,11 +2299,8 @@
       <c r="D2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>126</v>
@@ -2318,7 +2312,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>128</v>
@@ -2326,11 +2320,8 @@
       <c r="D3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>126</v>
@@ -2342,7 +2333,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>132</v>
@@ -2350,11 +2341,8 @@
       <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>126</v>
@@ -2366,19 +2354,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>126</v>
@@ -2391,7 +2376,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>135</v>
@@ -2399,11 +2384,8 @@
       <c r="D6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>126</v>
@@ -2416,7 +2398,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>138</v>
@@ -2424,11 +2406,8 @@
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>126</v>
@@ -2496,10 +2475,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2519,13 +2498,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
@@ -2581,7 +2560,7 @@
         <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2601,10 +2580,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>38</v>
@@ -2616,7 +2595,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2659,13 +2638,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>89</v>
@@ -2688,13 +2667,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>90</v>
@@ -2706,18 +2685,18 @@
         <v>127</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>95</v>
@@ -2746,7 +2725,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2772,10 +2751,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>89</v>
@@ -2798,13 +2777,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D2" s="5">
         <v>0.3</v>
@@ -2813,26 +2789,26 @@
         <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -2843,52 +2819,52 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>126</v>
@@ -2896,10 +2872,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -2910,10 +2883,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D10" s="10">
         <v>0.001</v>
@@ -2924,44 +2897,35 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D11" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D12" s="5">
         <v>1100</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +2943,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3055,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>89</v>
@@ -3067,10 +3031,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>29</v>
@@ -3085,22 +3049,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
@@ -3150,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>89</v>
@@ -3162,7 +3126,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>18</v>
@@ -3313,46 +3277,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3462,12 +3426,12 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3513,7 +3477,7 @@
       <c r="B2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="14"/>
@@ -3525,7 +3489,7 @@
       <c r="B3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3546,7 +3510,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3711,7 +3675,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -3782,7 +3746,7 @@
       <c r="F2" s="22">
         <v>0</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="24"/>
@@ -3800,7 +3764,7 @@
       <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H3" s="24"/>
@@ -3818,7 +3782,7 @@
       <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H4" s="24"/>
@@ -3836,7 +3800,7 @@
       <c r="F5" s="22">
         <v>0</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H5" s="24"/>
@@ -3854,7 +3818,7 @@
       <c r="F6" s="22">
         <v>0</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="24"/>
@@ -3872,7 +3836,7 @@
       <c r="F7" s="22">
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4075,7 +4039,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -701,11 +701,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -745,18 +745,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,7 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,25 +784,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,18 +806,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,21 +844,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -866,7 +851,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -882,7 +867,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +903,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,13 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +957,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1035,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,61 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,41 +1106,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,11 +1130,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,8 +1178,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,139 +1194,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3341,10 +3341,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3426,7 +3426,7 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -652,6 +652,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -718,6 +721,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -731,9 +737,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -745,11 +748,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -784,9 +787,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,88 +798,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -903,11 +824,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,7 +854,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +950,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,79 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,19 +1022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,13 +1052,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,37 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,6 +1153,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1165,17 +1201,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,170 +1250,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1399,9 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1861,15 +1861,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1933,25 +1933,25 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1978,10 +1978,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="8.78333333333333" style="6"/>
-    <col min="3" max="3" width="11" style="6" customWidth="1"/>
-    <col min="4" max="1026" width="8.78333333333333" style="6"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2014,24 +2014,24 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2057,20 +2057,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.1416666666667" style="6"/>
-    <col min="3" max="3" width="10.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.9166666666667" style="6"/>
-    <col min="5" max="6" width="8.14166666666667" style="6"/>
-    <col min="7" max="7" width="7.5" style="18"/>
-    <col min="8" max="8" width="7.71666666666667" style="18"/>
-    <col min="9" max="9" width="37.8166666666667" style="6"/>
-    <col min="10" max="10" width="8.78333333333333" style="6"/>
-    <col min="11" max="1027" width="8.78333333333333" style="18"/>
-    <col min="1028" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1416666666667" style="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.9166666666667" style="1"/>
+    <col min="5" max="6" width="8.14166666666667" style="1"/>
+    <col min="7" max="7" width="7.5" style="17"/>
+    <col min="8" max="8" width="7.71666666666667" style="17"/>
+    <col min="9" max="9" width="37.8166666666667" style="1"/>
+    <col min="10" max="10" width="8.78333333333333" style="1"/>
+    <col min="11" max="1027" width="8.78333333333333" style="17"/>
+    <col min="1028" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:14">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2115,132 +2115,132 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>2</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="J3" s="19"/>
+      <c r="M3" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2269,15 +2269,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="6"/>
-    <col min="5" max="5" width="9.125" style="6"/>
-    <col min="6" max="6" width="82" style="6" customWidth="1"/>
-    <col min="7" max="10" width="9.25" style="6"/>
-    <col min="11" max="1025" width="8.78333333333333" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="6" max="6" width="82" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.25" style="1"/>
+    <col min="11" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2319,19 +2319,19 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H2"/>
@@ -2340,19 +2340,19 @@
       <c r="K2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H3"/>
@@ -2361,19 +2361,19 @@
       <c r="K3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H4"/>
@@ -2382,63 +2382,63 @@
       <c r="K4"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H7"/>
@@ -2480,11 +2480,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="10.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="12.25" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2526,22 +2526,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2566,13 +2566,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.78333333333333" style="15"/>
-    <col min="6" max="1026" width="8.78333333333333" style="16"/>
-    <col min="1027" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="19.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="14"/>
+    <col min="6" max="1026" width="8.78333333333333" style="15"/>
+    <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2608,22 +2608,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2649,36 +2649,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="42" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="12" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="12"/>
-    <col min="7" max="7" width="8.78333333333333" style="12"/>
-    <col min="8" max="1026" width="8.78333333333333" style="6"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="42" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="11"/>
+    <col min="7" max="7" width="8.78333333333333" style="11"/>
+    <col min="8" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2687,53 +2687,53 @@
       <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>-3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2759,17 +2759,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="6" customWidth="1"/>
-    <col min="2" max="3" width="8.78333333333333" style="6"/>
-    <col min="4" max="4" width="9.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.78333333333333" style="6"/>
-    <col min="6" max="6" width="49.625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="8.78333333333333" style="6"/>
-    <col min="10" max="1026" width="8.78333333333333" style="10"/>
-    <col min="1027" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.78333333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="1"/>
+    <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.78333333333333" style="1"/>
+    <col min="10" max="1026" width="8.78333333333333" style="9"/>
+    <col min="1027" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2805,155 +2805,155 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>0.3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.001</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="1">
         <v>1100</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>1000</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2982,8 +2982,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="6"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -3037,74 +3037,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3117,90 +3117,93 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="6" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="6"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3225,15 +3228,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="1025" width="8.78333333333333" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3241,7 +3244,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3249,7 +3252,7 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3262,7 +3265,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3306,46 +3309,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3391,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3433,14 +3436,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3448,7 +3451,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3459,43 +3462,46 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3517,17 +3523,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="6" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="6"/>
-    <col min="1016" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3540,7 +3546,7 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
@@ -3548,7 +3554,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3556,7 +3562,7 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
@@ -3564,7 +3570,7 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3604,12 +3610,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="17"/>
-    <col min="8" max="1026" width="8.78333333333333" style="21"/>
-    <col min="1027" max="16384" width="9" style="21"/>
+    <col min="1" max="7" width="8.78333333333333" style="16"/>
+    <col min="8" max="1026" width="8.78333333333333" style="20"/>
+    <col min="1027" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="25" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3634,30 +3640,30 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMI1" s="21"/>
-      <c r="AMJ1" s="21"/>
-      <c r="AMK1" s="21"/>
+      <c r="AMI1" s="20"/>
+      <c r="AMJ1" s="20"/>
+      <c r="AMK1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3683,22 +3689,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="6" customWidth="1"/>
-    <col min="2" max="3" width="16.25" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="12.75" style="6" customWidth="1"/>
-    <col min="8" max="1031" width="8.78333333333333" style="6"/>
-    <col min="1032" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3745,81 +3751,81 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>1e-12</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3848,163 +3854,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="23" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="23" customWidth="1"/>
-    <col min="6" max="6" width="7" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14" style="23" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="23" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="23" customWidth="1"/>
-    <col min="13" max="1026" width="8.78333333333333" style="23"/>
-    <col min="1027" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14" style="22" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="22" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="22" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="22"/>
+    <col min="1027" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="22" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>4</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>0</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>5</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>6</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4033,14 +4039,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.6416666666667" style="6"/>
-    <col min="3" max="3" width="11.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.6416666666667" style="6"/>
-    <col min="7" max="1026" width="9.10833333333333" style="6"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6416666666667" style="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6416666666667" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -4076,114 +4082,114 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4212,18 +4218,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
-    <col min="13" max="1026" width="8.78333333333333" style="6"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -4265,121 +4271,121 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>0.001</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>0.002</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4405,24 +4411,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="21"/>
-    <col min="1027" max="16384" width="9" style="21"/>
+    <col min="1" max="1026" width="8.78333333333333" style="20"/>
+    <col min="1027" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4431,7 +4437,7 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="18"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -183,7 +183,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -768,9 +768,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -801,10 +798,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -860,21 +857,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -896,22 +900,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,32 +977,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,40 +991,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,25 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1043,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,25 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,73 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,19 +1139,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,11 +1222,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,26 +1257,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,153 +1291,167 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3346,12 +3343,12 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3757,14 +3754,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3772,7 +3769,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3804,12 +3801,9 @@
         <v>234</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3848,25 +3842,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3887,7 +3881,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="247">
   <si>
     <t>Table</t>
   </si>
@@ -222,15 +222,6 @@
     <t>degC</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -255,6 +246,9 @@
     <t>Initial volume</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Biological type</t>
   </si>
   <si>
@@ -270,19 +264,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Distribution</t>
+    <t>Volume distribution</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Volume mean</t>
   </si>
   <si>
-    <t>Standard deviation</t>
+    <t>Volume standard deviation</t>
   </si>
   <si>
-    <t>Units</t>
+    <t>Volume units</t>
   </si>
   <si>
     <t>Initial density</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>c</t>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>density_c</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -390,6 +390,9 @@
     <t>Compartment</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>species_1[c]</t>
   </si>
   <si>
@@ -415,6 +418,15 @@
   </si>
   <si>
     <t>species_6[c]</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-species_1[e]</t>
@@ -798,11 +810,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -857,16 +869,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,7 +883,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -892,68 +897,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -962,15 +905,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,8 +933,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,7 +1031,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,25 +1097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,19 +1127,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,19 +1157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,13 +1169,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,55 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,26 +1234,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,6 +1258,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1272,6 +1295,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,164 +1326,144 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2221,10 +2233,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>40</v>
@@ -2278,10 +2290,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2301,24 +2313,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2376,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -2382,25 +2394,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2420,22 +2432,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G3" s="19">
         <v>1</v>
@@ -2444,28 +2456,28 @@
         <v>2</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2474,78 +2486,78 @@
         <v>2</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J4" s="23"/>
       <c r="M4" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2595,19 +2607,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2648,19 +2660,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2669,19 +2681,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2690,19 +2702,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2712,19 +2724,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2796,7 +2808,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
       <c r="D1" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E1" s="17"/>
     </row>
@@ -2808,19 +2820,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2840,19 +2852,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2899,13 +2911,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2925,22 +2937,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2983,16 +2995,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>40</v>
@@ -3012,45 +3024,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="14">
         <v>-3</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="14">
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3096,13 +3108,13 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3122,144 +3134,144 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D10" s="11">
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D11" s="11">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1">
         <v>1100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -3270,7 +3282,7 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3310,10 +3322,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3358,7 +3370,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:14">
       <c r="G1" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -3378,13 +3390,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>93</v>
@@ -3393,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>50</v>
@@ -3402,28 +3414,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>40</v>
@@ -3592,19 +3604,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>40</v>
@@ -3692,46 +3704,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3756,7 +3768,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3777,28 +3789,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3842,25 +3854,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3881,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3959,15 +3971,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="A6" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -4004,34 +4016,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4069,7 +4065,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>40</v>
@@ -4092,25 +4088,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4125,12 +4121,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -4139,8 +4135,8 @@
     <col min="2" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="1031" width="8.78333333333333" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="8" max="1033" width="8.78333333333333" style="1"/>
+    <col min="1034" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
@@ -4152,14 +4148,16 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="M1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="17"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
@@ -5174,8 +5172,8 @@
       <c r="AML1" s="20"/>
       <c r="AMM1" s="20"/>
       <c r="AMN1" s="20"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="20"/>
+      <c r="AMP1" s="20"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20539,52 +20537,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
@@ -21594,8 +21596,8 @@
       <c r="AML2" s="20"/>
       <c r="AMM2" s="20"/>
       <c r="AMN2" s="20"/>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
+      <c r="AMO2" s="20"/>
+      <c r="AMP2" s="20"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -36951,30 +36953,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="11">
         <v>4.58e-17</v>
@@ -36983,18 +36985,24 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>85</v>
@@ -37003,16 +37011,16 @@
         <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="11">
         <v>1e-12</v>
@@ -37021,12 +37029,18 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -37034,8 +37048,9 @@
   <autoFilter ref="A2:G4">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -37267,7 +37282,7 @@
         <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -37287,114 +37302,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -37447,16 +37462,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -37476,121 +37491,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="25">
         <v>0.000148</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="25">
         <v>0.0002</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="25">
         <v>0.0005</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25">
         <v>0.0005</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="25">
         <v>0.001</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="25">
         <v>0.002</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -264,22 +264,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Volume distribution</t>
+    <t>Distribution</t>
   </si>
   <si>
-    <t>Volume mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Volume standard deviation</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>Volume units</t>
+    <t>Units</t>
   </si>
   <si>
     <t>Initial density</t>
   </si>
   <si>
-    <t>pH units</t>
+    <t>Value</t>
   </si>
   <si>
     <t>c</t>
@@ -390,9 +390,6 @@
     <t>Compartment</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>species_1[c]</t>
   </si>
   <si>
@@ -418,15 +415,6 @@
   </si>
   <si>
     <t>species_6[c]</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-species_1[e]</t>
@@ -594,9 +582,6 @@
     <t>k_cat_5_for * max( 1, 2)</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -696,7 +681,16 @@
     <t>Genotype</t>
   </si>
   <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -709,12 +703,6 @@
   </si>
   <si>
     <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
   </si>
   <si>
     <t>Method</t>
@@ -809,12 +797,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -882,11 +870,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,24 +884,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,29 +905,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,7 +917,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,23 +947,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,9 +968,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,49 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,37 +1055,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1097,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,25 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,25 +1163,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,6 +1231,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1254,56 +1251,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,141 +1272,182 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1467,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1489,6 +1477,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1535,11 +1526,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1539,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1959,216 +1950,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7083333333333" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7083333333333" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="31" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
         <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33">
         <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
         <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
         <v>167</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33">
         <v>95</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33">
         <v>21</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2221,8 +2212,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="24"/>
-    <col min="1027" max="16384" width="9" style="24"/>
+    <col min="1" max="1026" width="8.78333333333333" style="25"/>
+    <col min="1027" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2233,10 +2224,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>40</v>
@@ -2290,10 +2281,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2313,10 +2304,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -2324,10 +2315,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>81</v>
@@ -2360,33 +2351,33 @@
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.9166666666667" style="1"/>
     <col min="5" max="6" width="8.14166666666667" style="1"/>
-    <col min="7" max="7" width="7.5" style="19"/>
-    <col min="8" max="8" width="7.71666666666667" style="19"/>
+    <col min="7" max="7" width="7.5" style="20"/>
+    <col min="8" max="8" width="7.71666666666667" style="20"/>
     <col min="9" max="9" width="37.8166666666667" style="1"/>
     <col min="10" max="10" width="8.78333333333333" style="1"/>
-    <col min="11" max="1027" width="8.78333333333333" style="19"/>
-    <col min="1028" max="16384" width="9" style="19"/>
+    <col min="11" max="1027" width="8.78333333333333" style="20"/>
+    <col min="1028" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
-    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:14">
+    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2394,25 +2385,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2432,52 +2423,52 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="19">
+        <v>141</v>
+      </c>
+      <c r="G3" s="20">
         <v>1</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="20">
         <v>2</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="23"/>
+      <c r="I3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2485,79 +2476,79 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="M4" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="M4" s="19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="19">
+        <v>149</v>
+      </c>
+      <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>156</v>
+      <c r="D6" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>159</v>
+      <c r="D7" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2607,19 +2598,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2639,19 +2630,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2660,19 +2651,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2681,19 +2672,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2702,63 +2693,63 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2807,10 +2798,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -2820,19 +2811,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2851,20 +2842,20 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>181</v>
+      <c r="D3" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2894,13 +2885,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.78333333333333" style="15"/>
-    <col min="6" max="1026" width="8.78333333333333" style="16"/>
-    <col min="1027" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="19.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.78333333333333" style="16"/>
+    <col min="6" max="1026" width="8.78333333333333" style="17"/>
+    <col min="1027" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2911,13 +2902,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2936,23 +2927,23 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>184</v>
+      <c r="I2" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2977,36 +2968,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="42" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10" style="12" customWidth="1"/>
-    <col min="5" max="6" width="9.875" style="12"/>
-    <col min="7" max="7" width="8.78333333333333" style="12"/>
+    <col min="1" max="1" width="42" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10" style="13" customWidth="1"/>
+    <col min="5" max="6" width="9.875" style="13"/>
+    <col min="7" max="7" width="8.78333333333333" style="13"/>
     <col min="8" max="1026" width="8.78333333333333" style="1"/>
     <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -3015,54 +3006,54 @@
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>181</v>
       </c>
+      <c r="B2" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="14">
+        <v>109</v>
+      </c>
+      <c r="E2" s="15">
         <v>-3</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>188</v>
+      <c r="F2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>181</v>
+      <c r="A3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="14">
+        <v>114</v>
+      </c>
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>146</v>
+      <c r="F3" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3093,11 +3084,11 @@
     <col min="5" max="5" width="8.78333333333333" style="1"/>
     <col min="6" max="6" width="49.625" style="1" customWidth="1"/>
     <col min="7" max="9" width="8.78333333333333" style="1"/>
-    <col min="10" max="1026" width="8.78333333333333" style="10"/>
-    <col min="1027" max="16384" width="9" style="10"/>
+    <col min="10" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1027" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="10" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3108,13 +3099,13 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3134,10 +3125,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -3146,121 +3137,121 @@
         <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="11">
+        <v>201</v>
+      </c>
+      <c r="D10" s="12">
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="11">
+        <v>202</v>
+      </c>
+      <c r="D11" s="12">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -3271,7 +3262,7 @@
         <v>1100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -3282,7 +3273,7 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3322,10 +3313,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3353,14 +3344,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3368,21 +3359,29 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="7:14">
-      <c r="G1" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+    <row r="1" customHeight="1" spans="7:20">
+      <c r="G1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="Q1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:22">
+    <row r="2" customHeight="1" spans="1:24">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -3390,13 +3389,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>93</v>
@@ -3405,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>50</v>
@@ -3417,43 +3416,51 @@
         <v>61</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3537,7 +3544,7 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3545,25 +3552,25 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3578,65 +3585,70 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="1"/>
-    <col min="1023" max="1023" width="9.10833333333333"/>
+    <col min="3" max="1023" width="9.10833333333333" style="1"/>
+    <col min="1024" max="1024" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="7:8">
+      <c r="G1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
       <c r="C3" s="7"/>
@@ -3666,7 +3678,14 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
+    <row r="10" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3704,46 +3723,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3789,28 +3808,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3854,25 +3873,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3893,7 +3912,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +4003,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="16"/>
+    <col min="1016" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -4052,12 +4071,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="18"/>
-    <col min="8" max="1026" width="8.78333333333333" style="24"/>
-    <col min="1027" max="16384" width="9" style="24"/>
+    <col min="1" max="7" width="8.78333333333333" style="19"/>
+    <col min="8" max="1026" width="8.78333333333333" style="25"/>
+    <col min="1027" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="21" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4082,27 +4101,27 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMI1" s="24"/>
-      <c r="AMJ1" s="24"/>
-      <c r="AMK1" s="24"/>
+      <c r="AMI1" s="25"/>
+      <c r="AMJ1" s="25"/>
+      <c r="AMK1" s="25"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4121,12 +4140,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -4140,1040 +4159,1040 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="17" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="20"/>
-      <c r="CD1" s="20"/>
-      <c r="CE1" s="20"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="20"/>
-      <c r="CH1" s="20"/>
-      <c r="CI1" s="20"/>
-      <c r="CJ1" s="20"/>
-      <c r="CK1" s="20"/>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="20"/>
-      <c r="CT1" s="20"/>
-      <c r="CU1" s="20"/>
-      <c r="CV1" s="20"/>
-      <c r="CW1" s="20"/>
-      <c r="CX1" s="20"/>
-      <c r="CY1" s="20"/>
-      <c r="CZ1" s="20"/>
-      <c r="DA1" s="20"/>
-      <c r="DB1" s="20"/>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="20"/>
-      <c r="DE1" s="20"/>
-      <c r="DF1" s="20"/>
-      <c r="DG1" s="20"/>
-      <c r="DH1" s="20"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="20"/>
-      <c r="DP1" s="20"/>
-      <c r="DQ1" s="20"/>
-      <c r="DR1" s="20"/>
-      <c r="DS1" s="20"/>
-      <c r="DT1" s="20"/>
-      <c r="DU1" s="20"/>
-      <c r="DV1" s="20"/>
-      <c r="DW1" s="20"/>
-      <c r="DX1" s="20"/>
-      <c r="DY1" s="20"/>
-      <c r="DZ1" s="20"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="20"/>
-      <c r="EC1" s="20"/>
-      <c r="ED1" s="20"/>
-      <c r="EE1" s="20"/>
-      <c r="EF1" s="20"/>
-      <c r="EG1" s="20"/>
-      <c r="EH1" s="20"/>
-      <c r="EI1" s="20"/>
-      <c r="EJ1" s="20"/>
-      <c r="EK1" s="20"/>
-      <c r="EL1" s="20"/>
-      <c r="EM1" s="20"/>
-      <c r="EN1" s="20"/>
-      <c r="EO1" s="20"/>
-      <c r="EP1" s="20"/>
-      <c r="EQ1" s="20"/>
-      <c r="ER1" s="20"/>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20"/>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20"/>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="20"/>
-      <c r="EY1" s="20"/>
-      <c r="EZ1" s="20"/>
-      <c r="FA1" s="20"/>
-      <c r="FB1" s="20"/>
-      <c r="FC1" s="20"/>
-      <c r="FD1" s="20"/>
-      <c r="FE1" s="20"/>
-      <c r="FF1" s="20"/>
-      <c r="FG1" s="20"/>
-      <c r="FH1" s="20"/>
-      <c r="FI1" s="20"/>
-      <c r="FJ1" s="20"/>
-      <c r="FK1" s="20"/>
-      <c r="FL1" s="20"/>
-      <c r="FM1" s="20"/>
-      <c r="FN1" s="20"/>
-      <c r="FO1" s="20"/>
-      <c r="FP1" s="20"/>
-      <c r="FQ1" s="20"/>
-      <c r="FR1" s="20"/>
-      <c r="FS1" s="20"/>
-      <c r="FT1" s="20"/>
-      <c r="FU1" s="20"/>
-      <c r="FV1" s="20"/>
-      <c r="FW1" s="20"/>
-      <c r="FX1" s="20"/>
-      <c r="FY1" s="20"/>
-      <c r="FZ1" s="20"/>
-      <c r="GA1" s="20"/>
-      <c r="GB1" s="20"/>
-      <c r="GC1" s="20"/>
-      <c r="GD1" s="20"/>
-      <c r="GE1" s="20"/>
-      <c r="GF1" s="20"/>
-      <c r="GG1" s="20"/>
-      <c r="GH1" s="20"/>
-      <c r="GI1" s="20"/>
-      <c r="GJ1" s="20"/>
-      <c r="GK1" s="20"/>
-      <c r="GL1" s="20"/>
-      <c r="GM1" s="20"/>
-      <c r="GN1" s="20"/>
-      <c r="GO1" s="20"/>
-      <c r="GP1" s="20"/>
-      <c r="GQ1" s="20"/>
-      <c r="GR1" s="20"/>
-      <c r="GS1" s="20"/>
-      <c r="GT1" s="20"/>
-      <c r="GU1" s="20"/>
-      <c r="GV1" s="20"/>
-      <c r="GW1" s="20"/>
-      <c r="GX1" s="20"/>
-      <c r="GY1" s="20"/>
-      <c r="GZ1" s="20"/>
-      <c r="HA1" s="20"/>
-      <c r="HB1" s="20"/>
-      <c r="HC1" s="20"/>
-      <c r="HD1" s="20"/>
-      <c r="HE1" s="20"/>
-      <c r="HF1" s="20"/>
-      <c r="HG1" s="20"/>
-      <c r="HH1" s="20"/>
-      <c r="HI1" s="20"/>
-      <c r="HJ1" s="20"/>
-      <c r="HK1" s="20"/>
-      <c r="HL1" s="20"/>
-      <c r="HM1" s="20"/>
-      <c r="HN1" s="20"/>
-      <c r="HO1" s="20"/>
-      <c r="HP1" s="20"/>
-      <c r="HQ1" s="20"/>
-      <c r="HR1" s="20"/>
-      <c r="HS1" s="20"/>
-      <c r="HT1" s="20"/>
-      <c r="HU1" s="20"/>
-      <c r="HV1" s="20"/>
-      <c r="HW1" s="20"/>
-      <c r="HX1" s="20"/>
-      <c r="HY1" s="20"/>
-      <c r="HZ1" s="20"/>
-      <c r="IA1" s="20"/>
-      <c r="IB1" s="20"/>
-      <c r="IC1" s="20"/>
-      <c r="ID1" s="20"/>
-      <c r="IE1" s="20"/>
-      <c r="IF1" s="20"/>
-      <c r="IG1" s="20"/>
-      <c r="IH1" s="20"/>
-      <c r="II1" s="20"/>
-      <c r="IJ1" s="20"/>
-      <c r="IK1" s="20"/>
-      <c r="IL1" s="20"/>
-      <c r="IM1" s="20"/>
-      <c r="IN1" s="20"/>
-      <c r="IO1" s="20"/>
-      <c r="IP1" s="20"/>
-      <c r="IQ1" s="20"/>
-      <c r="IR1" s="20"/>
-      <c r="IS1" s="20"/>
-      <c r="IT1" s="20"/>
-      <c r="IU1" s="20"/>
-      <c r="IV1" s="20"/>
-      <c r="IW1" s="20"/>
-      <c r="IX1" s="20"/>
-      <c r="IY1" s="20"/>
-      <c r="IZ1" s="20"/>
-      <c r="JA1" s="20"/>
-      <c r="JB1" s="20"/>
-      <c r="JC1" s="20"/>
-      <c r="JD1" s="20"/>
-      <c r="JE1" s="20"/>
-      <c r="JF1" s="20"/>
-      <c r="JG1" s="20"/>
-      <c r="JH1" s="20"/>
-      <c r="JI1" s="20"/>
-      <c r="JJ1" s="20"/>
-      <c r="JK1" s="20"/>
-      <c r="JL1" s="20"/>
-      <c r="JM1" s="20"/>
-      <c r="JN1" s="20"/>
-      <c r="JO1" s="20"/>
-      <c r="JP1" s="20"/>
-      <c r="JQ1" s="20"/>
-      <c r="JR1" s="20"/>
-      <c r="JS1" s="20"/>
-      <c r="JT1" s="20"/>
-      <c r="JU1" s="20"/>
-      <c r="JV1" s="20"/>
-      <c r="JW1" s="20"/>
-      <c r="JX1" s="20"/>
-      <c r="JY1" s="20"/>
-      <c r="JZ1" s="20"/>
-      <c r="KA1" s="20"/>
-      <c r="KB1" s="20"/>
-      <c r="KC1" s="20"/>
-      <c r="KD1" s="20"/>
-      <c r="KE1" s="20"/>
-      <c r="KF1" s="20"/>
-      <c r="KG1" s="20"/>
-      <c r="KH1" s="20"/>
-      <c r="KI1" s="20"/>
-      <c r="KJ1" s="20"/>
-      <c r="KK1" s="20"/>
-      <c r="KL1" s="20"/>
-      <c r="KM1" s="20"/>
-      <c r="KN1" s="20"/>
-      <c r="KO1" s="20"/>
-      <c r="KP1" s="20"/>
-      <c r="KQ1" s="20"/>
-      <c r="KR1" s="20"/>
-      <c r="KS1" s="20"/>
-      <c r="KT1" s="20"/>
-      <c r="KU1" s="20"/>
-      <c r="KV1" s="20"/>
-      <c r="KW1" s="20"/>
-      <c r="KX1" s="20"/>
-      <c r="KY1" s="20"/>
-      <c r="KZ1" s="20"/>
-      <c r="LA1" s="20"/>
-      <c r="LB1" s="20"/>
-      <c r="LC1" s="20"/>
-      <c r="LD1" s="20"/>
-      <c r="LE1" s="20"/>
-      <c r="LF1" s="20"/>
-      <c r="LG1" s="20"/>
-      <c r="LH1" s="20"/>
-      <c r="LI1" s="20"/>
-      <c r="LJ1" s="20"/>
-      <c r="LK1" s="20"/>
-      <c r="LL1" s="20"/>
-      <c r="LM1" s="20"/>
-      <c r="LN1" s="20"/>
-      <c r="LO1" s="20"/>
-      <c r="LP1" s="20"/>
-      <c r="LQ1" s="20"/>
-      <c r="LR1" s="20"/>
-      <c r="LS1" s="20"/>
-      <c r="LT1" s="20"/>
-      <c r="LU1" s="20"/>
-      <c r="LV1" s="20"/>
-      <c r="LW1" s="20"/>
-      <c r="LX1" s="20"/>
-      <c r="LY1" s="20"/>
-      <c r="LZ1" s="20"/>
-      <c r="MA1" s="20"/>
-      <c r="MB1" s="20"/>
-      <c r="MC1" s="20"/>
-      <c r="MD1" s="20"/>
-      <c r="ME1" s="20"/>
-      <c r="MF1" s="20"/>
-      <c r="MG1" s="20"/>
-      <c r="MH1" s="20"/>
-      <c r="MI1" s="20"/>
-      <c r="MJ1" s="20"/>
-      <c r="MK1" s="20"/>
-      <c r="ML1" s="20"/>
-      <c r="MM1" s="20"/>
-      <c r="MN1" s="20"/>
-      <c r="MO1" s="20"/>
-      <c r="MP1" s="20"/>
-      <c r="MQ1" s="20"/>
-      <c r="MR1" s="20"/>
-      <c r="MS1" s="20"/>
-      <c r="MT1" s="20"/>
-      <c r="MU1" s="20"/>
-      <c r="MV1" s="20"/>
-      <c r="MW1" s="20"/>
-      <c r="MX1" s="20"/>
-      <c r="MY1" s="20"/>
-      <c r="MZ1" s="20"/>
-      <c r="NA1" s="20"/>
-      <c r="NB1" s="20"/>
-      <c r="NC1" s="20"/>
-      <c r="ND1" s="20"/>
-      <c r="NE1" s="20"/>
-      <c r="NF1" s="20"/>
-      <c r="NG1" s="20"/>
-      <c r="NH1" s="20"/>
-      <c r="NI1" s="20"/>
-      <c r="NJ1" s="20"/>
-      <c r="NK1" s="20"/>
-      <c r="NL1" s="20"/>
-      <c r="NM1" s="20"/>
-      <c r="NN1" s="20"/>
-      <c r="NO1" s="20"/>
-      <c r="NP1" s="20"/>
-      <c r="NQ1" s="20"/>
-      <c r="NR1" s="20"/>
-      <c r="NS1" s="20"/>
-      <c r="NT1" s="20"/>
-      <c r="NU1" s="20"/>
-      <c r="NV1" s="20"/>
-      <c r="NW1" s="20"/>
-      <c r="NX1" s="20"/>
-      <c r="NY1" s="20"/>
-      <c r="NZ1" s="20"/>
-      <c r="OA1" s="20"/>
-      <c r="OB1" s="20"/>
-      <c r="OC1" s="20"/>
-      <c r="OD1" s="20"/>
-      <c r="OE1" s="20"/>
-      <c r="OF1" s="20"/>
-      <c r="OG1" s="20"/>
-      <c r="OH1" s="20"/>
-      <c r="OI1" s="20"/>
-      <c r="OJ1" s="20"/>
-      <c r="OK1" s="20"/>
-      <c r="OL1" s="20"/>
-      <c r="OM1" s="20"/>
-      <c r="ON1" s="20"/>
-      <c r="OO1" s="20"/>
-      <c r="OP1" s="20"/>
-      <c r="OQ1" s="20"/>
-      <c r="OR1" s="20"/>
-      <c r="OS1" s="20"/>
-      <c r="OT1" s="20"/>
-      <c r="OU1" s="20"/>
-      <c r="OV1" s="20"/>
-      <c r="OW1" s="20"/>
-      <c r="OX1" s="20"/>
-      <c r="OY1" s="20"/>
-      <c r="OZ1" s="20"/>
-      <c r="PA1" s="20"/>
-      <c r="PB1" s="20"/>
-      <c r="PC1" s="20"/>
-      <c r="PD1" s="20"/>
-      <c r="PE1" s="20"/>
-      <c r="PF1" s="20"/>
-      <c r="PG1" s="20"/>
-      <c r="PH1" s="20"/>
-      <c r="PI1" s="20"/>
-      <c r="PJ1" s="20"/>
-      <c r="PK1" s="20"/>
-      <c r="PL1" s="20"/>
-      <c r="PM1" s="20"/>
-      <c r="PN1" s="20"/>
-      <c r="PO1" s="20"/>
-      <c r="PP1" s="20"/>
-      <c r="PQ1" s="20"/>
-      <c r="PR1" s="20"/>
-      <c r="PS1" s="20"/>
-      <c r="PT1" s="20"/>
-      <c r="PU1" s="20"/>
-      <c r="PV1" s="20"/>
-      <c r="PW1" s="20"/>
-      <c r="PX1" s="20"/>
-      <c r="PY1" s="20"/>
-      <c r="PZ1" s="20"/>
-      <c r="QA1" s="20"/>
-      <c r="QB1" s="20"/>
-      <c r="QC1" s="20"/>
-      <c r="QD1" s="20"/>
-      <c r="QE1" s="20"/>
-      <c r="QF1" s="20"/>
-      <c r="QG1" s="20"/>
-      <c r="QH1" s="20"/>
-      <c r="QI1" s="20"/>
-      <c r="QJ1" s="20"/>
-      <c r="QK1" s="20"/>
-      <c r="QL1" s="20"/>
-      <c r="QM1" s="20"/>
-      <c r="QN1" s="20"/>
-      <c r="QO1" s="20"/>
-      <c r="QP1" s="20"/>
-      <c r="QQ1" s="20"/>
-      <c r="QR1" s="20"/>
-      <c r="QS1" s="20"/>
-      <c r="QT1" s="20"/>
-      <c r="QU1" s="20"/>
-      <c r="QV1" s="20"/>
-      <c r="QW1" s="20"/>
-      <c r="QX1" s="20"/>
-      <c r="QY1" s="20"/>
-      <c r="QZ1" s="20"/>
-      <c r="RA1" s="20"/>
-      <c r="RB1" s="20"/>
-      <c r="RC1" s="20"/>
-      <c r="RD1" s="20"/>
-      <c r="RE1" s="20"/>
-      <c r="RF1" s="20"/>
-      <c r="RG1" s="20"/>
-      <c r="RH1" s="20"/>
-      <c r="RI1" s="20"/>
-      <c r="RJ1" s="20"/>
-      <c r="RK1" s="20"/>
-      <c r="RL1" s="20"/>
-      <c r="RM1" s="20"/>
-      <c r="RN1" s="20"/>
-      <c r="RO1" s="20"/>
-      <c r="RP1" s="20"/>
-      <c r="RQ1" s="20"/>
-      <c r="RR1" s="20"/>
-      <c r="RS1" s="20"/>
-      <c r="RT1" s="20"/>
-      <c r="RU1" s="20"/>
-      <c r="RV1" s="20"/>
-      <c r="RW1" s="20"/>
-      <c r="RX1" s="20"/>
-      <c r="RY1" s="20"/>
-      <c r="RZ1" s="20"/>
-      <c r="SA1" s="20"/>
-      <c r="SB1" s="20"/>
-      <c r="SC1" s="20"/>
-      <c r="SD1" s="20"/>
-      <c r="SE1" s="20"/>
-      <c r="SF1" s="20"/>
-      <c r="SG1" s="20"/>
-      <c r="SH1" s="20"/>
-      <c r="SI1" s="20"/>
-      <c r="SJ1" s="20"/>
-      <c r="SK1" s="20"/>
-      <c r="SL1" s="20"/>
-      <c r="SM1" s="20"/>
-      <c r="SN1" s="20"/>
-      <c r="SO1" s="20"/>
-      <c r="SP1" s="20"/>
-      <c r="SQ1" s="20"/>
-      <c r="SR1" s="20"/>
-      <c r="SS1" s="20"/>
-      <c r="ST1" s="20"/>
-      <c r="SU1" s="20"/>
-      <c r="SV1" s="20"/>
-      <c r="SW1" s="20"/>
-      <c r="SX1" s="20"/>
-      <c r="SY1" s="20"/>
-      <c r="SZ1" s="20"/>
-      <c r="TA1" s="20"/>
-      <c r="TB1" s="20"/>
-      <c r="TC1" s="20"/>
-      <c r="TD1" s="20"/>
-      <c r="TE1" s="20"/>
-      <c r="TF1" s="20"/>
-      <c r="TG1" s="20"/>
-      <c r="TH1" s="20"/>
-      <c r="TI1" s="20"/>
-      <c r="TJ1" s="20"/>
-      <c r="TK1" s="20"/>
-      <c r="TL1" s="20"/>
-      <c r="TM1" s="20"/>
-      <c r="TN1" s="20"/>
-      <c r="TO1" s="20"/>
-      <c r="TP1" s="20"/>
-      <c r="TQ1" s="20"/>
-      <c r="TR1" s="20"/>
-      <c r="TS1" s="20"/>
-      <c r="TT1" s="20"/>
-      <c r="TU1" s="20"/>
-      <c r="TV1" s="20"/>
-      <c r="TW1" s="20"/>
-      <c r="TX1" s="20"/>
-      <c r="TY1" s="20"/>
-      <c r="TZ1" s="20"/>
-      <c r="UA1" s="20"/>
-      <c r="UB1" s="20"/>
-      <c r="UC1" s="20"/>
-      <c r="UD1" s="20"/>
-      <c r="UE1" s="20"/>
-      <c r="UF1" s="20"/>
-      <c r="UG1" s="20"/>
-      <c r="UH1" s="20"/>
-      <c r="UI1" s="20"/>
-      <c r="UJ1" s="20"/>
-      <c r="UK1" s="20"/>
-      <c r="UL1" s="20"/>
-      <c r="UM1" s="20"/>
-      <c r="UN1" s="20"/>
-      <c r="UO1" s="20"/>
-      <c r="UP1" s="20"/>
-      <c r="UQ1" s="20"/>
-      <c r="UR1" s="20"/>
-      <c r="US1" s="20"/>
-      <c r="UT1" s="20"/>
-      <c r="UU1" s="20"/>
-      <c r="UV1" s="20"/>
-      <c r="UW1" s="20"/>
-      <c r="UX1" s="20"/>
-      <c r="UY1" s="20"/>
-      <c r="UZ1" s="20"/>
-      <c r="VA1" s="20"/>
-      <c r="VB1" s="20"/>
-      <c r="VC1" s="20"/>
-      <c r="VD1" s="20"/>
-      <c r="VE1" s="20"/>
-      <c r="VF1" s="20"/>
-      <c r="VG1" s="20"/>
-      <c r="VH1" s="20"/>
-      <c r="VI1" s="20"/>
-      <c r="VJ1" s="20"/>
-      <c r="VK1" s="20"/>
-      <c r="VL1" s="20"/>
-      <c r="VM1" s="20"/>
-      <c r="VN1" s="20"/>
-      <c r="VO1" s="20"/>
-      <c r="VP1" s="20"/>
-      <c r="VQ1" s="20"/>
-      <c r="VR1" s="20"/>
-      <c r="VS1" s="20"/>
-      <c r="VT1" s="20"/>
-      <c r="VU1" s="20"/>
-      <c r="VV1" s="20"/>
-      <c r="VW1" s="20"/>
-      <c r="VX1" s="20"/>
-      <c r="VY1" s="20"/>
-      <c r="VZ1" s="20"/>
-      <c r="WA1" s="20"/>
-      <c r="WB1" s="20"/>
-      <c r="WC1" s="20"/>
-      <c r="WD1" s="20"/>
-      <c r="WE1" s="20"/>
-      <c r="WF1" s="20"/>
-      <c r="WG1" s="20"/>
-      <c r="WH1" s="20"/>
-      <c r="WI1" s="20"/>
-      <c r="WJ1" s="20"/>
-      <c r="WK1" s="20"/>
-      <c r="WL1" s="20"/>
-      <c r="WM1" s="20"/>
-      <c r="WN1" s="20"/>
-      <c r="WO1" s="20"/>
-      <c r="WP1" s="20"/>
-      <c r="WQ1" s="20"/>
-      <c r="WR1" s="20"/>
-      <c r="WS1" s="20"/>
-      <c r="WT1" s="20"/>
-      <c r="WU1" s="20"/>
-      <c r="WV1" s="20"/>
-      <c r="WW1" s="20"/>
-      <c r="WX1" s="20"/>
-      <c r="WY1" s="20"/>
-      <c r="WZ1" s="20"/>
-      <c r="XA1" s="20"/>
-      <c r="XB1" s="20"/>
-      <c r="XC1" s="20"/>
-      <c r="XD1" s="20"/>
-      <c r="XE1" s="20"/>
-      <c r="XF1" s="20"/>
-      <c r="XG1" s="20"/>
-      <c r="XH1" s="20"/>
-      <c r="XI1" s="20"/>
-      <c r="XJ1" s="20"/>
-      <c r="XK1" s="20"/>
-      <c r="XL1" s="20"/>
-      <c r="XM1" s="20"/>
-      <c r="XN1" s="20"/>
-      <c r="XO1" s="20"/>
-      <c r="XP1" s="20"/>
-      <c r="XQ1" s="20"/>
-      <c r="XR1" s="20"/>
-      <c r="XS1" s="20"/>
-      <c r="XT1" s="20"/>
-      <c r="XU1" s="20"/>
-      <c r="XV1" s="20"/>
-      <c r="XW1" s="20"/>
-      <c r="XX1" s="20"/>
-      <c r="XY1" s="20"/>
-      <c r="XZ1" s="20"/>
-      <c r="YA1" s="20"/>
-      <c r="YB1" s="20"/>
-      <c r="YC1" s="20"/>
-      <c r="YD1" s="20"/>
-      <c r="YE1" s="20"/>
-      <c r="YF1" s="20"/>
-      <c r="YG1" s="20"/>
-      <c r="YH1" s="20"/>
-      <c r="YI1" s="20"/>
-      <c r="YJ1" s="20"/>
-      <c r="YK1" s="20"/>
-      <c r="YL1" s="20"/>
-      <c r="YM1" s="20"/>
-      <c r="YN1" s="20"/>
-      <c r="YO1" s="20"/>
-      <c r="YP1" s="20"/>
-      <c r="YQ1" s="20"/>
-      <c r="YR1" s="20"/>
-      <c r="YS1" s="20"/>
-      <c r="YT1" s="20"/>
-      <c r="YU1" s="20"/>
-      <c r="YV1" s="20"/>
-      <c r="YW1" s="20"/>
-      <c r="YX1" s="20"/>
-      <c r="YY1" s="20"/>
-      <c r="YZ1" s="20"/>
-      <c r="ZA1" s="20"/>
-      <c r="ZB1" s="20"/>
-      <c r="ZC1" s="20"/>
-      <c r="ZD1" s="20"/>
-      <c r="ZE1" s="20"/>
-      <c r="ZF1" s="20"/>
-      <c r="ZG1" s="20"/>
-      <c r="ZH1" s="20"/>
-      <c r="ZI1" s="20"/>
-      <c r="ZJ1" s="20"/>
-      <c r="ZK1" s="20"/>
-      <c r="ZL1" s="20"/>
-      <c r="ZM1" s="20"/>
-      <c r="ZN1" s="20"/>
-      <c r="ZO1" s="20"/>
-      <c r="ZP1" s="20"/>
-      <c r="ZQ1" s="20"/>
-      <c r="ZR1" s="20"/>
-      <c r="ZS1" s="20"/>
-      <c r="ZT1" s="20"/>
-      <c r="ZU1" s="20"/>
-      <c r="ZV1" s="20"/>
-      <c r="ZW1" s="20"/>
-      <c r="ZX1" s="20"/>
-      <c r="ZY1" s="20"/>
-      <c r="ZZ1" s="20"/>
-      <c r="AAA1" s="20"/>
-      <c r="AAB1" s="20"/>
-      <c r="AAC1" s="20"/>
-      <c r="AAD1" s="20"/>
-      <c r="AAE1" s="20"/>
-      <c r="AAF1" s="20"/>
-      <c r="AAG1" s="20"/>
-      <c r="AAH1" s="20"/>
-      <c r="AAI1" s="20"/>
-      <c r="AAJ1" s="20"/>
-      <c r="AAK1" s="20"/>
-      <c r="AAL1" s="20"/>
-      <c r="AAM1" s="20"/>
-      <c r="AAN1" s="20"/>
-      <c r="AAO1" s="20"/>
-      <c r="AAP1" s="20"/>
-      <c r="AAQ1" s="20"/>
-      <c r="AAR1" s="20"/>
-      <c r="AAS1" s="20"/>
-      <c r="AAT1" s="20"/>
-      <c r="AAU1" s="20"/>
-      <c r="AAV1" s="20"/>
-      <c r="AAW1" s="20"/>
-      <c r="AAX1" s="20"/>
-      <c r="AAY1" s="20"/>
-      <c r="AAZ1" s="20"/>
-      <c r="ABA1" s="20"/>
-      <c r="ABB1" s="20"/>
-      <c r="ABC1" s="20"/>
-      <c r="ABD1" s="20"/>
-      <c r="ABE1" s="20"/>
-      <c r="ABF1" s="20"/>
-      <c r="ABG1" s="20"/>
-      <c r="ABH1" s="20"/>
-      <c r="ABI1" s="20"/>
-      <c r="ABJ1" s="20"/>
-      <c r="ABK1" s="20"/>
-      <c r="ABL1" s="20"/>
-      <c r="ABM1" s="20"/>
-      <c r="ABN1" s="20"/>
-      <c r="ABO1" s="20"/>
-      <c r="ABP1" s="20"/>
-      <c r="ABQ1" s="20"/>
-      <c r="ABR1" s="20"/>
-      <c r="ABS1" s="20"/>
-      <c r="ABT1" s="20"/>
-      <c r="ABU1" s="20"/>
-      <c r="ABV1" s="20"/>
-      <c r="ABW1" s="20"/>
-      <c r="ABX1" s="20"/>
-      <c r="ABY1" s="20"/>
-      <c r="ABZ1" s="20"/>
-      <c r="ACA1" s="20"/>
-      <c r="ACB1" s="20"/>
-      <c r="ACC1" s="20"/>
-      <c r="ACD1" s="20"/>
-      <c r="ACE1" s="20"/>
-      <c r="ACF1" s="20"/>
-      <c r="ACG1" s="20"/>
-      <c r="ACH1" s="20"/>
-      <c r="ACI1" s="20"/>
-      <c r="ACJ1" s="20"/>
-      <c r="ACK1" s="20"/>
-      <c r="ACL1" s="20"/>
-      <c r="ACM1" s="20"/>
-      <c r="ACN1" s="20"/>
-      <c r="ACO1" s="20"/>
-      <c r="ACP1" s="20"/>
-      <c r="ACQ1" s="20"/>
-      <c r="ACR1" s="20"/>
-      <c r="ACS1" s="20"/>
-      <c r="ACT1" s="20"/>
-      <c r="ACU1" s="20"/>
-      <c r="ACV1" s="20"/>
-      <c r="ACW1" s="20"/>
-      <c r="ACX1" s="20"/>
-      <c r="ACY1" s="20"/>
-      <c r="ACZ1" s="20"/>
-      <c r="ADA1" s="20"/>
-      <c r="ADB1" s="20"/>
-      <c r="ADC1" s="20"/>
-      <c r="ADD1" s="20"/>
-      <c r="ADE1" s="20"/>
-      <c r="ADF1" s="20"/>
-      <c r="ADG1" s="20"/>
-      <c r="ADH1" s="20"/>
-      <c r="ADI1" s="20"/>
-      <c r="ADJ1" s="20"/>
-      <c r="ADK1" s="20"/>
-      <c r="ADL1" s="20"/>
-      <c r="ADM1" s="20"/>
-      <c r="ADN1" s="20"/>
-      <c r="ADO1" s="20"/>
-      <c r="ADP1" s="20"/>
-      <c r="ADQ1" s="20"/>
-      <c r="ADR1" s="20"/>
-      <c r="ADS1" s="20"/>
-      <c r="ADT1" s="20"/>
-      <c r="ADU1" s="20"/>
-      <c r="ADV1" s="20"/>
-      <c r="ADW1" s="20"/>
-      <c r="ADX1" s="20"/>
-      <c r="ADY1" s="20"/>
-      <c r="ADZ1" s="20"/>
-      <c r="AEA1" s="20"/>
-      <c r="AEB1" s="20"/>
-      <c r="AEC1" s="20"/>
-      <c r="AED1" s="20"/>
-      <c r="AEE1" s="20"/>
-      <c r="AEF1" s="20"/>
-      <c r="AEG1" s="20"/>
-      <c r="AEH1" s="20"/>
-      <c r="AEI1" s="20"/>
-      <c r="AEJ1" s="20"/>
-      <c r="AEK1" s="20"/>
-      <c r="AEL1" s="20"/>
-      <c r="AEM1" s="20"/>
-      <c r="AEN1" s="20"/>
-      <c r="AEO1" s="20"/>
-      <c r="AEP1" s="20"/>
-      <c r="AEQ1" s="20"/>
-      <c r="AER1" s="20"/>
-      <c r="AES1" s="20"/>
-      <c r="AET1" s="20"/>
-      <c r="AEU1" s="20"/>
-      <c r="AEV1" s="20"/>
-      <c r="AEW1" s="20"/>
-      <c r="AEX1" s="20"/>
-      <c r="AEY1" s="20"/>
-      <c r="AEZ1" s="20"/>
-      <c r="AFA1" s="20"/>
-      <c r="AFB1" s="20"/>
-      <c r="AFC1" s="20"/>
-      <c r="AFD1" s="20"/>
-      <c r="AFE1" s="20"/>
-      <c r="AFF1" s="20"/>
-      <c r="AFG1" s="20"/>
-      <c r="AFH1" s="20"/>
-      <c r="AFI1" s="20"/>
-      <c r="AFJ1" s="20"/>
-      <c r="AFK1" s="20"/>
-      <c r="AFL1" s="20"/>
-      <c r="AFM1" s="20"/>
-      <c r="AFN1" s="20"/>
-      <c r="AFO1" s="20"/>
-      <c r="AFP1" s="20"/>
-      <c r="AFQ1" s="20"/>
-      <c r="AFR1" s="20"/>
-      <c r="AFS1" s="20"/>
-      <c r="AFT1" s="20"/>
-      <c r="AFU1" s="20"/>
-      <c r="AFV1" s="20"/>
-      <c r="AFW1" s="20"/>
-      <c r="AFX1" s="20"/>
-      <c r="AFY1" s="20"/>
-      <c r="AFZ1" s="20"/>
-      <c r="AGA1" s="20"/>
-      <c r="AGB1" s="20"/>
-      <c r="AGC1" s="20"/>
-      <c r="AGD1" s="20"/>
-      <c r="AGE1" s="20"/>
-      <c r="AGF1" s="20"/>
-      <c r="AGG1" s="20"/>
-      <c r="AGH1" s="20"/>
-      <c r="AGI1" s="20"/>
-      <c r="AGJ1" s="20"/>
-      <c r="AGK1" s="20"/>
-      <c r="AGL1" s="20"/>
-      <c r="AGM1" s="20"/>
-      <c r="AGN1" s="20"/>
-      <c r="AGO1" s="20"/>
-      <c r="AGP1" s="20"/>
-      <c r="AGQ1" s="20"/>
-      <c r="AGR1" s="20"/>
-      <c r="AGS1" s="20"/>
-      <c r="AGT1" s="20"/>
-      <c r="AGU1" s="20"/>
-      <c r="AGV1" s="20"/>
-      <c r="AGW1" s="20"/>
-      <c r="AGX1" s="20"/>
-      <c r="AGY1" s="20"/>
-      <c r="AGZ1" s="20"/>
-      <c r="AHA1" s="20"/>
-      <c r="AHB1" s="20"/>
-      <c r="AHC1" s="20"/>
-      <c r="AHD1" s="20"/>
-      <c r="AHE1" s="20"/>
-      <c r="AHF1" s="20"/>
-      <c r="AHG1" s="20"/>
-      <c r="AHH1" s="20"/>
-      <c r="AHI1" s="20"/>
-      <c r="AHJ1" s="20"/>
-      <c r="AHK1" s="20"/>
-      <c r="AHL1" s="20"/>
-      <c r="AHM1" s="20"/>
-      <c r="AHN1" s="20"/>
-      <c r="AHO1" s="20"/>
-      <c r="AHP1" s="20"/>
-      <c r="AHQ1" s="20"/>
-      <c r="AHR1" s="20"/>
-      <c r="AHS1" s="20"/>
-      <c r="AHT1" s="20"/>
-      <c r="AHU1" s="20"/>
-      <c r="AHV1" s="20"/>
-      <c r="AHW1" s="20"/>
-      <c r="AHX1" s="20"/>
-      <c r="AHY1" s="20"/>
-      <c r="AHZ1" s="20"/>
-      <c r="AIA1" s="20"/>
-      <c r="AIB1" s="20"/>
-      <c r="AIC1" s="20"/>
-      <c r="AID1" s="20"/>
-      <c r="AIE1" s="20"/>
-      <c r="AIF1" s="20"/>
-      <c r="AIG1" s="20"/>
-      <c r="AIH1" s="20"/>
-      <c r="AII1" s="20"/>
-      <c r="AIJ1" s="20"/>
-      <c r="AIK1" s="20"/>
-      <c r="AIL1" s="20"/>
-      <c r="AIM1" s="20"/>
-      <c r="AIN1" s="20"/>
-      <c r="AIO1" s="20"/>
-      <c r="AIP1" s="20"/>
-      <c r="AIQ1" s="20"/>
-      <c r="AIR1" s="20"/>
-      <c r="AIS1" s="20"/>
-      <c r="AIT1" s="20"/>
-      <c r="AIU1" s="20"/>
-      <c r="AIV1" s="20"/>
-      <c r="AIW1" s="20"/>
-      <c r="AIX1" s="20"/>
-      <c r="AIY1" s="20"/>
-      <c r="AIZ1" s="20"/>
-      <c r="AJA1" s="20"/>
-      <c r="AJB1" s="20"/>
-      <c r="AJC1" s="20"/>
-      <c r="AJD1" s="20"/>
-      <c r="AJE1" s="20"/>
-      <c r="AJF1" s="20"/>
-      <c r="AJG1" s="20"/>
-      <c r="AJH1" s="20"/>
-      <c r="AJI1" s="20"/>
-      <c r="AJJ1" s="20"/>
-      <c r="AJK1" s="20"/>
-      <c r="AJL1" s="20"/>
-      <c r="AJM1" s="20"/>
-      <c r="AJN1" s="20"/>
-      <c r="AJO1" s="20"/>
-      <c r="AJP1" s="20"/>
-      <c r="AJQ1" s="20"/>
-      <c r="AJR1" s="20"/>
-      <c r="AJS1" s="20"/>
-      <c r="AJT1" s="20"/>
-      <c r="AJU1" s="20"/>
-      <c r="AJV1" s="20"/>
-      <c r="AJW1" s="20"/>
-      <c r="AJX1" s="20"/>
-      <c r="AJY1" s="20"/>
-      <c r="AJZ1" s="20"/>
-      <c r="AKA1" s="20"/>
-      <c r="AKB1" s="20"/>
-      <c r="AKC1" s="20"/>
-      <c r="AKD1" s="20"/>
-      <c r="AKE1" s="20"/>
-      <c r="AKF1" s="20"/>
-      <c r="AKG1" s="20"/>
-      <c r="AKH1" s="20"/>
-      <c r="AKI1" s="20"/>
-      <c r="AKJ1" s="20"/>
-      <c r="AKK1" s="20"/>
-      <c r="AKL1" s="20"/>
-      <c r="AKM1" s="20"/>
-      <c r="AKN1" s="20"/>
-      <c r="AKO1" s="20"/>
-      <c r="AKP1" s="20"/>
-      <c r="AKQ1" s="20"/>
-      <c r="AKR1" s="20"/>
-      <c r="AKS1" s="20"/>
-      <c r="AKT1" s="20"/>
-      <c r="AKU1" s="20"/>
-      <c r="AKV1" s="20"/>
-      <c r="AKW1" s="20"/>
-      <c r="AKX1" s="20"/>
-      <c r="AKY1" s="20"/>
-      <c r="AKZ1" s="20"/>
-      <c r="ALA1" s="20"/>
-      <c r="ALB1" s="20"/>
-      <c r="ALC1" s="20"/>
-      <c r="ALD1" s="20"/>
-      <c r="ALE1" s="20"/>
-      <c r="ALF1" s="20"/>
-      <c r="ALG1" s="20"/>
-      <c r="ALH1" s="20"/>
-      <c r="ALI1" s="20"/>
-      <c r="ALJ1" s="20"/>
-      <c r="ALK1" s="20"/>
-      <c r="ALL1" s="20"/>
-      <c r="ALM1" s="20"/>
-      <c r="ALN1" s="20"/>
-      <c r="ALO1" s="20"/>
-      <c r="ALP1" s="20"/>
-      <c r="ALQ1" s="20"/>
-      <c r="ALR1" s="20"/>
-      <c r="ALS1" s="20"/>
-      <c r="ALT1" s="20"/>
-      <c r="ALU1" s="20"/>
-      <c r="ALV1" s="20"/>
-      <c r="ALW1" s="20"/>
-      <c r="ALX1" s="20"/>
-      <c r="ALY1" s="20"/>
-      <c r="ALZ1" s="20"/>
-      <c r="AMA1" s="20"/>
-      <c r="AMB1" s="20"/>
-      <c r="AMC1" s="20"/>
-      <c r="AMD1" s="20"/>
-      <c r="AME1" s="20"/>
-      <c r="AMF1" s="20"/>
-      <c r="AMG1" s="20"/>
-      <c r="AMH1" s="20"/>
-      <c r="AMI1" s="20"/>
-      <c r="AMJ1" s="20"/>
-      <c r="AMK1" s="20"/>
-      <c r="AML1" s="20"/>
-      <c r="AMM1" s="20"/>
-      <c r="AMN1" s="20"/>
-      <c r="AMO1" s="20"/>
-      <c r="AMP1" s="20"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
+      <c r="CG1" s="21"/>
+      <c r="CH1" s="21"/>
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="21"/>
+      <c r="CK1" s="21"/>
+      <c r="CL1" s="21"/>
+      <c r="CM1" s="21"/>
+      <c r="CN1" s="21"/>
+      <c r="CO1" s="21"/>
+      <c r="CP1" s="21"/>
+      <c r="CQ1" s="21"/>
+      <c r="CR1" s="21"/>
+      <c r="CS1" s="21"/>
+      <c r="CT1" s="21"/>
+      <c r="CU1" s="21"/>
+      <c r="CV1" s="21"/>
+      <c r="CW1" s="21"/>
+      <c r="CX1" s="21"/>
+      <c r="CY1" s="21"/>
+      <c r="CZ1" s="21"/>
+      <c r="DA1" s="21"/>
+      <c r="DB1" s="21"/>
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DV1" s="21"/>
+      <c r="DW1" s="21"/>
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
+      <c r="EF1" s="21"/>
+      <c r="EG1" s="21"/>
+      <c r="EH1" s="21"/>
+      <c r="EI1" s="21"/>
+      <c r="EJ1" s="21"/>
+      <c r="EK1" s="21"/>
+      <c r="EL1" s="21"/>
+      <c r="EM1" s="21"/>
+      <c r="EN1" s="21"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="21"/>
+      <c r="EQ1" s="21"/>
+      <c r="ER1" s="21"/>
+      <c r="ES1" s="21"/>
+      <c r="ET1" s="21"/>
+      <c r="EU1" s="21"/>
+      <c r="EV1" s="21"/>
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="21"/>
+      <c r="EY1" s="21"/>
+      <c r="EZ1" s="21"/>
+      <c r="FA1" s="21"/>
+      <c r="FB1" s="21"/>
+      <c r="FC1" s="21"/>
+      <c r="FD1" s="21"/>
+      <c r="FE1" s="21"/>
+      <c r="FF1" s="21"/>
+      <c r="FG1" s="21"/>
+      <c r="FH1" s="21"/>
+      <c r="FI1" s="21"/>
+      <c r="FJ1" s="21"/>
+      <c r="FK1" s="21"/>
+      <c r="FL1" s="21"/>
+      <c r="FM1" s="21"/>
+      <c r="FN1" s="21"/>
+      <c r="FO1" s="21"/>
+      <c r="FP1" s="21"/>
+      <c r="FQ1" s="21"/>
+      <c r="FR1" s="21"/>
+      <c r="FS1" s="21"/>
+      <c r="FT1" s="21"/>
+      <c r="FU1" s="21"/>
+      <c r="FV1" s="21"/>
+      <c r="FW1" s="21"/>
+      <c r="FX1" s="21"/>
+      <c r="FY1" s="21"/>
+      <c r="FZ1" s="21"/>
+      <c r="GA1" s="21"/>
+      <c r="GB1" s="21"/>
+      <c r="GC1" s="21"/>
+      <c r="GD1" s="21"/>
+      <c r="GE1" s="21"/>
+      <c r="GF1" s="21"/>
+      <c r="GG1" s="21"/>
+      <c r="GH1" s="21"/>
+      <c r="GI1" s="21"/>
+      <c r="GJ1" s="21"/>
+      <c r="GK1" s="21"/>
+      <c r="GL1" s="21"/>
+      <c r="GM1" s="21"/>
+      <c r="GN1" s="21"/>
+      <c r="GO1" s="21"/>
+      <c r="GP1" s="21"/>
+      <c r="GQ1" s="21"/>
+      <c r="GR1" s="21"/>
+      <c r="GS1" s="21"/>
+      <c r="GT1" s="21"/>
+      <c r="GU1" s="21"/>
+      <c r="GV1" s="21"/>
+      <c r="GW1" s="21"/>
+      <c r="GX1" s="21"/>
+      <c r="GY1" s="21"/>
+      <c r="GZ1" s="21"/>
+      <c r="HA1" s="21"/>
+      <c r="HB1" s="21"/>
+      <c r="HC1" s="21"/>
+      <c r="HD1" s="21"/>
+      <c r="HE1" s="21"/>
+      <c r="HF1" s="21"/>
+      <c r="HG1" s="21"/>
+      <c r="HH1" s="21"/>
+      <c r="HI1" s="21"/>
+      <c r="HJ1" s="21"/>
+      <c r="HK1" s="21"/>
+      <c r="HL1" s="21"/>
+      <c r="HM1" s="21"/>
+      <c r="HN1" s="21"/>
+      <c r="HO1" s="21"/>
+      <c r="HP1" s="21"/>
+      <c r="HQ1" s="21"/>
+      <c r="HR1" s="21"/>
+      <c r="HS1" s="21"/>
+      <c r="HT1" s="21"/>
+      <c r="HU1" s="21"/>
+      <c r="HV1" s="21"/>
+      <c r="HW1" s="21"/>
+      <c r="HX1" s="21"/>
+      <c r="HY1" s="21"/>
+      <c r="HZ1" s="21"/>
+      <c r="IA1" s="21"/>
+      <c r="IB1" s="21"/>
+      <c r="IC1" s="21"/>
+      <c r="ID1" s="21"/>
+      <c r="IE1" s="21"/>
+      <c r="IF1" s="21"/>
+      <c r="IG1" s="21"/>
+      <c r="IH1" s="21"/>
+      <c r="II1" s="21"/>
+      <c r="IJ1" s="21"/>
+      <c r="IK1" s="21"/>
+      <c r="IL1" s="21"/>
+      <c r="IM1" s="21"/>
+      <c r="IN1" s="21"/>
+      <c r="IO1" s="21"/>
+      <c r="IP1" s="21"/>
+      <c r="IQ1" s="21"/>
+      <c r="IR1" s="21"/>
+      <c r="IS1" s="21"/>
+      <c r="IT1" s="21"/>
+      <c r="IU1" s="21"/>
+      <c r="IV1" s="21"/>
+      <c r="IW1" s="21"/>
+      <c r="IX1" s="21"/>
+      <c r="IY1" s="21"/>
+      <c r="IZ1" s="21"/>
+      <c r="JA1" s="21"/>
+      <c r="JB1" s="21"/>
+      <c r="JC1" s="21"/>
+      <c r="JD1" s="21"/>
+      <c r="JE1" s="21"/>
+      <c r="JF1" s="21"/>
+      <c r="JG1" s="21"/>
+      <c r="JH1" s="21"/>
+      <c r="JI1" s="21"/>
+      <c r="JJ1" s="21"/>
+      <c r="JK1" s="21"/>
+      <c r="JL1" s="21"/>
+      <c r="JM1" s="21"/>
+      <c r="JN1" s="21"/>
+      <c r="JO1" s="21"/>
+      <c r="JP1" s="21"/>
+      <c r="JQ1" s="21"/>
+      <c r="JR1" s="21"/>
+      <c r="JS1" s="21"/>
+      <c r="JT1" s="21"/>
+      <c r="JU1" s="21"/>
+      <c r="JV1" s="21"/>
+      <c r="JW1" s="21"/>
+      <c r="JX1" s="21"/>
+      <c r="JY1" s="21"/>
+      <c r="JZ1" s="21"/>
+      <c r="KA1" s="21"/>
+      <c r="KB1" s="21"/>
+      <c r="KC1" s="21"/>
+      <c r="KD1" s="21"/>
+      <c r="KE1" s="21"/>
+      <c r="KF1" s="21"/>
+      <c r="KG1" s="21"/>
+      <c r="KH1" s="21"/>
+      <c r="KI1" s="21"/>
+      <c r="KJ1" s="21"/>
+      <c r="KK1" s="21"/>
+      <c r="KL1" s="21"/>
+      <c r="KM1" s="21"/>
+      <c r="KN1" s="21"/>
+      <c r="KO1" s="21"/>
+      <c r="KP1" s="21"/>
+      <c r="KQ1" s="21"/>
+      <c r="KR1" s="21"/>
+      <c r="KS1" s="21"/>
+      <c r="KT1" s="21"/>
+      <c r="KU1" s="21"/>
+      <c r="KV1" s="21"/>
+      <c r="KW1" s="21"/>
+      <c r="KX1" s="21"/>
+      <c r="KY1" s="21"/>
+      <c r="KZ1" s="21"/>
+      <c r="LA1" s="21"/>
+      <c r="LB1" s="21"/>
+      <c r="LC1" s="21"/>
+      <c r="LD1" s="21"/>
+      <c r="LE1" s="21"/>
+      <c r="LF1" s="21"/>
+      <c r="LG1" s="21"/>
+      <c r="LH1" s="21"/>
+      <c r="LI1" s="21"/>
+      <c r="LJ1" s="21"/>
+      <c r="LK1" s="21"/>
+      <c r="LL1" s="21"/>
+      <c r="LM1" s="21"/>
+      <c r="LN1" s="21"/>
+      <c r="LO1" s="21"/>
+      <c r="LP1" s="21"/>
+      <c r="LQ1" s="21"/>
+      <c r="LR1" s="21"/>
+      <c r="LS1" s="21"/>
+      <c r="LT1" s="21"/>
+      <c r="LU1" s="21"/>
+      <c r="LV1" s="21"/>
+      <c r="LW1" s="21"/>
+      <c r="LX1" s="21"/>
+      <c r="LY1" s="21"/>
+      <c r="LZ1" s="21"/>
+      <c r="MA1" s="21"/>
+      <c r="MB1" s="21"/>
+      <c r="MC1" s="21"/>
+      <c r="MD1" s="21"/>
+      <c r="ME1" s="21"/>
+      <c r="MF1" s="21"/>
+      <c r="MG1" s="21"/>
+      <c r="MH1" s="21"/>
+      <c r="MI1" s="21"/>
+      <c r="MJ1" s="21"/>
+      <c r="MK1" s="21"/>
+      <c r="ML1" s="21"/>
+      <c r="MM1" s="21"/>
+      <c r="MN1" s="21"/>
+      <c r="MO1" s="21"/>
+      <c r="MP1" s="21"/>
+      <c r="MQ1" s="21"/>
+      <c r="MR1" s="21"/>
+      <c r="MS1" s="21"/>
+      <c r="MT1" s="21"/>
+      <c r="MU1" s="21"/>
+      <c r="MV1" s="21"/>
+      <c r="MW1" s="21"/>
+      <c r="MX1" s="21"/>
+      <c r="MY1" s="21"/>
+      <c r="MZ1" s="21"/>
+      <c r="NA1" s="21"/>
+      <c r="NB1" s="21"/>
+      <c r="NC1" s="21"/>
+      <c r="ND1" s="21"/>
+      <c r="NE1" s="21"/>
+      <c r="NF1" s="21"/>
+      <c r="NG1" s="21"/>
+      <c r="NH1" s="21"/>
+      <c r="NI1" s="21"/>
+      <c r="NJ1" s="21"/>
+      <c r="NK1" s="21"/>
+      <c r="NL1" s="21"/>
+      <c r="NM1" s="21"/>
+      <c r="NN1" s="21"/>
+      <c r="NO1" s="21"/>
+      <c r="NP1" s="21"/>
+      <c r="NQ1" s="21"/>
+      <c r="NR1" s="21"/>
+      <c r="NS1" s="21"/>
+      <c r="NT1" s="21"/>
+      <c r="NU1" s="21"/>
+      <c r="NV1" s="21"/>
+      <c r="NW1" s="21"/>
+      <c r="NX1" s="21"/>
+      <c r="NY1" s="21"/>
+      <c r="NZ1" s="21"/>
+      <c r="OA1" s="21"/>
+      <c r="OB1" s="21"/>
+      <c r="OC1" s="21"/>
+      <c r="OD1" s="21"/>
+      <c r="OE1" s="21"/>
+      <c r="OF1" s="21"/>
+      <c r="OG1" s="21"/>
+      <c r="OH1" s="21"/>
+      <c r="OI1" s="21"/>
+      <c r="OJ1" s="21"/>
+      <c r="OK1" s="21"/>
+      <c r="OL1" s="21"/>
+      <c r="OM1" s="21"/>
+      <c r="ON1" s="21"/>
+      <c r="OO1" s="21"/>
+      <c r="OP1" s="21"/>
+      <c r="OQ1" s="21"/>
+      <c r="OR1" s="21"/>
+      <c r="OS1" s="21"/>
+      <c r="OT1" s="21"/>
+      <c r="OU1" s="21"/>
+      <c r="OV1" s="21"/>
+      <c r="OW1" s="21"/>
+      <c r="OX1" s="21"/>
+      <c r="OY1" s="21"/>
+      <c r="OZ1" s="21"/>
+      <c r="PA1" s="21"/>
+      <c r="PB1" s="21"/>
+      <c r="PC1" s="21"/>
+      <c r="PD1" s="21"/>
+      <c r="PE1" s="21"/>
+      <c r="PF1" s="21"/>
+      <c r="PG1" s="21"/>
+      <c r="PH1" s="21"/>
+      <c r="PI1" s="21"/>
+      <c r="PJ1" s="21"/>
+      <c r="PK1" s="21"/>
+      <c r="PL1" s="21"/>
+      <c r="PM1" s="21"/>
+      <c r="PN1" s="21"/>
+      <c r="PO1" s="21"/>
+      <c r="PP1" s="21"/>
+      <c r="PQ1" s="21"/>
+      <c r="PR1" s="21"/>
+      <c r="PS1" s="21"/>
+      <c r="PT1" s="21"/>
+      <c r="PU1" s="21"/>
+      <c r="PV1" s="21"/>
+      <c r="PW1" s="21"/>
+      <c r="PX1" s="21"/>
+      <c r="PY1" s="21"/>
+      <c r="PZ1" s="21"/>
+      <c r="QA1" s="21"/>
+      <c r="QB1" s="21"/>
+      <c r="QC1" s="21"/>
+      <c r="QD1" s="21"/>
+      <c r="QE1" s="21"/>
+      <c r="QF1" s="21"/>
+      <c r="QG1" s="21"/>
+      <c r="QH1" s="21"/>
+      <c r="QI1" s="21"/>
+      <c r="QJ1" s="21"/>
+      <c r="QK1" s="21"/>
+      <c r="QL1" s="21"/>
+      <c r="QM1" s="21"/>
+      <c r="QN1" s="21"/>
+      <c r="QO1" s="21"/>
+      <c r="QP1" s="21"/>
+      <c r="QQ1" s="21"/>
+      <c r="QR1" s="21"/>
+      <c r="QS1" s="21"/>
+      <c r="QT1" s="21"/>
+      <c r="QU1" s="21"/>
+      <c r="QV1" s="21"/>
+      <c r="QW1" s="21"/>
+      <c r="QX1" s="21"/>
+      <c r="QY1" s="21"/>
+      <c r="QZ1" s="21"/>
+      <c r="RA1" s="21"/>
+      <c r="RB1" s="21"/>
+      <c r="RC1" s="21"/>
+      <c r="RD1" s="21"/>
+      <c r="RE1" s="21"/>
+      <c r="RF1" s="21"/>
+      <c r="RG1" s="21"/>
+      <c r="RH1" s="21"/>
+      <c r="RI1" s="21"/>
+      <c r="RJ1" s="21"/>
+      <c r="RK1" s="21"/>
+      <c r="RL1" s="21"/>
+      <c r="RM1" s="21"/>
+      <c r="RN1" s="21"/>
+      <c r="RO1" s="21"/>
+      <c r="RP1" s="21"/>
+      <c r="RQ1" s="21"/>
+      <c r="RR1" s="21"/>
+      <c r="RS1" s="21"/>
+      <c r="RT1" s="21"/>
+      <c r="RU1" s="21"/>
+      <c r="RV1" s="21"/>
+      <c r="RW1" s="21"/>
+      <c r="RX1" s="21"/>
+      <c r="RY1" s="21"/>
+      <c r="RZ1" s="21"/>
+      <c r="SA1" s="21"/>
+      <c r="SB1" s="21"/>
+      <c r="SC1" s="21"/>
+      <c r="SD1" s="21"/>
+      <c r="SE1" s="21"/>
+      <c r="SF1" s="21"/>
+      <c r="SG1" s="21"/>
+      <c r="SH1" s="21"/>
+      <c r="SI1" s="21"/>
+      <c r="SJ1" s="21"/>
+      <c r="SK1" s="21"/>
+      <c r="SL1" s="21"/>
+      <c r="SM1" s="21"/>
+      <c r="SN1" s="21"/>
+      <c r="SO1" s="21"/>
+      <c r="SP1" s="21"/>
+      <c r="SQ1" s="21"/>
+      <c r="SR1" s="21"/>
+      <c r="SS1" s="21"/>
+      <c r="ST1" s="21"/>
+      <c r="SU1" s="21"/>
+      <c r="SV1" s="21"/>
+      <c r="SW1" s="21"/>
+      <c r="SX1" s="21"/>
+      <c r="SY1" s="21"/>
+      <c r="SZ1" s="21"/>
+      <c r="TA1" s="21"/>
+      <c r="TB1" s="21"/>
+      <c r="TC1" s="21"/>
+      <c r="TD1" s="21"/>
+      <c r="TE1" s="21"/>
+      <c r="TF1" s="21"/>
+      <c r="TG1" s="21"/>
+      <c r="TH1" s="21"/>
+      <c r="TI1" s="21"/>
+      <c r="TJ1" s="21"/>
+      <c r="TK1" s="21"/>
+      <c r="TL1" s="21"/>
+      <c r="TM1" s="21"/>
+      <c r="TN1" s="21"/>
+      <c r="TO1" s="21"/>
+      <c r="TP1" s="21"/>
+      <c r="TQ1" s="21"/>
+      <c r="TR1" s="21"/>
+      <c r="TS1" s="21"/>
+      <c r="TT1" s="21"/>
+      <c r="TU1" s="21"/>
+      <c r="TV1" s="21"/>
+      <c r="TW1" s="21"/>
+      <c r="TX1" s="21"/>
+      <c r="TY1" s="21"/>
+      <c r="TZ1" s="21"/>
+      <c r="UA1" s="21"/>
+      <c r="UB1" s="21"/>
+      <c r="UC1" s="21"/>
+      <c r="UD1" s="21"/>
+      <c r="UE1" s="21"/>
+      <c r="UF1" s="21"/>
+      <c r="UG1" s="21"/>
+      <c r="UH1" s="21"/>
+      <c r="UI1" s="21"/>
+      <c r="UJ1" s="21"/>
+      <c r="UK1" s="21"/>
+      <c r="UL1" s="21"/>
+      <c r="UM1" s="21"/>
+      <c r="UN1" s="21"/>
+      <c r="UO1" s="21"/>
+      <c r="UP1" s="21"/>
+      <c r="UQ1" s="21"/>
+      <c r="UR1" s="21"/>
+      <c r="US1" s="21"/>
+      <c r="UT1" s="21"/>
+      <c r="UU1" s="21"/>
+      <c r="UV1" s="21"/>
+      <c r="UW1" s="21"/>
+      <c r="UX1" s="21"/>
+      <c r="UY1" s="21"/>
+      <c r="UZ1" s="21"/>
+      <c r="VA1" s="21"/>
+      <c r="VB1" s="21"/>
+      <c r="VC1" s="21"/>
+      <c r="VD1" s="21"/>
+      <c r="VE1" s="21"/>
+      <c r="VF1" s="21"/>
+      <c r="VG1" s="21"/>
+      <c r="VH1" s="21"/>
+      <c r="VI1" s="21"/>
+      <c r="VJ1" s="21"/>
+      <c r="VK1" s="21"/>
+      <c r="VL1" s="21"/>
+      <c r="VM1" s="21"/>
+      <c r="VN1" s="21"/>
+      <c r="VO1" s="21"/>
+      <c r="VP1" s="21"/>
+      <c r="VQ1" s="21"/>
+      <c r="VR1" s="21"/>
+      <c r="VS1" s="21"/>
+      <c r="VT1" s="21"/>
+      <c r="VU1" s="21"/>
+      <c r="VV1" s="21"/>
+      <c r="VW1" s="21"/>
+      <c r="VX1" s="21"/>
+      <c r="VY1" s="21"/>
+      <c r="VZ1" s="21"/>
+      <c r="WA1" s="21"/>
+      <c r="WB1" s="21"/>
+      <c r="WC1" s="21"/>
+      <c r="WD1" s="21"/>
+      <c r="WE1" s="21"/>
+      <c r="WF1" s="21"/>
+      <c r="WG1" s="21"/>
+      <c r="WH1" s="21"/>
+      <c r="WI1" s="21"/>
+      <c r="WJ1" s="21"/>
+      <c r="WK1" s="21"/>
+      <c r="WL1" s="21"/>
+      <c r="WM1" s="21"/>
+      <c r="WN1" s="21"/>
+      <c r="WO1" s="21"/>
+      <c r="WP1" s="21"/>
+      <c r="WQ1" s="21"/>
+      <c r="WR1" s="21"/>
+      <c r="WS1" s="21"/>
+      <c r="WT1" s="21"/>
+      <c r="WU1" s="21"/>
+      <c r="WV1" s="21"/>
+      <c r="WW1" s="21"/>
+      <c r="WX1" s="21"/>
+      <c r="WY1" s="21"/>
+      <c r="WZ1" s="21"/>
+      <c r="XA1" s="21"/>
+      <c r="XB1" s="21"/>
+      <c r="XC1" s="21"/>
+      <c r="XD1" s="21"/>
+      <c r="XE1" s="21"/>
+      <c r="XF1" s="21"/>
+      <c r="XG1" s="21"/>
+      <c r="XH1" s="21"/>
+      <c r="XI1" s="21"/>
+      <c r="XJ1" s="21"/>
+      <c r="XK1" s="21"/>
+      <c r="XL1" s="21"/>
+      <c r="XM1" s="21"/>
+      <c r="XN1" s="21"/>
+      <c r="XO1" s="21"/>
+      <c r="XP1" s="21"/>
+      <c r="XQ1" s="21"/>
+      <c r="XR1" s="21"/>
+      <c r="XS1" s="21"/>
+      <c r="XT1" s="21"/>
+      <c r="XU1" s="21"/>
+      <c r="XV1" s="21"/>
+      <c r="XW1" s="21"/>
+      <c r="XX1" s="21"/>
+      <c r="XY1" s="21"/>
+      <c r="XZ1" s="21"/>
+      <c r="YA1" s="21"/>
+      <c r="YB1" s="21"/>
+      <c r="YC1" s="21"/>
+      <c r="YD1" s="21"/>
+      <c r="YE1" s="21"/>
+      <c r="YF1" s="21"/>
+      <c r="YG1" s="21"/>
+      <c r="YH1" s="21"/>
+      <c r="YI1" s="21"/>
+      <c r="YJ1" s="21"/>
+      <c r="YK1" s="21"/>
+      <c r="YL1" s="21"/>
+      <c r="YM1" s="21"/>
+      <c r="YN1" s="21"/>
+      <c r="YO1" s="21"/>
+      <c r="YP1" s="21"/>
+      <c r="YQ1" s="21"/>
+      <c r="YR1" s="21"/>
+      <c r="YS1" s="21"/>
+      <c r="YT1" s="21"/>
+      <c r="YU1" s="21"/>
+      <c r="YV1" s="21"/>
+      <c r="YW1" s="21"/>
+      <c r="YX1" s="21"/>
+      <c r="YY1" s="21"/>
+      <c r="YZ1" s="21"/>
+      <c r="ZA1" s="21"/>
+      <c r="ZB1" s="21"/>
+      <c r="ZC1" s="21"/>
+      <c r="ZD1" s="21"/>
+      <c r="ZE1" s="21"/>
+      <c r="ZF1" s="21"/>
+      <c r="ZG1" s="21"/>
+      <c r="ZH1" s="21"/>
+      <c r="ZI1" s="21"/>
+      <c r="ZJ1" s="21"/>
+      <c r="ZK1" s="21"/>
+      <c r="ZL1" s="21"/>
+      <c r="ZM1" s="21"/>
+      <c r="ZN1" s="21"/>
+      <c r="ZO1" s="21"/>
+      <c r="ZP1" s="21"/>
+      <c r="ZQ1" s="21"/>
+      <c r="ZR1" s="21"/>
+      <c r="ZS1" s="21"/>
+      <c r="ZT1" s="21"/>
+      <c r="ZU1" s="21"/>
+      <c r="ZV1" s="21"/>
+      <c r="ZW1" s="21"/>
+      <c r="ZX1" s="21"/>
+      <c r="ZY1" s="21"/>
+      <c r="ZZ1" s="21"/>
+      <c r="AAA1" s="21"/>
+      <c r="AAB1" s="21"/>
+      <c r="AAC1" s="21"/>
+      <c r="AAD1" s="21"/>
+      <c r="AAE1" s="21"/>
+      <c r="AAF1" s="21"/>
+      <c r="AAG1" s="21"/>
+      <c r="AAH1" s="21"/>
+      <c r="AAI1" s="21"/>
+      <c r="AAJ1" s="21"/>
+      <c r="AAK1" s="21"/>
+      <c r="AAL1" s="21"/>
+      <c r="AAM1" s="21"/>
+      <c r="AAN1" s="21"/>
+      <c r="AAO1" s="21"/>
+      <c r="AAP1" s="21"/>
+      <c r="AAQ1" s="21"/>
+      <c r="AAR1" s="21"/>
+      <c r="AAS1" s="21"/>
+      <c r="AAT1" s="21"/>
+      <c r="AAU1" s="21"/>
+      <c r="AAV1" s="21"/>
+      <c r="AAW1" s="21"/>
+      <c r="AAX1" s="21"/>
+      <c r="AAY1" s="21"/>
+      <c r="AAZ1" s="21"/>
+      <c r="ABA1" s="21"/>
+      <c r="ABB1" s="21"/>
+      <c r="ABC1" s="21"/>
+      <c r="ABD1" s="21"/>
+      <c r="ABE1" s="21"/>
+      <c r="ABF1" s="21"/>
+      <c r="ABG1" s="21"/>
+      <c r="ABH1" s="21"/>
+      <c r="ABI1" s="21"/>
+      <c r="ABJ1" s="21"/>
+      <c r="ABK1" s="21"/>
+      <c r="ABL1" s="21"/>
+      <c r="ABM1" s="21"/>
+      <c r="ABN1" s="21"/>
+      <c r="ABO1" s="21"/>
+      <c r="ABP1" s="21"/>
+      <c r="ABQ1" s="21"/>
+      <c r="ABR1" s="21"/>
+      <c r="ABS1" s="21"/>
+      <c r="ABT1" s="21"/>
+      <c r="ABU1" s="21"/>
+      <c r="ABV1" s="21"/>
+      <c r="ABW1" s="21"/>
+      <c r="ABX1" s="21"/>
+      <c r="ABY1" s="21"/>
+      <c r="ABZ1" s="21"/>
+      <c r="ACA1" s="21"/>
+      <c r="ACB1" s="21"/>
+      <c r="ACC1" s="21"/>
+      <c r="ACD1" s="21"/>
+      <c r="ACE1" s="21"/>
+      <c r="ACF1" s="21"/>
+      <c r="ACG1" s="21"/>
+      <c r="ACH1" s="21"/>
+      <c r="ACI1" s="21"/>
+      <c r="ACJ1" s="21"/>
+      <c r="ACK1" s="21"/>
+      <c r="ACL1" s="21"/>
+      <c r="ACM1" s="21"/>
+      <c r="ACN1" s="21"/>
+      <c r="ACO1" s="21"/>
+      <c r="ACP1" s="21"/>
+      <c r="ACQ1" s="21"/>
+      <c r="ACR1" s="21"/>
+      <c r="ACS1" s="21"/>
+      <c r="ACT1" s="21"/>
+      <c r="ACU1" s="21"/>
+      <c r="ACV1" s="21"/>
+      <c r="ACW1" s="21"/>
+      <c r="ACX1" s="21"/>
+      <c r="ACY1" s="21"/>
+      <c r="ACZ1" s="21"/>
+      <c r="ADA1" s="21"/>
+      <c r="ADB1" s="21"/>
+      <c r="ADC1" s="21"/>
+      <c r="ADD1" s="21"/>
+      <c r="ADE1" s="21"/>
+      <c r="ADF1" s="21"/>
+      <c r="ADG1" s="21"/>
+      <c r="ADH1" s="21"/>
+      <c r="ADI1" s="21"/>
+      <c r="ADJ1" s="21"/>
+      <c r="ADK1" s="21"/>
+      <c r="ADL1" s="21"/>
+      <c r="ADM1" s="21"/>
+      <c r="ADN1" s="21"/>
+      <c r="ADO1" s="21"/>
+      <c r="ADP1" s="21"/>
+      <c r="ADQ1" s="21"/>
+      <c r="ADR1" s="21"/>
+      <c r="ADS1" s="21"/>
+      <c r="ADT1" s="21"/>
+      <c r="ADU1" s="21"/>
+      <c r="ADV1" s="21"/>
+      <c r="ADW1" s="21"/>
+      <c r="ADX1" s="21"/>
+      <c r="ADY1" s="21"/>
+      <c r="ADZ1" s="21"/>
+      <c r="AEA1" s="21"/>
+      <c r="AEB1" s="21"/>
+      <c r="AEC1" s="21"/>
+      <c r="AED1" s="21"/>
+      <c r="AEE1" s="21"/>
+      <c r="AEF1" s="21"/>
+      <c r="AEG1" s="21"/>
+      <c r="AEH1" s="21"/>
+      <c r="AEI1" s="21"/>
+      <c r="AEJ1" s="21"/>
+      <c r="AEK1" s="21"/>
+      <c r="AEL1" s="21"/>
+      <c r="AEM1" s="21"/>
+      <c r="AEN1" s="21"/>
+      <c r="AEO1" s="21"/>
+      <c r="AEP1" s="21"/>
+      <c r="AEQ1" s="21"/>
+      <c r="AER1" s="21"/>
+      <c r="AES1" s="21"/>
+      <c r="AET1" s="21"/>
+      <c r="AEU1" s="21"/>
+      <c r="AEV1" s="21"/>
+      <c r="AEW1" s="21"/>
+      <c r="AEX1" s="21"/>
+      <c r="AEY1" s="21"/>
+      <c r="AEZ1" s="21"/>
+      <c r="AFA1" s="21"/>
+      <c r="AFB1" s="21"/>
+      <c r="AFC1" s="21"/>
+      <c r="AFD1" s="21"/>
+      <c r="AFE1" s="21"/>
+      <c r="AFF1" s="21"/>
+      <c r="AFG1" s="21"/>
+      <c r="AFH1" s="21"/>
+      <c r="AFI1" s="21"/>
+      <c r="AFJ1" s="21"/>
+      <c r="AFK1" s="21"/>
+      <c r="AFL1" s="21"/>
+      <c r="AFM1" s="21"/>
+      <c r="AFN1" s="21"/>
+      <c r="AFO1" s="21"/>
+      <c r="AFP1" s="21"/>
+      <c r="AFQ1" s="21"/>
+      <c r="AFR1" s="21"/>
+      <c r="AFS1" s="21"/>
+      <c r="AFT1" s="21"/>
+      <c r="AFU1" s="21"/>
+      <c r="AFV1" s="21"/>
+      <c r="AFW1" s="21"/>
+      <c r="AFX1" s="21"/>
+      <c r="AFY1" s="21"/>
+      <c r="AFZ1" s="21"/>
+      <c r="AGA1" s="21"/>
+      <c r="AGB1" s="21"/>
+      <c r="AGC1" s="21"/>
+      <c r="AGD1" s="21"/>
+      <c r="AGE1" s="21"/>
+      <c r="AGF1" s="21"/>
+      <c r="AGG1" s="21"/>
+      <c r="AGH1" s="21"/>
+      <c r="AGI1" s="21"/>
+      <c r="AGJ1" s="21"/>
+      <c r="AGK1" s="21"/>
+      <c r="AGL1" s="21"/>
+      <c r="AGM1" s="21"/>
+      <c r="AGN1" s="21"/>
+      <c r="AGO1" s="21"/>
+      <c r="AGP1" s="21"/>
+      <c r="AGQ1" s="21"/>
+      <c r="AGR1" s="21"/>
+      <c r="AGS1" s="21"/>
+      <c r="AGT1" s="21"/>
+      <c r="AGU1" s="21"/>
+      <c r="AGV1" s="21"/>
+      <c r="AGW1" s="21"/>
+      <c r="AGX1" s="21"/>
+      <c r="AGY1" s="21"/>
+      <c r="AGZ1" s="21"/>
+      <c r="AHA1" s="21"/>
+      <c r="AHB1" s="21"/>
+      <c r="AHC1" s="21"/>
+      <c r="AHD1" s="21"/>
+      <c r="AHE1" s="21"/>
+      <c r="AHF1" s="21"/>
+      <c r="AHG1" s="21"/>
+      <c r="AHH1" s="21"/>
+      <c r="AHI1" s="21"/>
+      <c r="AHJ1" s="21"/>
+      <c r="AHK1" s="21"/>
+      <c r="AHL1" s="21"/>
+      <c r="AHM1" s="21"/>
+      <c r="AHN1" s="21"/>
+      <c r="AHO1" s="21"/>
+      <c r="AHP1" s="21"/>
+      <c r="AHQ1" s="21"/>
+      <c r="AHR1" s="21"/>
+      <c r="AHS1" s="21"/>
+      <c r="AHT1" s="21"/>
+      <c r="AHU1" s="21"/>
+      <c r="AHV1" s="21"/>
+      <c r="AHW1" s="21"/>
+      <c r="AHX1" s="21"/>
+      <c r="AHY1" s="21"/>
+      <c r="AHZ1" s="21"/>
+      <c r="AIA1" s="21"/>
+      <c r="AIB1" s="21"/>
+      <c r="AIC1" s="21"/>
+      <c r="AID1" s="21"/>
+      <c r="AIE1" s="21"/>
+      <c r="AIF1" s="21"/>
+      <c r="AIG1" s="21"/>
+      <c r="AIH1" s="21"/>
+      <c r="AII1" s="21"/>
+      <c r="AIJ1" s="21"/>
+      <c r="AIK1" s="21"/>
+      <c r="AIL1" s="21"/>
+      <c r="AIM1" s="21"/>
+      <c r="AIN1" s="21"/>
+      <c r="AIO1" s="21"/>
+      <c r="AIP1" s="21"/>
+      <c r="AIQ1" s="21"/>
+      <c r="AIR1" s="21"/>
+      <c r="AIS1" s="21"/>
+      <c r="AIT1" s="21"/>
+      <c r="AIU1" s="21"/>
+      <c r="AIV1" s="21"/>
+      <c r="AIW1" s="21"/>
+      <c r="AIX1" s="21"/>
+      <c r="AIY1" s="21"/>
+      <c r="AIZ1" s="21"/>
+      <c r="AJA1" s="21"/>
+      <c r="AJB1" s="21"/>
+      <c r="AJC1" s="21"/>
+      <c r="AJD1" s="21"/>
+      <c r="AJE1" s="21"/>
+      <c r="AJF1" s="21"/>
+      <c r="AJG1" s="21"/>
+      <c r="AJH1" s="21"/>
+      <c r="AJI1" s="21"/>
+      <c r="AJJ1" s="21"/>
+      <c r="AJK1" s="21"/>
+      <c r="AJL1" s="21"/>
+      <c r="AJM1" s="21"/>
+      <c r="AJN1" s="21"/>
+      <c r="AJO1" s="21"/>
+      <c r="AJP1" s="21"/>
+      <c r="AJQ1" s="21"/>
+      <c r="AJR1" s="21"/>
+      <c r="AJS1" s="21"/>
+      <c r="AJT1" s="21"/>
+      <c r="AJU1" s="21"/>
+      <c r="AJV1" s="21"/>
+      <c r="AJW1" s="21"/>
+      <c r="AJX1" s="21"/>
+      <c r="AJY1" s="21"/>
+      <c r="AJZ1" s="21"/>
+      <c r="AKA1" s="21"/>
+      <c r="AKB1" s="21"/>
+      <c r="AKC1" s="21"/>
+      <c r="AKD1" s="21"/>
+      <c r="AKE1" s="21"/>
+      <c r="AKF1" s="21"/>
+      <c r="AKG1" s="21"/>
+      <c r="AKH1" s="21"/>
+      <c r="AKI1" s="21"/>
+      <c r="AKJ1" s="21"/>
+      <c r="AKK1" s="21"/>
+      <c r="AKL1" s="21"/>
+      <c r="AKM1" s="21"/>
+      <c r="AKN1" s="21"/>
+      <c r="AKO1" s="21"/>
+      <c r="AKP1" s="21"/>
+      <c r="AKQ1" s="21"/>
+      <c r="AKR1" s="21"/>
+      <c r="AKS1" s="21"/>
+      <c r="AKT1" s="21"/>
+      <c r="AKU1" s="21"/>
+      <c r="AKV1" s="21"/>
+      <c r="AKW1" s="21"/>
+      <c r="AKX1" s="21"/>
+      <c r="AKY1" s="21"/>
+      <c r="AKZ1" s="21"/>
+      <c r="ALA1" s="21"/>
+      <c r="ALB1" s="21"/>
+      <c r="ALC1" s="21"/>
+      <c r="ALD1" s="21"/>
+      <c r="ALE1" s="21"/>
+      <c r="ALF1" s="21"/>
+      <c r="ALG1" s="21"/>
+      <c r="ALH1" s="21"/>
+      <c r="ALI1" s="21"/>
+      <c r="ALJ1" s="21"/>
+      <c r="ALK1" s="21"/>
+      <c r="ALL1" s="21"/>
+      <c r="ALM1" s="21"/>
+      <c r="ALN1" s="21"/>
+      <c r="ALO1" s="21"/>
+      <c r="ALP1" s="21"/>
+      <c r="ALQ1" s="21"/>
+      <c r="ALR1" s="21"/>
+      <c r="ALS1" s="21"/>
+      <c r="ALT1" s="21"/>
+      <c r="ALU1" s="21"/>
+      <c r="ALV1" s="21"/>
+      <c r="ALW1" s="21"/>
+      <c r="ALX1" s="21"/>
+      <c r="ALY1" s="21"/>
+      <c r="ALZ1" s="21"/>
+      <c r="AMA1" s="21"/>
+      <c r="AMB1" s="21"/>
+      <c r="AMC1" s="21"/>
+      <c r="AMD1" s="21"/>
+      <c r="AME1" s="21"/>
+      <c r="AMF1" s="21"/>
+      <c r="AMG1" s="21"/>
+      <c r="AMH1" s="21"/>
+      <c r="AMI1" s="21"/>
+      <c r="AMJ1" s="21"/>
+      <c r="AMK1" s="21"/>
+      <c r="AML1" s="21"/>
+      <c r="AMM1" s="21"/>
+      <c r="AMN1" s="21"/>
+      <c r="AMO1" s="21"/>
+      <c r="AMP1" s="21"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20530,7 +20549,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20567,10 +20586,10 @@
         <v>71</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>40</v>
@@ -20587,1017 +20606,1017 @@
       <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="20"/>
-      <c r="CI2" s="20"/>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="20"/>
-      <c r="CU2" s="20"/>
-      <c r="CV2" s="20"/>
-      <c r="CW2" s="20"/>
-      <c r="CX2" s="20"/>
-      <c r="CY2" s="20"/>
-      <c r="CZ2" s="20"/>
-      <c r="DA2" s="20"/>
-      <c r="DB2" s="20"/>
-      <c r="DC2" s="20"/>
-      <c r="DD2" s="20"/>
-      <c r="DE2" s="20"/>
-      <c r="DF2" s="20"/>
-      <c r="DG2" s="20"/>
-      <c r="DH2" s="20"/>
-      <c r="DI2" s="20"/>
-      <c r="DJ2" s="20"/>
-      <c r="DK2" s="20"/>
-      <c r="DL2" s="20"/>
-      <c r="DM2" s="20"/>
-      <c r="DN2" s="20"/>
-      <c r="DO2" s="20"/>
-      <c r="DP2" s="20"/>
-      <c r="DQ2" s="20"/>
-      <c r="DR2" s="20"/>
-      <c r="DS2" s="20"/>
-      <c r="DT2" s="20"/>
-      <c r="DU2" s="20"/>
-      <c r="DV2" s="20"/>
-      <c r="DW2" s="20"/>
-      <c r="DX2" s="20"/>
-      <c r="DY2" s="20"/>
-      <c r="DZ2" s="20"/>
-      <c r="EA2" s="20"/>
-      <c r="EB2" s="20"/>
-      <c r="EC2" s="20"/>
-      <c r="ED2" s="20"/>
-      <c r="EE2" s="20"/>
-      <c r="EF2" s="20"/>
-      <c r="EG2" s="20"/>
-      <c r="EH2" s="20"/>
-      <c r="EI2" s="20"/>
-      <c r="EJ2" s="20"/>
-      <c r="EK2" s="20"/>
-      <c r="EL2" s="20"/>
-      <c r="EM2" s="20"/>
-      <c r="EN2" s="20"/>
-      <c r="EO2" s="20"/>
-      <c r="EP2" s="20"/>
-      <c r="EQ2" s="20"/>
-      <c r="ER2" s="20"/>
-      <c r="ES2" s="20"/>
-      <c r="ET2" s="20"/>
-      <c r="EU2" s="20"/>
-      <c r="EV2" s="20"/>
-      <c r="EW2" s="20"/>
-      <c r="EX2" s="20"/>
-      <c r="EY2" s="20"/>
-      <c r="EZ2" s="20"/>
-      <c r="FA2" s="20"/>
-      <c r="FB2" s="20"/>
-      <c r="FC2" s="20"/>
-      <c r="FD2" s="20"/>
-      <c r="FE2" s="20"/>
-      <c r="FF2" s="20"/>
-      <c r="FG2" s="20"/>
-      <c r="FH2" s="20"/>
-      <c r="FI2" s="20"/>
-      <c r="FJ2" s="20"/>
-      <c r="FK2" s="20"/>
-      <c r="FL2" s="20"/>
-      <c r="FM2" s="20"/>
-      <c r="FN2" s="20"/>
-      <c r="FO2" s="20"/>
-      <c r="FP2" s="20"/>
-      <c r="FQ2" s="20"/>
-      <c r="FR2" s="20"/>
-      <c r="FS2" s="20"/>
-      <c r="FT2" s="20"/>
-      <c r="FU2" s="20"/>
-      <c r="FV2" s="20"/>
-      <c r="FW2" s="20"/>
-      <c r="FX2" s="20"/>
-      <c r="FY2" s="20"/>
-      <c r="FZ2" s="20"/>
-      <c r="GA2" s="20"/>
-      <c r="GB2" s="20"/>
-      <c r="GC2" s="20"/>
-      <c r="GD2" s="20"/>
-      <c r="GE2" s="20"/>
-      <c r="GF2" s="20"/>
-      <c r="GG2" s="20"/>
-      <c r="GH2" s="20"/>
-      <c r="GI2" s="20"/>
-      <c r="GJ2" s="20"/>
-      <c r="GK2" s="20"/>
-      <c r="GL2" s="20"/>
-      <c r="GM2" s="20"/>
-      <c r="GN2" s="20"/>
-      <c r="GO2" s="20"/>
-      <c r="GP2" s="20"/>
-      <c r="GQ2" s="20"/>
-      <c r="GR2" s="20"/>
-      <c r="GS2" s="20"/>
-      <c r="GT2" s="20"/>
-      <c r="GU2" s="20"/>
-      <c r="GV2" s="20"/>
-      <c r="GW2" s="20"/>
-      <c r="GX2" s="20"/>
-      <c r="GY2" s="20"/>
-      <c r="GZ2" s="20"/>
-      <c r="HA2" s="20"/>
-      <c r="HB2" s="20"/>
-      <c r="HC2" s="20"/>
-      <c r="HD2" s="20"/>
-      <c r="HE2" s="20"/>
-      <c r="HF2" s="20"/>
-      <c r="HG2" s="20"/>
-      <c r="HH2" s="20"/>
-      <c r="HI2" s="20"/>
-      <c r="HJ2" s="20"/>
-      <c r="HK2" s="20"/>
-      <c r="HL2" s="20"/>
-      <c r="HM2" s="20"/>
-      <c r="HN2" s="20"/>
-      <c r="HO2" s="20"/>
-      <c r="HP2" s="20"/>
-      <c r="HQ2" s="20"/>
-      <c r="HR2" s="20"/>
-      <c r="HS2" s="20"/>
-      <c r="HT2" s="20"/>
-      <c r="HU2" s="20"/>
-      <c r="HV2" s="20"/>
-      <c r="HW2" s="20"/>
-      <c r="HX2" s="20"/>
-      <c r="HY2" s="20"/>
-      <c r="HZ2" s="20"/>
-      <c r="IA2" s="20"/>
-      <c r="IB2" s="20"/>
-      <c r="IC2" s="20"/>
-      <c r="ID2" s="20"/>
-      <c r="IE2" s="20"/>
-      <c r="IF2" s="20"/>
-      <c r="IG2" s="20"/>
-      <c r="IH2" s="20"/>
-      <c r="II2" s="20"/>
-      <c r="IJ2" s="20"/>
-      <c r="IK2" s="20"/>
-      <c r="IL2" s="20"/>
-      <c r="IM2" s="20"/>
-      <c r="IN2" s="20"/>
-      <c r="IO2" s="20"/>
-      <c r="IP2" s="20"/>
-      <c r="IQ2" s="20"/>
-      <c r="IR2" s="20"/>
-      <c r="IS2" s="20"/>
-      <c r="IT2" s="20"/>
-      <c r="IU2" s="20"/>
-      <c r="IV2" s="20"/>
-      <c r="IW2" s="20"/>
-      <c r="IX2" s="20"/>
-      <c r="IY2" s="20"/>
-      <c r="IZ2" s="20"/>
-      <c r="JA2" s="20"/>
-      <c r="JB2" s="20"/>
-      <c r="JC2" s="20"/>
-      <c r="JD2" s="20"/>
-      <c r="JE2" s="20"/>
-      <c r="JF2" s="20"/>
-      <c r="JG2" s="20"/>
-      <c r="JH2" s="20"/>
-      <c r="JI2" s="20"/>
-      <c r="JJ2" s="20"/>
-      <c r="JK2" s="20"/>
-      <c r="JL2" s="20"/>
-      <c r="JM2" s="20"/>
-      <c r="JN2" s="20"/>
-      <c r="JO2" s="20"/>
-      <c r="JP2" s="20"/>
-      <c r="JQ2" s="20"/>
-      <c r="JR2" s="20"/>
-      <c r="JS2" s="20"/>
-      <c r="JT2" s="20"/>
-      <c r="JU2" s="20"/>
-      <c r="JV2" s="20"/>
-      <c r="JW2" s="20"/>
-      <c r="JX2" s="20"/>
-      <c r="JY2" s="20"/>
-      <c r="JZ2" s="20"/>
-      <c r="KA2" s="20"/>
-      <c r="KB2" s="20"/>
-      <c r="KC2" s="20"/>
-      <c r="KD2" s="20"/>
-      <c r="KE2" s="20"/>
-      <c r="KF2" s="20"/>
-      <c r="KG2" s="20"/>
-      <c r="KH2" s="20"/>
-      <c r="KI2" s="20"/>
-      <c r="KJ2" s="20"/>
-      <c r="KK2" s="20"/>
-      <c r="KL2" s="20"/>
-      <c r="KM2" s="20"/>
-      <c r="KN2" s="20"/>
-      <c r="KO2" s="20"/>
-      <c r="KP2" s="20"/>
-      <c r="KQ2" s="20"/>
-      <c r="KR2" s="20"/>
-      <c r="KS2" s="20"/>
-      <c r="KT2" s="20"/>
-      <c r="KU2" s="20"/>
-      <c r="KV2" s="20"/>
-      <c r="KW2" s="20"/>
-      <c r="KX2" s="20"/>
-      <c r="KY2" s="20"/>
-      <c r="KZ2" s="20"/>
-      <c r="LA2" s="20"/>
-      <c r="LB2" s="20"/>
-      <c r="LC2" s="20"/>
-      <c r="LD2" s="20"/>
-      <c r="LE2" s="20"/>
-      <c r="LF2" s="20"/>
-      <c r="LG2" s="20"/>
-      <c r="LH2" s="20"/>
-      <c r="LI2" s="20"/>
-      <c r="LJ2" s="20"/>
-      <c r="LK2" s="20"/>
-      <c r="LL2" s="20"/>
-      <c r="LM2" s="20"/>
-      <c r="LN2" s="20"/>
-      <c r="LO2" s="20"/>
-      <c r="LP2" s="20"/>
-      <c r="LQ2" s="20"/>
-      <c r="LR2" s="20"/>
-      <c r="LS2" s="20"/>
-      <c r="LT2" s="20"/>
-      <c r="LU2" s="20"/>
-      <c r="LV2" s="20"/>
-      <c r="LW2" s="20"/>
-      <c r="LX2" s="20"/>
-      <c r="LY2" s="20"/>
-      <c r="LZ2" s="20"/>
-      <c r="MA2" s="20"/>
-      <c r="MB2" s="20"/>
-      <c r="MC2" s="20"/>
-      <c r="MD2" s="20"/>
-      <c r="ME2" s="20"/>
-      <c r="MF2" s="20"/>
-      <c r="MG2" s="20"/>
-      <c r="MH2" s="20"/>
-      <c r="MI2" s="20"/>
-      <c r="MJ2" s="20"/>
-      <c r="MK2" s="20"/>
-      <c r="ML2" s="20"/>
-      <c r="MM2" s="20"/>
-      <c r="MN2" s="20"/>
-      <c r="MO2" s="20"/>
-      <c r="MP2" s="20"/>
-      <c r="MQ2" s="20"/>
-      <c r="MR2" s="20"/>
-      <c r="MS2" s="20"/>
-      <c r="MT2" s="20"/>
-      <c r="MU2" s="20"/>
-      <c r="MV2" s="20"/>
-      <c r="MW2" s="20"/>
-      <c r="MX2" s="20"/>
-      <c r="MY2" s="20"/>
-      <c r="MZ2" s="20"/>
-      <c r="NA2" s="20"/>
-      <c r="NB2" s="20"/>
-      <c r="NC2" s="20"/>
-      <c r="ND2" s="20"/>
-      <c r="NE2" s="20"/>
-      <c r="NF2" s="20"/>
-      <c r="NG2" s="20"/>
-      <c r="NH2" s="20"/>
-      <c r="NI2" s="20"/>
-      <c r="NJ2" s="20"/>
-      <c r="NK2" s="20"/>
-      <c r="NL2" s="20"/>
-      <c r="NM2" s="20"/>
-      <c r="NN2" s="20"/>
-      <c r="NO2" s="20"/>
-      <c r="NP2" s="20"/>
-      <c r="NQ2" s="20"/>
-      <c r="NR2" s="20"/>
-      <c r="NS2" s="20"/>
-      <c r="NT2" s="20"/>
-      <c r="NU2" s="20"/>
-      <c r="NV2" s="20"/>
-      <c r="NW2" s="20"/>
-      <c r="NX2" s="20"/>
-      <c r="NY2" s="20"/>
-      <c r="NZ2" s="20"/>
-      <c r="OA2" s="20"/>
-      <c r="OB2" s="20"/>
-      <c r="OC2" s="20"/>
-      <c r="OD2" s="20"/>
-      <c r="OE2" s="20"/>
-      <c r="OF2" s="20"/>
-      <c r="OG2" s="20"/>
-      <c r="OH2" s="20"/>
-      <c r="OI2" s="20"/>
-      <c r="OJ2" s="20"/>
-      <c r="OK2" s="20"/>
-      <c r="OL2" s="20"/>
-      <c r="OM2" s="20"/>
-      <c r="ON2" s="20"/>
-      <c r="OO2" s="20"/>
-      <c r="OP2" s="20"/>
-      <c r="OQ2" s="20"/>
-      <c r="OR2" s="20"/>
-      <c r="OS2" s="20"/>
-      <c r="OT2" s="20"/>
-      <c r="OU2" s="20"/>
-      <c r="OV2" s="20"/>
-      <c r="OW2" s="20"/>
-      <c r="OX2" s="20"/>
-      <c r="OY2" s="20"/>
-      <c r="OZ2" s="20"/>
-      <c r="PA2" s="20"/>
-      <c r="PB2" s="20"/>
-      <c r="PC2" s="20"/>
-      <c r="PD2" s="20"/>
-      <c r="PE2" s="20"/>
-      <c r="PF2" s="20"/>
-      <c r="PG2" s="20"/>
-      <c r="PH2" s="20"/>
-      <c r="PI2" s="20"/>
-      <c r="PJ2" s="20"/>
-      <c r="PK2" s="20"/>
-      <c r="PL2" s="20"/>
-      <c r="PM2" s="20"/>
-      <c r="PN2" s="20"/>
-      <c r="PO2" s="20"/>
-      <c r="PP2" s="20"/>
-      <c r="PQ2" s="20"/>
-      <c r="PR2" s="20"/>
-      <c r="PS2" s="20"/>
-      <c r="PT2" s="20"/>
-      <c r="PU2" s="20"/>
-      <c r="PV2" s="20"/>
-      <c r="PW2" s="20"/>
-      <c r="PX2" s="20"/>
-      <c r="PY2" s="20"/>
-      <c r="PZ2" s="20"/>
-      <c r="QA2" s="20"/>
-      <c r="QB2" s="20"/>
-      <c r="QC2" s="20"/>
-      <c r="QD2" s="20"/>
-      <c r="QE2" s="20"/>
-      <c r="QF2" s="20"/>
-      <c r="QG2" s="20"/>
-      <c r="QH2" s="20"/>
-      <c r="QI2" s="20"/>
-      <c r="QJ2" s="20"/>
-      <c r="QK2" s="20"/>
-      <c r="QL2" s="20"/>
-      <c r="QM2" s="20"/>
-      <c r="QN2" s="20"/>
-      <c r="QO2" s="20"/>
-      <c r="QP2" s="20"/>
-      <c r="QQ2" s="20"/>
-      <c r="QR2" s="20"/>
-      <c r="QS2" s="20"/>
-      <c r="QT2" s="20"/>
-      <c r="QU2" s="20"/>
-      <c r="QV2" s="20"/>
-      <c r="QW2" s="20"/>
-      <c r="QX2" s="20"/>
-      <c r="QY2" s="20"/>
-      <c r="QZ2" s="20"/>
-      <c r="RA2" s="20"/>
-      <c r="RB2" s="20"/>
-      <c r="RC2" s="20"/>
-      <c r="RD2" s="20"/>
-      <c r="RE2" s="20"/>
-      <c r="RF2" s="20"/>
-      <c r="RG2" s="20"/>
-      <c r="RH2" s="20"/>
-      <c r="RI2" s="20"/>
-      <c r="RJ2" s="20"/>
-      <c r="RK2" s="20"/>
-      <c r="RL2" s="20"/>
-      <c r="RM2" s="20"/>
-      <c r="RN2" s="20"/>
-      <c r="RO2" s="20"/>
-      <c r="RP2" s="20"/>
-      <c r="RQ2" s="20"/>
-      <c r="RR2" s="20"/>
-      <c r="RS2" s="20"/>
-      <c r="RT2" s="20"/>
-      <c r="RU2" s="20"/>
-      <c r="RV2" s="20"/>
-      <c r="RW2" s="20"/>
-      <c r="RX2" s="20"/>
-      <c r="RY2" s="20"/>
-      <c r="RZ2" s="20"/>
-      <c r="SA2" s="20"/>
-      <c r="SB2" s="20"/>
-      <c r="SC2" s="20"/>
-      <c r="SD2" s="20"/>
-      <c r="SE2" s="20"/>
-      <c r="SF2" s="20"/>
-      <c r="SG2" s="20"/>
-      <c r="SH2" s="20"/>
-      <c r="SI2" s="20"/>
-      <c r="SJ2" s="20"/>
-      <c r="SK2" s="20"/>
-      <c r="SL2" s="20"/>
-      <c r="SM2" s="20"/>
-      <c r="SN2" s="20"/>
-      <c r="SO2" s="20"/>
-      <c r="SP2" s="20"/>
-      <c r="SQ2" s="20"/>
-      <c r="SR2" s="20"/>
-      <c r="SS2" s="20"/>
-      <c r="ST2" s="20"/>
-      <c r="SU2" s="20"/>
-      <c r="SV2" s="20"/>
-      <c r="SW2" s="20"/>
-      <c r="SX2" s="20"/>
-      <c r="SY2" s="20"/>
-      <c r="SZ2" s="20"/>
-      <c r="TA2" s="20"/>
-      <c r="TB2" s="20"/>
-      <c r="TC2" s="20"/>
-      <c r="TD2" s="20"/>
-      <c r="TE2" s="20"/>
-      <c r="TF2" s="20"/>
-      <c r="TG2" s="20"/>
-      <c r="TH2" s="20"/>
-      <c r="TI2" s="20"/>
-      <c r="TJ2" s="20"/>
-      <c r="TK2" s="20"/>
-      <c r="TL2" s="20"/>
-      <c r="TM2" s="20"/>
-      <c r="TN2" s="20"/>
-      <c r="TO2" s="20"/>
-      <c r="TP2" s="20"/>
-      <c r="TQ2" s="20"/>
-      <c r="TR2" s="20"/>
-      <c r="TS2" s="20"/>
-      <c r="TT2" s="20"/>
-      <c r="TU2" s="20"/>
-      <c r="TV2" s="20"/>
-      <c r="TW2" s="20"/>
-      <c r="TX2" s="20"/>
-      <c r="TY2" s="20"/>
-      <c r="TZ2" s="20"/>
-      <c r="UA2" s="20"/>
-      <c r="UB2" s="20"/>
-      <c r="UC2" s="20"/>
-      <c r="UD2" s="20"/>
-      <c r="UE2" s="20"/>
-      <c r="UF2" s="20"/>
-      <c r="UG2" s="20"/>
-      <c r="UH2" s="20"/>
-      <c r="UI2" s="20"/>
-      <c r="UJ2" s="20"/>
-      <c r="UK2" s="20"/>
-      <c r="UL2" s="20"/>
-      <c r="UM2" s="20"/>
-      <c r="UN2" s="20"/>
-      <c r="UO2" s="20"/>
-      <c r="UP2" s="20"/>
-      <c r="UQ2" s="20"/>
-      <c r="UR2" s="20"/>
-      <c r="US2" s="20"/>
-      <c r="UT2" s="20"/>
-      <c r="UU2" s="20"/>
-      <c r="UV2" s="20"/>
-      <c r="UW2" s="20"/>
-      <c r="UX2" s="20"/>
-      <c r="UY2" s="20"/>
-      <c r="UZ2" s="20"/>
-      <c r="VA2" s="20"/>
-      <c r="VB2" s="20"/>
-      <c r="VC2" s="20"/>
-      <c r="VD2" s="20"/>
-      <c r="VE2" s="20"/>
-      <c r="VF2" s="20"/>
-      <c r="VG2" s="20"/>
-      <c r="VH2" s="20"/>
-      <c r="VI2" s="20"/>
-      <c r="VJ2" s="20"/>
-      <c r="VK2" s="20"/>
-      <c r="VL2" s="20"/>
-      <c r="VM2" s="20"/>
-      <c r="VN2" s="20"/>
-      <c r="VO2" s="20"/>
-      <c r="VP2" s="20"/>
-      <c r="VQ2" s="20"/>
-      <c r="VR2" s="20"/>
-      <c r="VS2" s="20"/>
-      <c r="VT2" s="20"/>
-      <c r="VU2" s="20"/>
-      <c r="VV2" s="20"/>
-      <c r="VW2" s="20"/>
-      <c r="VX2" s="20"/>
-      <c r="VY2" s="20"/>
-      <c r="VZ2" s="20"/>
-      <c r="WA2" s="20"/>
-      <c r="WB2" s="20"/>
-      <c r="WC2" s="20"/>
-      <c r="WD2" s="20"/>
-      <c r="WE2" s="20"/>
-      <c r="WF2" s="20"/>
-      <c r="WG2" s="20"/>
-      <c r="WH2" s="20"/>
-      <c r="WI2" s="20"/>
-      <c r="WJ2" s="20"/>
-      <c r="WK2" s="20"/>
-      <c r="WL2" s="20"/>
-      <c r="WM2" s="20"/>
-      <c r="WN2" s="20"/>
-      <c r="WO2" s="20"/>
-      <c r="WP2" s="20"/>
-      <c r="WQ2" s="20"/>
-      <c r="WR2" s="20"/>
-      <c r="WS2" s="20"/>
-      <c r="WT2" s="20"/>
-      <c r="WU2" s="20"/>
-      <c r="WV2" s="20"/>
-      <c r="WW2" s="20"/>
-      <c r="WX2" s="20"/>
-      <c r="WY2" s="20"/>
-      <c r="WZ2" s="20"/>
-      <c r="XA2" s="20"/>
-      <c r="XB2" s="20"/>
-      <c r="XC2" s="20"/>
-      <c r="XD2" s="20"/>
-      <c r="XE2" s="20"/>
-      <c r="XF2" s="20"/>
-      <c r="XG2" s="20"/>
-      <c r="XH2" s="20"/>
-      <c r="XI2" s="20"/>
-      <c r="XJ2" s="20"/>
-      <c r="XK2" s="20"/>
-      <c r="XL2" s="20"/>
-      <c r="XM2" s="20"/>
-      <c r="XN2" s="20"/>
-      <c r="XO2" s="20"/>
-      <c r="XP2" s="20"/>
-      <c r="XQ2" s="20"/>
-      <c r="XR2" s="20"/>
-      <c r="XS2" s="20"/>
-      <c r="XT2" s="20"/>
-      <c r="XU2" s="20"/>
-      <c r="XV2" s="20"/>
-      <c r="XW2" s="20"/>
-      <c r="XX2" s="20"/>
-      <c r="XY2" s="20"/>
-      <c r="XZ2" s="20"/>
-      <c r="YA2" s="20"/>
-      <c r="YB2" s="20"/>
-      <c r="YC2" s="20"/>
-      <c r="YD2" s="20"/>
-      <c r="YE2" s="20"/>
-      <c r="YF2" s="20"/>
-      <c r="YG2" s="20"/>
-      <c r="YH2" s="20"/>
-      <c r="YI2" s="20"/>
-      <c r="YJ2" s="20"/>
-      <c r="YK2" s="20"/>
-      <c r="YL2" s="20"/>
-      <c r="YM2" s="20"/>
-      <c r="YN2" s="20"/>
-      <c r="YO2" s="20"/>
-      <c r="YP2" s="20"/>
-      <c r="YQ2" s="20"/>
-      <c r="YR2" s="20"/>
-      <c r="YS2" s="20"/>
-      <c r="YT2" s="20"/>
-      <c r="YU2" s="20"/>
-      <c r="YV2" s="20"/>
-      <c r="YW2" s="20"/>
-      <c r="YX2" s="20"/>
-      <c r="YY2" s="20"/>
-      <c r="YZ2" s="20"/>
-      <c r="ZA2" s="20"/>
-      <c r="ZB2" s="20"/>
-      <c r="ZC2" s="20"/>
-      <c r="ZD2" s="20"/>
-      <c r="ZE2" s="20"/>
-      <c r="ZF2" s="20"/>
-      <c r="ZG2" s="20"/>
-      <c r="ZH2" s="20"/>
-      <c r="ZI2" s="20"/>
-      <c r="ZJ2" s="20"/>
-      <c r="ZK2" s="20"/>
-      <c r="ZL2" s="20"/>
-      <c r="ZM2" s="20"/>
-      <c r="ZN2" s="20"/>
-      <c r="ZO2" s="20"/>
-      <c r="ZP2" s="20"/>
-      <c r="ZQ2" s="20"/>
-      <c r="ZR2" s="20"/>
-      <c r="ZS2" s="20"/>
-      <c r="ZT2" s="20"/>
-      <c r="ZU2" s="20"/>
-      <c r="ZV2" s="20"/>
-      <c r="ZW2" s="20"/>
-      <c r="ZX2" s="20"/>
-      <c r="ZY2" s="20"/>
-      <c r="ZZ2" s="20"/>
-      <c r="AAA2" s="20"/>
-      <c r="AAB2" s="20"/>
-      <c r="AAC2" s="20"/>
-      <c r="AAD2" s="20"/>
-      <c r="AAE2" s="20"/>
-      <c r="AAF2" s="20"/>
-      <c r="AAG2" s="20"/>
-      <c r="AAH2" s="20"/>
-      <c r="AAI2" s="20"/>
-      <c r="AAJ2" s="20"/>
-      <c r="AAK2" s="20"/>
-      <c r="AAL2" s="20"/>
-      <c r="AAM2" s="20"/>
-      <c r="AAN2" s="20"/>
-      <c r="AAO2" s="20"/>
-      <c r="AAP2" s="20"/>
-      <c r="AAQ2" s="20"/>
-      <c r="AAR2" s="20"/>
-      <c r="AAS2" s="20"/>
-      <c r="AAT2" s="20"/>
-      <c r="AAU2" s="20"/>
-      <c r="AAV2" s="20"/>
-      <c r="AAW2" s="20"/>
-      <c r="AAX2" s="20"/>
-      <c r="AAY2" s="20"/>
-      <c r="AAZ2" s="20"/>
-      <c r="ABA2" s="20"/>
-      <c r="ABB2" s="20"/>
-      <c r="ABC2" s="20"/>
-      <c r="ABD2" s="20"/>
-      <c r="ABE2" s="20"/>
-      <c r="ABF2" s="20"/>
-      <c r="ABG2" s="20"/>
-      <c r="ABH2" s="20"/>
-      <c r="ABI2" s="20"/>
-      <c r="ABJ2" s="20"/>
-      <c r="ABK2" s="20"/>
-      <c r="ABL2" s="20"/>
-      <c r="ABM2" s="20"/>
-      <c r="ABN2" s="20"/>
-      <c r="ABO2" s="20"/>
-      <c r="ABP2" s="20"/>
-      <c r="ABQ2" s="20"/>
-      <c r="ABR2" s="20"/>
-      <c r="ABS2" s="20"/>
-      <c r="ABT2" s="20"/>
-      <c r="ABU2" s="20"/>
-      <c r="ABV2" s="20"/>
-      <c r="ABW2" s="20"/>
-      <c r="ABX2" s="20"/>
-      <c r="ABY2" s="20"/>
-      <c r="ABZ2" s="20"/>
-      <c r="ACA2" s="20"/>
-      <c r="ACB2" s="20"/>
-      <c r="ACC2" s="20"/>
-      <c r="ACD2" s="20"/>
-      <c r="ACE2" s="20"/>
-      <c r="ACF2" s="20"/>
-      <c r="ACG2" s="20"/>
-      <c r="ACH2" s="20"/>
-      <c r="ACI2" s="20"/>
-      <c r="ACJ2" s="20"/>
-      <c r="ACK2" s="20"/>
-      <c r="ACL2" s="20"/>
-      <c r="ACM2" s="20"/>
-      <c r="ACN2" s="20"/>
-      <c r="ACO2" s="20"/>
-      <c r="ACP2" s="20"/>
-      <c r="ACQ2" s="20"/>
-      <c r="ACR2" s="20"/>
-      <c r="ACS2" s="20"/>
-      <c r="ACT2" s="20"/>
-      <c r="ACU2" s="20"/>
-      <c r="ACV2" s="20"/>
-      <c r="ACW2" s="20"/>
-      <c r="ACX2" s="20"/>
-      <c r="ACY2" s="20"/>
-      <c r="ACZ2" s="20"/>
-      <c r="ADA2" s="20"/>
-      <c r="ADB2" s="20"/>
-      <c r="ADC2" s="20"/>
-      <c r="ADD2" s="20"/>
-      <c r="ADE2" s="20"/>
-      <c r="ADF2" s="20"/>
-      <c r="ADG2" s="20"/>
-      <c r="ADH2" s="20"/>
-      <c r="ADI2" s="20"/>
-      <c r="ADJ2" s="20"/>
-      <c r="ADK2" s="20"/>
-      <c r="ADL2" s="20"/>
-      <c r="ADM2" s="20"/>
-      <c r="ADN2" s="20"/>
-      <c r="ADO2" s="20"/>
-      <c r="ADP2" s="20"/>
-      <c r="ADQ2" s="20"/>
-      <c r="ADR2" s="20"/>
-      <c r="ADS2" s="20"/>
-      <c r="ADT2" s="20"/>
-      <c r="ADU2" s="20"/>
-      <c r="ADV2" s="20"/>
-      <c r="ADW2" s="20"/>
-      <c r="ADX2" s="20"/>
-      <c r="ADY2" s="20"/>
-      <c r="ADZ2" s="20"/>
-      <c r="AEA2" s="20"/>
-      <c r="AEB2" s="20"/>
-      <c r="AEC2" s="20"/>
-      <c r="AED2" s="20"/>
-      <c r="AEE2" s="20"/>
-      <c r="AEF2" s="20"/>
-      <c r="AEG2" s="20"/>
-      <c r="AEH2" s="20"/>
-      <c r="AEI2" s="20"/>
-      <c r="AEJ2" s="20"/>
-      <c r="AEK2" s="20"/>
-      <c r="AEL2" s="20"/>
-      <c r="AEM2" s="20"/>
-      <c r="AEN2" s="20"/>
-      <c r="AEO2" s="20"/>
-      <c r="AEP2" s="20"/>
-      <c r="AEQ2" s="20"/>
-      <c r="AER2" s="20"/>
-      <c r="AES2" s="20"/>
-      <c r="AET2" s="20"/>
-      <c r="AEU2" s="20"/>
-      <c r="AEV2" s="20"/>
-      <c r="AEW2" s="20"/>
-      <c r="AEX2" s="20"/>
-      <c r="AEY2" s="20"/>
-      <c r="AEZ2" s="20"/>
-      <c r="AFA2" s="20"/>
-      <c r="AFB2" s="20"/>
-      <c r="AFC2" s="20"/>
-      <c r="AFD2" s="20"/>
-      <c r="AFE2" s="20"/>
-      <c r="AFF2" s="20"/>
-      <c r="AFG2" s="20"/>
-      <c r="AFH2" s="20"/>
-      <c r="AFI2" s="20"/>
-      <c r="AFJ2" s="20"/>
-      <c r="AFK2" s="20"/>
-      <c r="AFL2" s="20"/>
-      <c r="AFM2" s="20"/>
-      <c r="AFN2" s="20"/>
-      <c r="AFO2" s="20"/>
-      <c r="AFP2" s="20"/>
-      <c r="AFQ2" s="20"/>
-      <c r="AFR2" s="20"/>
-      <c r="AFS2" s="20"/>
-      <c r="AFT2" s="20"/>
-      <c r="AFU2" s="20"/>
-      <c r="AFV2" s="20"/>
-      <c r="AFW2" s="20"/>
-      <c r="AFX2" s="20"/>
-      <c r="AFY2" s="20"/>
-      <c r="AFZ2" s="20"/>
-      <c r="AGA2" s="20"/>
-      <c r="AGB2" s="20"/>
-      <c r="AGC2" s="20"/>
-      <c r="AGD2" s="20"/>
-      <c r="AGE2" s="20"/>
-      <c r="AGF2" s="20"/>
-      <c r="AGG2" s="20"/>
-      <c r="AGH2" s="20"/>
-      <c r="AGI2" s="20"/>
-      <c r="AGJ2" s="20"/>
-      <c r="AGK2" s="20"/>
-      <c r="AGL2" s="20"/>
-      <c r="AGM2" s="20"/>
-      <c r="AGN2" s="20"/>
-      <c r="AGO2" s="20"/>
-      <c r="AGP2" s="20"/>
-      <c r="AGQ2" s="20"/>
-      <c r="AGR2" s="20"/>
-      <c r="AGS2" s="20"/>
-      <c r="AGT2" s="20"/>
-      <c r="AGU2" s="20"/>
-      <c r="AGV2" s="20"/>
-      <c r="AGW2" s="20"/>
-      <c r="AGX2" s="20"/>
-      <c r="AGY2" s="20"/>
-      <c r="AGZ2" s="20"/>
-      <c r="AHA2" s="20"/>
-      <c r="AHB2" s="20"/>
-      <c r="AHC2" s="20"/>
-      <c r="AHD2" s="20"/>
-      <c r="AHE2" s="20"/>
-      <c r="AHF2" s="20"/>
-      <c r="AHG2" s="20"/>
-      <c r="AHH2" s="20"/>
-      <c r="AHI2" s="20"/>
-      <c r="AHJ2" s="20"/>
-      <c r="AHK2" s="20"/>
-      <c r="AHL2" s="20"/>
-      <c r="AHM2" s="20"/>
-      <c r="AHN2" s="20"/>
-      <c r="AHO2" s="20"/>
-      <c r="AHP2" s="20"/>
-      <c r="AHQ2" s="20"/>
-      <c r="AHR2" s="20"/>
-      <c r="AHS2" s="20"/>
-      <c r="AHT2" s="20"/>
-      <c r="AHU2" s="20"/>
-      <c r="AHV2" s="20"/>
-      <c r="AHW2" s="20"/>
-      <c r="AHX2" s="20"/>
-      <c r="AHY2" s="20"/>
-      <c r="AHZ2" s="20"/>
-      <c r="AIA2" s="20"/>
-      <c r="AIB2" s="20"/>
-      <c r="AIC2" s="20"/>
-      <c r="AID2" s="20"/>
-      <c r="AIE2" s="20"/>
-      <c r="AIF2" s="20"/>
-      <c r="AIG2" s="20"/>
-      <c r="AIH2" s="20"/>
-      <c r="AII2" s="20"/>
-      <c r="AIJ2" s="20"/>
-      <c r="AIK2" s="20"/>
-      <c r="AIL2" s="20"/>
-      <c r="AIM2" s="20"/>
-      <c r="AIN2" s="20"/>
-      <c r="AIO2" s="20"/>
-      <c r="AIP2" s="20"/>
-      <c r="AIQ2" s="20"/>
-      <c r="AIR2" s="20"/>
-      <c r="AIS2" s="20"/>
-      <c r="AIT2" s="20"/>
-      <c r="AIU2" s="20"/>
-      <c r="AIV2" s="20"/>
-      <c r="AIW2" s="20"/>
-      <c r="AIX2" s="20"/>
-      <c r="AIY2" s="20"/>
-      <c r="AIZ2" s="20"/>
-      <c r="AJA2" s="20"/>
-      <c r="AJB2" s="20"/>
-      <c r="AJC2" s="20"/>
-      <c r="AJD2" s="20"/>
-      <c r="AJE2" s="20"/>
-      <c r="AJF2" s="20"/>
-      <c r="AJG2" s="20"/>
-      <c r="AJH2" s="20"/>
-      <c r="AJI2" s="20"/>
-      <c r="AJJ2" s="20"/>
-      <c r="AJK2" s="20"/>
-      <c r="AJL2" s="20"/>
-      <c r="AJM2" s="20"/>
-      <c r="AJN2" s="20"/>
-      <c r="AJO2" s="20"/>
-      <c r="AJP2" s="20"/>
-      <c r="AJQ2" s="20"/>
-      <c r="AJR2" s="20"/>
-      <c r="AJS2" s="20"/>
-      <c r="AJT2" s="20"/>
-      <c r="AJU2" s="20"/>
-      <c r="AJV2" s="20"/>
-      <c r="AJW2" s="20"/>
-      <c r="AJX2" s="20"/>
-      <c r="AJY2" s="20"/>
-      <c r="AJZ2" s="20"/>
-      <c r="AKA2" s="20"/>
-      <c r="AKB2" s="20"/>
-      <c r="AKC2" s="20"/>
-      <c r="AKD2" s="20"/>
-      <c r="AKE2" s="20"/>
-      <c r="AKF2" s="20"/>
-      <c r="AKG2" s="20"/>
-      <c r="AKH2" s="20"/>
-      <c r="AKI2" s="20"/>
-      <c r="AKJ2" s="20"/>
-      <c r="AKK2" s="20"/>
-      <c r="AKL2" s="20"/>
-      <c r="AKM2" s="20"/>
-      <c r="AKN2" s="20"/>
-      <c r="AKO2" s="20"/>
-      <c r="AKP2" s="20"/>
-      <c r="AKQ2" s="20"/>
-      <c r="AKR2" s="20"/>
-      <c r="AKS2" s="20"/>
-      <c r="AKT2" s="20"/>
-      <c r="AKU2" s="20"/>
-      <c r="AKV2" s="20"/>
-      <c r="AKW2" s="20"/>
-      <c r="AKX2" s="20"/>
-      <c r="AKY2" s="20"/>
-      <c r="AKZ2" s="20"/>
-      <c r="ALA2" s="20"/>
-      <c r="ALB2" s="20"/>
-      <c r="ALC2" s="20"/>
-      <c r="ALD2" s="20"/>
-      <c r="ALE2" s="20"/>
-      <c r="ALF2" s="20"/>
-      <c r="ALG2" s="20"/>
-      <c r="ALH2" s="20"/>
-      <c r="ALI2" s="20"/>
-      <c r="ALJ2" s="20"/>
-      <c r="ALK2" s="20"/>
-      <c r="ALL2" s="20"/>
-      <c r="ALM2" s="20"/>
-      <c r="ALN2" s="20"/>
-      <c r="ALO2" s="20"/>
-      <c r="ALP2" s="20"/>
-      <c r="ALQ2" s="20"/>
-      <c r="ALR2" s="20"/>
-      <c r="ALS2" s="20"/>
-      <c r="ALT2" s="20"/>
-      <c r="ALU2" s="20"/>
-      <c r="ALV2" s="20"/>
-      <c r="ALW2" s="20"/>
-      <c r="ALX2" s="20"/>
-      <c r="ALY2" s="20"/>
-      <c r="ALZ2" s="20"/>
-      <c r="AMA2" s="20"/>
-      <c r="AMB2" s="20"/>
-      <c r="AMC2" s="20"/>
-      <c r="AMD2" s="20"/>
-      <c r="AME2" s="20"/>
-      <c r="AMF2" s="20"/>
-      <c r="AMG2" s="20"/>
-      <c r="AMH2" s="20"/>
-      <c r="AMI2" s="20"/>
-      <c r="AMJ2" s="20"/>
-      <c r="AMK2" s="20"/>
-      <c r="AML2" s="20"/>
-      <c r="AMM2" s="20"/>
-      <c r="AMN2" s="20"/>
-      <c r="AMO2" s="20"/>
-      <c r="AMP2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="21"/>
+      <c r="CW2" s="21"/>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="21"/>
+      <c r="CZ2" s="21"/>
+      <c r="DA2" s="21"/>
+      <c r="DB2" s="21"/>
+      <c r="DC2" s="21"/>
+      <c r="DD2" s="21"/>
+      <c r="DE2" s="21"/>
+      <c r="DF2" s="21"/>
+      <c r="DG2" s="21"/>
+      <c r="DH2" s="21"/>
+      <c r="DI2" s="21"/>
+      <c r="DJ2" s="21"/>
+      <c r="DK2" s="21"/>
+      <c r="DL2" s="21"/>
+      <c r="DM2" s="21"/>
+      <c r="DN2" s="21"/>
+      <c r="DO2" s="21"/>
+      <c r="DP2" s="21"/>
+      <c r="DQ2" s="21"/>
+      <c r="DR2" s="21"/>
+      <c r="DS2" s="21"/>
+      <c r="DT2" s="21"/>
+      <c r="DU2" s="21"/>
+      <c r="DV2" s="21"/>
+      <c r="DW2" s="21"/>
+      <c r="DX2" s="21"/>
+      <c r="DY2" s="21"/>
+      <c r="DZ2" s="21"/>
+      <c r="EA2" s="21"/>
+      <c r="EB2" s="21"/>
+      <c r="EC2" s="21"/>
+      <c r="ED2" s="21"/>
+      <c r="EE2" s="21"/>
+      <c r="EF2" s="21"/>
+      <c r="EG2" s="21"/>
+      <c r="EH2" s="21"/>
+      <c r="EI2" s="21"/>
+      <c r="EJ2" s="21"/>
+      <c r="EK2" s="21"/>
+      <c r="EL2" s="21"/>
+      <c r="EM2" s="21"/>
+      <c r="EN2" s="21"/>
+      <c r="EO2" s="21"/>
+      <c r="EP2" s="21"/>
+      <c r="EQ2" s="21"/>
+      <c r="ER2" s="21"/>
+      <c r="ES2" s="21"/>
+      <c r="ET2" s="21"/>
+      <c r="EU2" s="21"/>
+      <c r="EV2" s="21"/>
+      <c r="EW2" s="21"/>
+      <c r="EX2" s="21"/>
+      <c r="EY2" s="21"/>
+      <c r="EZ2" s="21"/>
+      <c r="FA2" s="21"/>
+      <c r="FB2" s="21"/>
+      <c r="FC2" s="21"/>
+      <c r="FD2" s="21"/>
+      <c r="FE2" s="21"/>
+      <c r="FF2" s="21"/>
+      <c r="FG2" s="21"/>
+      <c r="FH2" s="21"/>
+      <c r="FI2" s="21"/>
+      <c r="FJ2" s="21"/>
+      <c r="FK2" s="21"/>
+      <c r="FL2" s="21"/>
+      <c r="FM2" s="21"/>
+      <c r="FN2" s="21"/>
+      <c r="FO2" s="21"/>
+      <c r="FP2" s="21"/>
+      <c r="FQ2" s="21"/>
+      <c r="FR2" s="21"/>
+      <c r="FS2" s="21"/>
+      <c r="FT2" s="21"/>
+      <c r="FU2" s="21"/>
+      <c r="FV2" s="21"/>
+      <c r="FW2" s="21"/>
+      <c r="FX2" s="21"/>
+      <c r="FY2" s="21"/>
+      <c r="FZ2" s="21"/>
+      <c r="GA2" s="21"/>
+      <c r="GB2" s="21"/>
+      <c r="GC2" s="21"/>
+      <c r="GD2" s="21"/>
+      <c r="GE2" s="21"/>
+      <c r="GF2" s="21"/>
+      <c r="GG2" s="21"/>
+      <c r="GH2" s="21"/>
+      <c r="GI2" s="21"/>
+      <c r="GJ2" s="21"/>
+      <c r="GK2" s="21"/>
+      <c r="GL2" s="21"/>
+      <c r="GM2" s="21"/>
+      <c r="GN2" s="21"/>
+      <c r="GO2" s="21"/>
+      <c r="GP2" s="21"/>
+      <c r="GQ2" s="21"/>
+      <c r="GR2" s="21"/>
+      <c r="GS2" s="21"/>
+      <c r="GT2" s="21"/>
+      <c r="GU2" s="21"/>
+      <c r="GV2" s="21"/>
+      <c r="GW2" s="21"/>
+      <c r="GX2" s="21"/>
+      <c r="GY2" s="21"/>
+      <c r="GZ2" s="21"/>
+      <c r="HA2" s="21"/>
+      <c r="HB2" s="21"/>
+      <c r="HC2" s="21"/>
+      <c r="HD2" s="21"/>
+      <c r="HE2" s="21"/>
+      <c r="HF2" s="21"/>
+      <c r="HG2" s="21"/>
+      <c r="HH2" s="21"/>
+      <c r="HI2" s="21"/>
+      <c r="HJ2" s="21"/>
+      <c r="HK2" s="21"/>
+      <c r="HL2" s="21"/>
+      <c r="HM2" s="21"/>
+      <c r="HN2" s="21"/>
+      <c r="HO2" s="21"/>
+      <c r="HP2" s="21"/>
+      <c r="HQ2" s="21"/>
+      <c r="HR2" s="21"/>
+      <c r="HS2" s="21"/>
+      <c r="HT2" s="21"/>
+      <c r="HU2" s="21"/>
+      <c r="HV2" s="21"/>
+      <c r="HW2" s="21"/>
+      <c r="HX2" s="21"/>
+      <c r="HY2" s="21"/>
+      <c r="HZ2" s="21"/>
+      <c r="IA2" s="21"/>
+      <c r="IB2" s="21"/>
+      <c r="IC2" s="21"/>
+      <c r="ID2" s="21"/>
+      <c r="IE2" s="21"/>
+      <c r="IF2" s="21"/>
+      <c r="IG2" s="21"/>
+      <c r="IH2" s="21"/>
+      <c r="II2" s="21"/>
+      <c r="IJ2" s="21"/>
+      <c r="IK2" s="21"/>
+      <c r="IL2" s="21"/>
+      <c r="IM2" s="21"/>
+      <c r="IN2" s="21"/>
+      <c r="IO2" s="21"/>
+      <c r="IP2" s="21"/>
+      <c r="IQ2" s="21"/>
+      <c r="IR2" s="21"/>
+      <c r="IS2" s="21"/>
+      <c r="IT2" s="21"/>
+      <c r="IU2" s="21"/>
+      <c r="IV2" s="21"/>
+      <c r="IW2" s="21"/>
+      <c r="IX2" s="21"/>
+      <c r="IY2" s="21"/>
+      <c r="IZ2" s="21"/>
+      <c r="JA2" s="21"/>
+      <c r="JB2" s="21"/>
+      <c r="JC2" s="21"/>
+      <c r="JD2" s="21"/>
+      <c r="JE2" s="21"/>
+      <c r="JF2" s="21"/>
+      <c r="JG2" s="21"/>
+      <c r="JH2" s="21"/>
+      <c r="JI2" s="21"/>
+      <c r="JJ2" s="21"/>
+      <c r="JK2" s="21"/>
+      <c r="JL2" s="21"/>
+      <c r="JM2" s="21"/>
+      <c r="JN2" s="21"/>
+      <c r="JO2" s="21"/>
+      <c r="JP2" s="21"/>
+      <c r="JQ2" s="21"/>
+      <c r="JR2" s="21"/>
+      <c r="JS2" s="21"/>
+      <c r="JT2" s="21"/>
+      <c r="JU2" s="21"/>
+      <c r="JV2" s="21"/>
+      <c r="JW2" s="21"/>
+      <c r="JX2" s="21"/>
+      <c r="JY2" s="21"/>
+      <c r="JZ2" s="21"/>
+      <c r="KA2" s="21"/>
+      <c r="KB2" s="21"/>
+      <c r="KC2" s="21"/>
+      <c r="KD2" s="21"/>
+      <c r="KE2" s="21"/>
+      <c r="KF2" s="21"/>
+      <c r="KG2" s="21"/>
+      <c r="KH2" s="21"/>
+      <c r="KI2" s="21"/>
+      <c r="KJ2" s="21"/>
+      <c r="KK2" s="21"/>
+      <c r="KL2" s="21"/>
+      <c r="KM2" s="21"/>
+      <c r="KN2" s="21"/>
+      <c r="KO2" s="21"/>
+      <c r="KP2" s="21"/>
+      <c r="KQ2" s="21"/>
+      <c r="KR2" s="21"/>
+      <c r="KS2" s="21"/>
+      <c r="KT2" s="21"/>
+      <c r="KU2" s="21"/>
+      <c r="KV2" s="21"/>
+      <c r="KW2" s="21"/>
+      <c r="KX2" s="21"/>
+      <c r="KY2" s="21"/>
+      <c r="KZ2" s="21"/>
+      <c r="LA2" s="21"/>
+      <c r="LB2" s="21"/>
+      <c r="LC2" s="21"/>
+      <c r="LD2" s="21"/>
+      <c r="LE2" s="21"/>
+      <c r="LF2" s="21"/>
+      <c r="LG2" s="21"/>
+      <c r="LH2" s="21"/>
+      <c r="LI2" s="21"/>
+      <c r="LJ2" s="21"/>
+      <c r="LK2" s="21"/>
+      <c r="LL2" s="21"/>
+      <c r="LM2" s="21"/>
+      <c r="LN2" s="21"/>
+      <c r="LO2" s="21"/>
+      <c r="LP2" s="21"/>
+      <c r="LQ2" s="21"/>
+      <c r="LR2" s="21"/>
+      <c r="LS2" s="21"/>
+      <c r="LT2" s="21"/>
+      <c r="LU2" s="21"/>
+      <c r="LV2" s="21"/>
+      <c r="LW2" s="21"/>
+      <c r="LX2" s="21"/>
+      <c r="LY2" s="21"/>
+      <c r="LZ2" s="21"/>
+      <c r="MA2" s="21"/>
+      <c r="MB2" s="21"/>
+      <c r="MC2" s="21"/>
+      <c r="MD2" s="21"/>
+      <c r="ME2" s="21"/>
+      <c r="MF2" s="21"/>
+      <c r="MG2" s="21"/>
+      <c r="MH2" s="21"/>
+      <c r="MI2" s="21"/>
+      <c r="MJ2" s="21"/>
+      <c r="MK2" s="21"/>
+      <c r="ML2" s="21"/>
+      <c r="MM2" s="21"/>
+      <c r="MN2" s="21"/>
+      <c r="MO2" s="21"/>
+      <c r="MP2" s="21"/>
+      <c r="MQ2" s="21"/>
+      <c r="MR2" s="21"/>
+      <c r="MS2" s="21"/>
+      <c r="MT2" s="21"/>
+      <c r="MU2" s="21"/>
+      <c r="MV2" s="21"/>
+      <c r="MW2" s="21"/>
+      <c r="MX2" s="21"/>
+      <c r="MY2" s="21"/>
+      <c r="MZ2" s="21"/>
+      <c r="NA2" s="21"/>
+      <c r="NB2" s="21"/>
+      <c r="NC2" s="21"/>
+      <c r="ND2" s="21"/>
+      <c r="NE2" s="21"/>
+      <c r="NF2" s="21"/>
+      <c r="NG2" s="21"/>
+      <c r="NH2" s="21"/>
+      <c r="NI2" s="21"/>
+      <c r="NJ2" s="21"/>
+      <c r="NK2" s="21"/>
+      <c r="NL2" s="21"/>
+      <c r="NM2" s="21"/>
+      <c r="NN2" s="21"/>
+      <c r="NO2" s="21"/>
+      <c r="NP2" s="21"/>
+      <c r="NQ2" s="21"/>
+      <c r="NR2" s="21"/>
+      <c r="NS2" s="21"/>
+      <c r="NT2" s="21"/>
+      <c r="NU2" s="21"/>
+      <c r="NV2" s="21"/>
+      <c r="NW2" s="21"/>
+      <c r="NX2" s="21"/>
+      <c r="NY2" s="21"/>
+      <c r="NZ2" s="21"/>
+      <c r="OA2" s="21"/>
+      <c r="OB2" s="21"/>
+      <c r="OC2" s="21"/>
+      <c r="OD2" s="21"/>
+      <c r="OE2" s="21"/>
+      <c r="OF2" s="21"/>
+      <c r="OG2" s="21"/>
+      <c r="OH2" s="21"/>
+      <c r="OI2" s="21"/>
+      <c r="OJ2" s="21"/>
+      <c r="OK2" s="21"/>
+      <c r="OL2" s="21"/>
+      <c r="OM2" s="21"/>
+      <c r="ON2" s="21"/>
+      <c r="OO2" s="21"/>
+      <c r="OP2" s="21"/>
+      <c r="OQ2" s="21"/>
+      <c r="OR2" s="21"/>
+      <c r="OS2" s="21"/>
+      <c r="OT2" s="21"/>
+      <c r="OU2" s="21"/>
+      <c r="OV2" s="21"/>
+      <c r="OW2" s="21"/>
+      <c r="OX2" s="21"/>
+      <c r="OY2" s="21"/>
+      <c r="OZ2" s="21"/>
+      <c r="PA2" s="21"/>
+      <c r="PB2" s="21"/>
+      <c r="PC2" s="21"/>
+      <c r="PD2" s="21"/>
+      <c r="PE2" s="21"/>
+      <c r="PF2" s="21"/>
+      <c r="PG2" s="21"/>
+      <c r="PH2" s="21"/>
+      <c r="PI2" s="21"/>
+      <c r="PJ2" s="21"/>
+      <c r="PK2" s="21"/>
+      <c r="PL2" s="21"/>
+      <c r="PM2" s="21"/>
+      <c r="PN2" s="21"/>
+      <c r="PO2" s="21"/>
+      <c r="PP2" s="21"/>
+      <c r="PQ2" s="21"/>
+      <c r="PR2" s="21"/>
+      <c r="PS2" s="21"/>
+      <c r="PT2" s="21"/>
+      <c r="PU2" s="21"/>
+      <c r="PV2" s="21"/>
+      <c r="PW2" s="21"/>
+      <c r="PX2" s="21"/>
+      <c r="PY2" s="21"/>
+      <c r="PZ2" s="21"/>
+      <c r="QA2" s="21"/>
+      <c r="QB2" s="21"/>
+      <c r="QC2" s="21"/>
+      <c r="QD2" s="21"/>
+      <c r="QE2" s="21"/>
+      <c r="QF2" s="21"/>
+      <c r="QG2" s="21"/>
+      <c r="QH2" s="21"/>
+      <c r="QI2" s="21"/>
+      <c r="QJ2" s="21"/>
+      <c r="QK2" s="21"/>
+      <c r="QL2" s="21"/>
+      <c r="QM2" s="21"/>
+      <c r="QN2" s="21"/>
+      <c r="QO2" s="21"/>
+      <c r="QP2" s="21"/>
+      <c r="QQ2" s="21"/>
+      <c r="QR2" s="21"/>
+      <c r="QS2" s="21"/>
+      <c r="QT2" s="21"/>
+      <c r="QU2" s="21"/>
+      <c r="QV2" s="21"/>
+      <c r="QW2" s="21"/>
+      <c r="QX2" s="21"/>
+      <c r="QY2" s="21"/>
+      <c r="QZ2" s="21"/>
+      <c r="RA2" s="21"/>
+      <c r="RB2" s="21"/>
+      <c r="RC2" s="21"/>
+      <c r="RD2" s="21"/>
+      <c r="RE2" s="21"/>
+      <c r="RF2" s="21"/>
+      <c r="RG2" s="21"/>
+      <c r="RH2" s="21"/>
+      <c r="RI2" s="21"/>
+      <c r="RJ2" s="21"/>
+      <c r="RK2" s="21"/>
+      <c r="RL2" s="21"/>
+      <c r="RM2" s="21"/>
+      <c r="RN2" s="21"/>
+      <c r="RO2" s="21"/>
+      <c r="RP2" s="21"/>
+      <c r="RQ2" s="21"/>
+      <c r="RR2" s="21"/>
+      <c r="RS2" s="21"/>
+      <c r="RT2" s="21"/>
+      <c r="RU2" s="21"/>
+      <c r="RV2" s="21"/>
+      <c r="RW2" s="21"/>
+      <c r="RX2" s="21"/>
+      <c r="RY2" s="21"/>
+      <c r="RZ2" s="21"/>
+      <c r="SA2" s="21"/>
+      <c r="SB2" s="21"/>
+      <c r="SC2" s="21"/>
+      <c r="SD2" s="21"/>
+      <c r="SE2" s="21"/>
+      <c r="SF2" s="21"/>
+      <c r="SG2" s="21"/>
+      <c r="SH2" s="21"/>
+      <c r="SI2" s="21"/>
+      <c r="SJ2" s="21"/>
+      <c r="SK2" s="21"/>
+      <c r="SL2" s="21"/>
+      <c r="SM2" s="21"/>
+      <c r="SN2" s="21"/>
+      <c r="SO2" s="21"/>
+      <c r="SP2" s="21"/>
+      <c r="SQ2" s="21"/>
+      <c r="SR2" s="21"/>
+      <c r="SS2" s="21"/>
+      <c r="ST2" s="21"/>
+      <c r="SU2" s="21"/>
+      <c r="SV2" s="21"/>
+      <c r="SW2" s="21"/>
+      <c r="SX2" s="21"/>
+      <c r="SY2" s="21"/>
+      <c r="SZ2" s="21"/>
+      <c r="TA2" s="21"/>
+      <c r="TB2" s="21"/>
+      <c r="TC2" s="21"/>
+      <c r="TD2" s="21"/>
+      <c r="TE2" s="21"/>
+      <c r="TF2" s="21"/>
+      <c r="TG2" s="21"/>
+      <c r="TH2" s="21"/>
+      <c r="TI2" s="21"/>
+      <c r="TJ2" s="21"/>
+      <c r="TK2" s="21"/>
+      <c r="TL2" s="21"/>
+      <c r="TM2" s="21"/>
+      <c r="TN2" s="21"/>
+      <c r="TO2" s="21"/>
+      <c r="TP2" s="21"/>
+      <c r="TQ2" s="21"/>
+      <c r="TR2" s="21"/>
+      <c r="TS2" s="21"/>
+      <c r="TT2" s="21"/>
+      <c r="TU2" s="21"/>
+      <c r="TV2" s="21"/>
+      <c r="TW2" s="21"/>
+      <c r="TX2" s="21"/>
+      <c r="TY2" s="21"/>
+      <c r="TZ2" s="21"/>
+      <c r="UA2" s="21"/>
+      <c r="UB2" s="21"/>
+      <c r="UC2" s="21"/>
+      <c r="UD2" s="21"/>
+      <c r="UE2" s="21"/>
+      <c r="UF2" s="21"/>
+      <c r="UG2" s="21"/>
+      <c r="UH2" s="21"/>
+      <c r="UI2" s="21"/>
+      <c r="UJ2" s="21"/>
+      <c r="UK2" s="21"/>
+      <c r="UL2" s="21"/>
+      <c r="UM2" s="21"/>
+      <c r="UN2" s="21"/>
+      <c r="UO2" s="21"/>
+      <c r="UP2" s="21"/>
+      <c r="UQ2" s="21"/>
+      <c r="UR2" s="21"/>
+      <c r="US2" s="21"/>
+      <c r="UT2" s="21"/>
+      <c r="UU2" s="21"/>
+      <c r="UV2" s="21"/>
+      <c r="UW2" s="21"/>
+      <c r="UX2" s="21"/>
+      <c r="UY2" s="21"/>
+      <c r="UZ2" s="21"/>
+      <c r="VA2" s="21"/>
+      <c r="VB2" s="21"/>
+      <c r="VC2" s="21"/>
+      <c r="VD2" s="21"/>
+      <c r="VE2" s="21"/>
+      <c r="VF2" s="21"/>
+      <c r="VG2" s="21"/>
+      <c r="VH2" s="21"/>
+      <c r="VI2" s="21"/>
+      <c r="VJ2" s="21"/>
+      <c r="VK2" s="21"/>
+      <c r="VL2" s="21"/>
+      <c r="VM2" s="21"/>
+      <c r="VN2" s="21"/>
+      <c r="VO2" s="21"/>
+      <c r="VP2" s="21"/>
+      <c r="VQ2" s="21"/>
+      <c r="VR2" s="21"/>
+      <c r="VS2" s="21"/>
+      <c r="VT2" s="21"/>
+      <c r="VU2" s="21"/>
+      <c r="VV2" s="21"/>
+      <c r="VW2" s="21"/>
+      <c r="VX2" s="21"/>
+      <c r="VY2" s="21"/>
+      <c r="VZ2" s="21"/>
+      <c r="WA2" s="21"/>
+      <c r="WB2" s="21"/>
+      <c r="WC2" s="21"/>
+      <c r="WD2" s="21"/>
+      <c r="WE2" s="21"/>
+      <c r="WF2" s="21"/>
+      <c r="WG2" s="21"/>
+      <c r="WH2" s="21"/>
+      <c r="WI2" s="21"/>
+      <c r="WJ2" s="21"/>
+      <c r="WK2" s="21"/>
+      <c r="WL2" s="21"/>
+      <c r="WM2" s="21"/>
+      <c r="WN2" s="21"/>
+      <c r="WO2" s="21"/>
+      <c r="WP2" s="21"/>
+      <c r="WQ2" s="21"/>
+      <c r="WR2" s="21"/>
+      <c r="WS2" s="21"/>
+      <c r="WT2" s="21"/>
+      <c r="WU2" s="21"/>
+      <c r="WV2" s="21"/>
+      <c r="WW2" s="21"/>
+      <c r="WX2" s="21"/>
+      <c r="WY2" s="21"/>
+      <c r="WZ2" s="21"/>
+      <c r="XA2" s="21"/>
+      <c r="XB2" s="21"/>
+      <c r="XC2" s="21"/>
+      <c r="XD2" s="21"/>
+      <c r="XE2" s="21"/>
+      <c r="XF2" s="21"/>
+      <c r="XG2" s="21"/>
+      <c r="XH2" s="21"/>
+      <c r="XI2" s="21"/>
+      <c r="XJ2" s="21"/>
+      <c r="XK2" s="21"/>
+      <c r="XL2" s="21"/>
+      <c r="XM2" s="21"/>
+      <c r="XN2" s="21"/>
+      <c r="XO2" s="21"/>
+      <c r="XP2" s="21"/>
+      <c r="XQ2" s="21"/>
+      <c r="XR2" s="21"/>
+      <c r="XS2" s="21"/>
+      <c r="XT2" s="21"/>
+      <c r="XU2" s="21"/>
+      <c r="XV2" s="21"/>
+      <c r="XW2" s="21"/>
+      <c r="XX2" s="21"/>
+      <c r="XY2" s="21"/>
+      <c r="XZ2" s="21"/>
+      <c r="YA2" s="21"/>
+      <c r="YB2" s="21"/>
+      <c r="YC2" s="21"/>
+      <c r="YD2" s="21"/>
+      <c r="YE2" s="21"/>
+      <c r="YF2" s="21"/>
+      <c r="YG2" s="21"/>
+      <c r="YH2" s="21"/>
+      <c r="YI2" s="21"/>
+      <c r="YJ2" s="21"/>
+      <c r="YK2" s="21"/>
+      <c r="YL2" s="21"/>
+      <c r="YM2" s="21"/>
+      <c r="YN2" s="21"/>
+      <c r="YO2" s="21"/>
+      <c r="YP2" s="21"/>
+      <c r="YQ2" s="21"/>
+      <c r="YR2" s="21"/>
+      <c r="YS2" s="21"/>
+      <c r="YT2" s="21"/>
+      <c r="YU2" s="21"/>
+      <c r="YV2" s="21"/>
+      <c r="YW2" s="21"/>
+      <c r="YX2" s="21"/>
+      <c r="YY2" s="21"/>
+      <c r="YZ2" s="21"/>
+      <c r="ZA2" s="21"/>
+      <c r="ZB2" s="21"/>
+      <c r="ZC2" s="21"/>
+      <c r="ZD2" s="21"/>
+      <c r="ZE2" s="21"/>
+      <c r="ZF2" s="21"/>
+      <c r="ZG2" s="21"/>
+      <c r="ZH2" s="21"/>
+      <c r="ZI2" s="21"/>
+      <c r="ZJ2" s="21"/>
+      <c r="ZK2" s="21"/>
+      <c r="ZL2" s="21"/>
+      <c r="ZM2" s="21"/>
+      <c r="ZN2" s="21"/>
+      <c r="ZO2" s="21"/>
+      <c r="ZP2" s="21"/>
+      <c r="ZQ2" s="21"/>
+      <c r="ZR2" s="21"/>
+      <c r="ZS2" s="21"/>
+      <c r="ZT2" s="21"/>
+      <c r="ZU2" s="21"/>
+      <c r="ZV2" s="21"/>
+      <c r="ZW2" s="21"/>
+      <c r="ZX2" s="21"/>
+      <c r="ZY2" s="21"/>
+      <c r="ZZ2" s="21"/>
+      <c r="AAA2" s="21"/>
+      <c r="AAB2" s="21"/>
+      <c r="AAC2" s="21"/>
+      <c r="AAD2" s="21"/>
+      <c r="AAE2" s="21"/>
+      <c r="AAF2" s="21"/>
+      <c r="AAG2" s="21"/>
+      <c r="AAH2" s="21"/>
+      <c r="AAI2" s="21"/>
+      <c r="AAJ2" s="21"/>
+      <c r="AAK2" s="21"/>
+      <c r="AAL2" s="21"/>
+      <c r="AAM2" s="21"/>
+      <c r="AAN2" s="21"/>
+      <c r="AAO2" s="21"/>
+      <c r="AAP2" s="21"/>
+      <c r="AAQ2" s="21"/>
+      <c r="AAR2" s="21"/>
+      <c r="AAS2" s="21"/>
+      <c r="AAT2" s="21"/>
+      <c r="AAU2" s="21"/>
+      <c r="AAV2" s="21"/>
+      <c r="AAW2" s="21"/>
+      <c r="AAX2" s="21"/>
+      <c r="AAY2" s="21"/>
+      <c r="AAZ2" s="21"/>
+      <c r="ABA2" s="21"/>
+      <c r="ABB2" s="21"/>
+      <c r="ABC2" s="21"/>
+      <c r="ABD2" s="21"/>
+      <c r="ABE2" s="21"/>
+      <c r="ABF2" s="21"/>
+      <c r="ABG2" s="21"/>
+      <c r="ABH2" s="21"/>
+      <c r="ABI2" s="21"/>
+      <c r="ABJ2" s="21"/>
+      <c r="ABK2" s="21"/>
+      <c r="ABL2" s="21"/>
+      <c r="ABM2" s="21"/>
+      <c r="ABN2" s="21"/>
+      <c r="ABO2" s="21"/>
+      <c r="ABP2" s="21"/>
+      <c r="ABQ2" s="21"/>
+      <c r="ABR2" s="21"/>
+      <c r="ABS2" s="21"/>
+      <c r="ABT2" s="21"/>
+      <c r="ABU2" s="21"/>
+      <c r="ABV2" s="21"/>
+      <c r="ABW2" s="21"/>
+      <c r="ABX2" s="21"/>
+      <c r="ABY2" s="21"/>
+      <c r="ABZ2" s="21"/>
+      <c r="ACA2" s="21"/>
+      <c r="ACB2" s="21"/>
+      <c r="ACC2" s="21"/>
+      <c r="ACD2" s="21"/>
+      <c r="ACE2" s="21"/>
+      <c r="ACF2" s="21"/>
+      <c r="ACG2" s="21"/>
+      <c r="ACH2" s="21"/>
+      <c r="ACI2" s="21"/>
+      <c r="ACJ2" s="21"/>
+      <c r="ACK2" s="21"/>
+      <c r="ACL2" s="21"/>
+      <c r="ACM2" s="21"/>
+      <c r="ACN2" s="21"/>
+      <c r="ACO2" s="21"/>
+      <c r="ACP2" s="21"/>
+      <c r="ACQ2" s="21"/>
+      <c r="ACR2" s="21"/>
+      <c r="ACS2" s="21"/>
+      <c r="ACT2" s="21"/>
+      <c r="ACU2" s="21"/>
+      <c r="ACV2" s="21"/>
+      <c r="ACW2" s="21"/>
+      <c r="ACX2" s="21"/>
+      <c r="ACY2" s="21"/>
+      <c r="ACZ2" s="21"/>
+      <c r="ADA2" s="21"/>
+      <c r="ADB2" s="21"/>
+      <c r="ADC2" s="21"/>
+      <c r="ADD2" s="21"/>
+      <c r="ADE2" s="21"/>
+      <c r="ADF2" s="21"/>
+      <c r="ADG2" s="21"/>
+      <c r="ADH2" s="21"/>
+      <c r="ADI2" s="21"/>
+      <c r="ADJ2" s="21"/>
+      <c r="ADK2" s="21"/>
+      <c r="ADL2" s="21"/>
+      <c r="ADM2" s="21"/>
+      <c r="ADN2" s="21"/>
+      <c r="ADO2" s="21"/>
+      <c r="ADP2" s="21"/>
+      <c r="ADQ2" s="21"/>
+      <c r="ADR2" s="21"/>
+      <c r="ADS2" s="21"/>
+      <c r="ADT2" s="21"/>
+      <c r="ADU2" s="21"/>
+      <c r="ADV2" s="21"/>
+      <c r="ADW2" s="21"/>
+      <c r="ADX2" s="21"/>
+      <c r="ADY2" s="21"/>
+      <c r="ADZ2" s="21"/>
+      <c r="AEA2" s="21"/>
+      <c r="AEB2" s="21"/>
+      <c r="AEC2" s="21"/>
+      <c r="AED2" s="21"/>
+      <c r="AEE2" s="21"/>
+      <c r="AEF2" s="21"/>
+      <c r="AEG2" s="21"/>
+      <c r="AEH2" s="21"/>
+      <c r="AEI2" s="21"/>
+      <c r="AEJ2" s="21"/>
+      <c r="AEK2" s="21"/>
+      <c r="AEL2" s="21"/>
+      <c r="AEM2" s="21"/>
+      <c r="AEN2" s="21"/>
+      <c r="AEO2" s="21"/>
+      <c r="AEP2" s="21"/>
+      <c r="AEQ2" s="21"/>
+      <c r="AER2" s="21"/>
+      <c r="AES2" s="21"/>
+      <c r="AET2" s="21"/>
+      <c r="AEU2" s="21"/>
+      <c r="AEV2" s="21"/>
+      <c r="AEW2" s="21"/>
+      <c r="AEX2" s="21"/>
+      <c r="AEY2" s="21"/>
+      <c r="AEZ2" s="21"/>
+      <c r="AFA2" s="21"/>
+      <c r="AFB2" s="21"/>
+      <c r="AFC2" s="21"/>
+      <c r="AFD2" s="21"/>
+      <c r="AFE2" s="21"/>
+      <c r="AFF2" s="21"/>
+      <c r="AFG2" s="21"/>
+      <c r="AFH2" s="21"/>
+      <c r="AFI2" s="21"/>
+      <c r="AFJ2" s="21"/>
+      <c r="AFK2" s="21"/>
+      <c r="AFL2" s="21"/>
+      <c r="AFM2" s="21"/>
+      <c r="AFN2" s="21"/>
+      <c r="AFO2" s="21"/>
+      <c r="AFP2" s="21"/>
+      <c r="AFQ2" s="21"/>
+      <c r="AFR2" s="21"/>
+      <c r="AFS2" s="21"/>
+      <c r="AFT2" s="21"/>
+      <c r="AFU2" s="21"/>
+      <c r="AFV2" s="21"/>
+      <c r="AFW2" s="21"/>
+      <c r="AFX2" s="21"/>
+      <c r="AFY2" s="21"/>
+      <c r="AFZ2" s="21"/>
+      <c r="AGA2" s="21"/>
+      <c r="AGB2" s="21"/>
+      <c r="AGC2" s="21"/>
+      <c r="AGD2" s="21"/>
+      <c r="AGE2" s="21"/>
+      <c r="AGF2" s="21"/>
+      <c r="AGG2" s="21"/>
+      <c r="AGH2" s="21"/>
+      <c r="AGI2" s="21"/>
+      <c r="AGJ2" s="21"/>
+      <c r="AGK2" s="21"/>
+      <c r="AGL2" s="21"/>
+      <c r="AGM2" s="21"/>
+      <c r="AGN2" s="21"/>
+      <c r="AGO2" s="21"/>
+      <c r="AGP2" s="21"/>
+      <c r="AGQ2" s="21"/>
+      <c r="AGR2" s="21"/>
+      <c r="AGS2" s="21"/>
+      <c r="AGT2" s="21"/>
+      <c r="AGU2" s="21"/>
+      <c r="AGV2" s="21"/>
+      <c r="AGW2" s="21"/>
+      <c r="AGX2" s="21"/>
+      <c r="AGY2" s="21"/>
+      <c r="AGZ2" s="21"/>
+      <c r="AHA2" s="21"/>
+      <c r="AHB2" s="21"/>
+      <c r="AHC2" s="21"/>
+      <c r="AHD2" s="21"/>
+      <c r="AHE2" s="21"/>
+      <c r="AHF2" s="21"/>
+      <c r="AHG2" s="21"/>
+      <c r="AHH2" s="21"/>
+      <c r="AHI2" s="21"/>
+      <c r="AHJ2" s="21"/>
+      <c r="AHK2" s="21"/>
+      <c r="AHL2" s="21"/>
+      <c r="AHM2" s="21"/>
+      <c r="AHN2" s="21"/>
+      <c r="AHO2" s="21"/>
+      <c r="AHP2" s="21"/>
+      <c r="AHQ2" s="21"/>
+      <c r="AHR2" s="21"/>
+      <c r="AHS2" s="21"/>
+      <c r="AHT2" s="21"/>
+      <c r="AHU2" s="21"/>
+      <c r="AHV2" s="21"/>
+      <c r="AHW2" s="21"/>
+      <c r="AHX2" s="21"/>
+      <c r="AHY2" s="21"/>
+      <c r="AHZ2" s="21"/>
+      <c r="AIA2" s="21"/>
+      <c r="AIB2" s="21"/>
+      <c r="AIC2" s="21"/>
+      <c r="AID2" s="21"/>
+      <c r="AIE2" s="21"/>
+      <c r="AIF2" s="21"/>
+      <c r="AIG2" s="21"/>
+      <c r="AIH2" s="21"/>
+      <c r="AII2" s="21"/>
+      <c r="AIJ2" s="21"/>
+      <c r="AIK2" s="21"/>
+      <c r="AIL2" s="21"/>
+      <c r="AIM2" s="21"/>
+      <c r="AIN2" s="21"/>
+      <c r="AIO2" s="21"/>
+      <c r="AIP2" s="21"/>
+      <c r="AIQ2" s="21"/>
+      <c r="AIR2" s="21"/>
+      <c r="AIS2" s="21"/>
+      <c r="AIT2" s="21"/>
+      <c r="AIU2" s="21"/>
+      <c r="AIV2" s="21"/>
+      <c r="AIW2" s="21"/>
+      <c r="AIX2" s="21"/>
+      <c r="AIY2" s="21"/>
+      <c r="AIZ2" s="21"/>
+      <c r="AJA2" s="21"/>
+      <c r="AJB2" s="21"/>
+      <c r="AJC2" s="21"/>
+      <c r="AJD2" s="21"/>
+      <c r="AJE2" s="21"/>
+      <c r="AJF2" s="21"/>
+      <c r="AJG2" s="21"/>
+      <c r="AJH2" s="21"/>
+      <c r="AJI2" s="21"/>
+      <c r="AJJ2" s="21"/>
+      <c r="AJK2" s="21"/>
+      <c r="AJL2" s="21"/>
+      <c r="AJM2" s="21"/>
+      <c r="AJN2" s="21"/>
+      <c r="AJO2" s="21"/>
+      <c r="AJP2" s="21"/>
+      <c r="AJQ2" s="21"/>
+      <c r="AJR2" s="21"/>
+      <c r="AJS2" s="21"/>
+      <c r="AJT2" s="21"/>
+      <c r="AJU2" s="21"/>
+      <c r="AJV2" s="21"/>
+      <c r="AJW2" s="21"/>
+      <c r="AJX2" s="21"/>
+      <c r="AJY2" s="21"/>
+      <c r="AJZ2" s="21"/>
+      <c r="AKA2" s="21"/>
+      <c r="AKB2" s="21"/>
+      <c r="AKC2" s="21"/>
+      <c r="AKD2" s="21"/>
+      <c r="AKE2" s="21"/>
+      <c r="AKF2" s="21"/>
+      <c r="AKG2" s="21"/>
+      <c r="AKH2" s="21"/>
+      <c r="AKI2" s="21"/>
+      <c r="AKJ2" s="21"/>
+      <c r="AKK2" s="21"/>
+      <c r="AKL2" s="21"/>
+      <c r="AKM2" s="21"/>
+      <c r="AKN2" s="21"/>
+      <c r="AKO2" s="21"/>
+      <c r="AKP2" s="21"/>
+      <c r="AKQ2" s="21"/>
+      <c r="AKR2" s="21"/>
+      <c r="AKS2" s="21"/>
+      <c r="AKT2" s="21"/>
+      <c r="AKU2" s="21"/>
+      <c r="AKV2" s="21"/>
+      <c r="AKW2" s="21"/>
+      <c r="AKX2" s="21"/>
+      <c r="AKY2" s="21"/>
+      <c r="AKZ2" s="21"/>
+      <c r="ALA2" s="21"/>
+      <c r="ALB2" s="21"/>
+      <c r="ALC2" s="21"/>
+      <c r="ALD2" s="21"/>
+      <c r="ALE2" s="21"/>
+      <c r="ALF2" s="21"/>
+      <c r="ALG2" s="21"/>
+      <c r="ALH2" s="21"/>
+      <c r="ALI2" s="21"/>
+      <c r="ALJ2" s="21"/>
+      <c r="ALK2" s="21"/>
+      <c r="ALL2" s="21"/>
+      <c r="ALM2" s="21"/>
+      <c r="ALN2" s="21"/>
+      <c r="ALO2" s="21"/>
+      <c r="ALP2" s="21"/>
+      <c r="ALQ2" s="21"/>
+      <c r="ALR2" s="21"/>
+      <c r="ALS2" s="21"/>
+      <c r="ALT2" s="21"/>
+      <c r="ALU2" s="21"/>
+      <c r="ALV2" s="21"/>
+      <c r="ALW2" s="21"/>
+      <c r="ALX2" s="21"/>
+      <c r="ALY2" s="21"/>
+      <c r="ALZ2" s="21"/>
+      <c r="AMA2" s="21"/>
+      <c r="AMB2" s="21"/>
+      <c r="AMC2" s="21"/>
+      <c r="AMD2" s="21"/>
+      <c r="AME2" s="21"/>
+      <c r="AMF2" s="21"/>
+      <c r="AMG2" s="21"/>
+      <c r="AMH2" s="21"/>
+      <c r="AMI2" s="21"/>
+      <c r="AMJ2" s="21"/>
+      <c r="AMK2" s="21"/>
+      <c r="AML2" s="21"/>
+      <c r="AMM2" s="21"/>
+      <c r="AMN2" s="21"/>
+      <c r="AMO2" s="21"/>
+      <c r="AMP2" s="21"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -36978,7 +36997,7 @@
       <c r="H3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="12">
         <v>4.58e-17</v>
       </c>
       <c r="J3" s="1">
@@ -37022,7 +37041,7 @@
       <c r="H4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>1e-12</v>
       </c>
       <c r="J4" s="1">
@@ -37073,160 +37092,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="26" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7" style="26" customWidth="1"/>
-    <col min="7" max="7" width="14" style="26" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="26" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="26" customWidth="1"/>
-    <col min="13" max="1026" width="8.78333333333333" style="26"/>
-    <col min="1027" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="9" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14" style="27" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="27" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="27" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="27"/>
+    <col min="1027" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="27" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="27">
         <v>1</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="27">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <v>3</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="27">
         <v>4</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <v>5</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <v>6</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="27">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -37282,7 +37301,7 @@
         <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -37302,7 +37321,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
@@ -37311,12 +37330,12 @@
         <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>94</v>
@@ -37325,12 +37344,12 @@
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>97</v>
@@ -37339,12 +37358,12 @@
         <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>97</v>
@@ -37353,12 +37372,12 @@
         <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
@@ -37367,12 +37386,12 @@
         <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>101</v>
@@ -37381,12 +37400,12 @@
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -37395,12 +37414,12 @@
         <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>105</v>
@@ -37409,7 +37428,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -37462,16 +37481,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -37491,112 +37510,112 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="26">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>123</v>
+      <c r="G2" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="26">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>123</v>
+      <c r="G3" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>123</v>
+      <c r="G4" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>123</v>
+      <c r="G5" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="26">
         <v>0.001</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>123</v>
+      <c r="G6" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>0.002</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>123</v>
+      <c r="G7" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
@@ -37605,7 +37624,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="243">
   <si>
     <t>Table</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Initial density</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -456,7 +453,7 @@
     <t>e / density_c</t>
   </si>
   <si>
-    <t>Flux</t>
+    <t>Flux bounds</t>
   </si>
   <si>
     <t>Submodel</t>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
@@ -797,12 +797,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -871,12 +871,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -892,105 +991,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1019,31 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1037,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,25 +1163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,103 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,24 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1255,6 +1237,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1265,6 +1256,45 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1289,165 +1319,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1508,9 +1508,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1526,11 +1523,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,8 +1536,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2212,8 +2212,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.78333333333333" style="25"/>
-    <col min="1027" max="16384" width="9" style="25"/>
+    <col min="1" max="1026" width="8.78333333333333" style="24"/>
+    <col min="1027" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2224,7 +2224,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>70</v>
@@ -2281,7 +2281,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -2304,24 +2304,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2337,11 +2337,11 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2351,31 +2351,31 @@
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.9166666666667" style="1"/>
     <col min="5" max="6" width="8.14166666666667" style="1"/>
-    <col min="7" max="7" width="7.5" style="20"/>
-    <col min="8" max="8" width="7.71666666666667" style="20"/>
+    <col min="7" max="7" width="7.5" style="19"/>
+    <col min="8" max="8" width="7.71666666666667" style="19"/>
     <col min="9" max="9" width="37.8166666666667" style="1"/>
     <col min="10" max="10" width="8.78333333333333" style="1"/>
-    <col min="11" max="1027" width="8.78333333333333" style="20"/>
-    <col min="1028" max="16384" width="9" style="20"/>
+    <col min="11" max="1027" width="8.78333333333333" style="19"/>
+    <col min="1028" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" s="10" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2385,22 +2385,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
@@ -2423,52 +2423,52 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="20">
-        <v>2</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2476,79 +2476,79 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="M4" s="20" t="s">
-        <v>146</v>
+      <c r="I4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="M4" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="20">
+        <v>148</v>
+      </c>
+      <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>152</v>
+      <c r="D6" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>155</v>
+      <c r="D7" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2598,16 +2598,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
@@ -2630,19 +2630,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2651,19 +2651,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2672,19 +2672,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2693,19 +2693,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2715,19 +2715,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2737,19 +2737,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2778,17 +2778,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -2797,74 +2797,65 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="18"/>
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2902,13 +2893,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2928,22 +2919,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2986,13 +2977,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>70</v>
@@ -3021,16 +3012,16 @@
         <v>182</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="15">
         <v>-3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>183</v>
@@ -3044,16 +3035,16 @@
         <v>185</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3096,10 +3087,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>186</v>
@@ -3134,7 +3125,7 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>189</v>
@@ -3162,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -3215,7 +3206,7 @@
         <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3226,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3240,7 +3231,7 @@
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -3256,7 +3247,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>1100</v>
@@ -3267,7 +3258,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
         <v>1000</v>
@@ -3313,7 +3304,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -3389,7 +3380,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>186</v>
@@ -3398,7 +3389,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
@@ -3587,7 +3578,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3617,7 +3608,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>186</v>
@@ -3626,7 +3617,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
@@ -3735,7 +3726,7 @@
         <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>219</v>
@@ -3870,7 +3861,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>235</v>
@@ -4071,12 +4062,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="7" width="8.78333333333333" style="19"/>
-    <col min="8" max="1026" width="8.78333333333333" style="25"/>
-    <col min="1027" max="16384" width="9" style="25"/>
+    <col min="1" max="7" width="8.78333333333333" style="18"/>
+    <col min="8" max="1026" width="8.78333333333333" style="24"/>
+    <col min="1027" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4101,15 +4092,15 @@
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMI1" s="25"/>
-      <c r="AMJ1" s="25"/>
-      <c r="AMK1" s="25"/>
+      <c r="AMI1" s="24"/>
+      <c r="AMJ1" s="24"/>
+      <c r="AMK1" s="24"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4118,10 +4109,10 @@
       <c r="D2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4145,7 +4136,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -4154,1047 +4145,1047 @@
     <col min="2" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="1033" width="8.78333333333333" style="1"/>
-    <col min="1034" max="16384" width="9" style="1"/>
+    <col min="8" max="1035" width="8.78333333333333" style="1"/>
+    <col min="1036" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="18" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="18" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CB1" s="21"/>
-      <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
-      <c r="CG1" s="21"/>
-      <c r="CH1" s="21"/>
-      <c r="CI1" s="21"/>
-      <c r="CJ1" s="21"/>
-      <c r="CK1" s="21"/>
-      <c r="CL1" s="21"/>
-      <c r="CM1" s="21"/>
-      <c r="CN1" s="21"/>
-      <c r="CO1" s="21"/>
-      <c r="CP1" s="21"/>
-      <c r="CQ1" s="21"/>
-      <c r="CR1" s="21"/>
-      <c r="CS1" s="21"/>
-      <c r="CT1" s="21"/>
-      <c r="CU1" s="21"/>
-      <c r="CV1" s="21"/>
-      <c r="CW1" s="21"/>
-      <c r="CX1" s="21"/>
-      <c r="CY1" s="21"/>
-      <c r="CZ1" s="21"/>
-      <c r="DA1" s="21"/>
-      <c r="DB1" s="21"/>
-      <c r="DC1" s="21"/>
-      <c r="DD1" s="21"/>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21"/>
-      <c r="DG1" s="21"/>
-      <c r="DH1" s="21"/>
-      <c r="DI1" s="21"/>
-      <c r="DJ1" s="21"/>
-      <c r="DK1" s="21"/>
-      <c r="DL1" s="21"/>
-      <c r="DM1" s="21"/>
-      <c r="DN1" s="21"/>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="21"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="21"/>
-      <c r="DS1" s="21"/>
-      <c r="DT1" s="21"/>
-      <c r="DU1" s="21"/>
-      <c r="DV1" s="21"/>
-      <c r="DW1" s="21"/>
-      <c r="DX1" s="21"/>
-      <c r="DY1" s="21"/>
-      <c r="DZ1" s="21"/>
-      <c r="EA1" s="21"/>
-      <c r="EB1" s="21"/>
-      <c r="EC1" s="21"/>
-      <c r="ED1" s="21"/>
-      <c r="EE1" s="21"/>
-      <c r="EF1" s="21"/>
-      <c r="EG1" s="21"/>
-      <c r="EH1" s="21"/>
-      <c r="EI1" s="21"/>
-      <c r="EJ1" s="21"/>
-      <c r="EK1" s="21"/>
-      <c r="EL1" s="21"/>
-      <c r="EM1" s="21"/>
-      <c r="EN1" s="21"/>
-      <c r="EO1" s="21"/>
-      <c r="EP1" s="21"/>
-      <c r="EQ1" s="21"/>
-      <c r="ER1" s="21"/>
-      <c r="ES1" s="21"/>
-      <c r="ET1" s="21"/>
-      <c r="EU1" s="21"/>
-      <c r="EV1" s="21"/>
-      <c r="EW1" s="21"/>
-      <c r="EX1" s="21"/>
-      <c r="EY1" s="21"/>
-      <c r="EZ1" s="21"/>
-      <c r="FA1" s="21"/>
-      <c r="FB1" s="21"/>
-      <c r="FC1" s="21"/>
-      <c r="FD1" s="21"/>
-      <c r="FE1" s="21"/>
-      <c r="FF1" s="21"/>
-      <c r="FG1" s="21"/>
-      <c r="FH1" s="21"/>
-      <c r="FI1" s="21"/>
-      <c r="FJ1" s="21"/>
-      <c r="FK1" s="21"/>
-      <c r="FL1" s="21"/>
-      <c r="FM1" s="21"/>
-      <c r="FN1" s="21"/>
-      <c r="FO1" s="21"/>
-      <c r="FP1" s="21"/>
-      <c r="FQ1" s="21"/>
-      <c r="FR1" s="21"/>
-      <c r="FS1" s="21"/>
-      <c r="FT1" s="21"/>
-      <c r="FU1" s="21"/>
-      <c r="FV1" s="21"/>
-      <c r="FW1" s="21"/>
-      <c r="FX1" s="21"/>
-      <c r="FY1" s="21"/>
-      <c r="FZ1" s="21"/>
-      <c r="GA1" s="21"/>
-      <c r="GB1" s="21"/>
-      <c r="GC1" s="21"/>
-      <c r="GD1" s="21"/>
-      <c r="GE1" s="21"/>
-      <c r="GF1" s="21"/>
-      <c r="GG1" s="21"/>
-      <c r="GH1" s="21"/>
-      <c r="GI1" s="21"/>
-      <c r="GJ1" s="21"/>
-      <c r="GK1" s="21"/>
-      <c r="GL1" s="21"/>
-      <c r="GM1" s="21"/>
-      <c r="GN1" s="21"/>
-      <c r="GO1" s="21"/>
-      <c r="GP1" s="21"/>
-      <c r="GQ1" s="21"/>
-      <c r="GR1" s="21"/>
-      <c r="GS1" s="21"/>
-      <c r="GT1" s="21"/>
-      <c r="GU1" s="21"/>
-      <c r="GV1" s="21"/>
-      <c r="GW1" s="21"/>
-      <c r="GX1" s="21"/>
-      <c r="GY1" s="21"/>
-      <c r="GZ1" s="21"/>
-      <c r="HA1" s="21"/>
-      <c r="HB1" s="21"/>
-      <c r="HC1" s="21"/>
-      <c r="HD1" s="21"/>
-      <c r="HE1" s="21"/>
-      <c r="HF1" s="21"/>
-      <c r="HG1" s="21"/>
-      <c r="HH1" s="21"/>
-      <c r="HI1" s="21"/>
-      <c r="HJ1" s="21"/>
-      <c r="HK1" s="21"/>
-      <c r="HL1" s="21"/>
-      <c r="HM1" s="21"/>
-      <c r="HN1" s="21"/>
-      <c r="HO1" s="21"/>
-      <c r="HP1" s="21"/>
-      <c r="HQ1" s="21"/>
-      <c r="HR1" s="21"/>
-      <c r="HS1" s="21"/>
-      <c r="HT1" s="21"/>
-      <c r="HU1" s="21"/>
-      <c r="HV1" s="21"/>
-      <c r="HW1" s="21"/>
-      <c r="HX1" s="21"/>
-      <c r="HY1" s="21"/>
-      <c r="HZ1" s="21"/>
-      <c r="IA1" s="21"/>
-      <c r="IB1" s="21"/>
-      <c r="IC1" s="21"/>
-      <c r="ID1" s="21"/>
-      <c r="IE1" s="21"/>
-      <c r="IF1" s="21"/>
-      <c r="IG1" s="21"/>
-      <c r="IH1" s="21"/>
-      <c r="II1" s="21"/>
-      <c r="IJ1" s="21"/>
-      <c r="IK1" s="21"/>
-      <c r="IL1" s="21"/>
-      <c r="IM1" s="21"/>
-      <c r="IN1" s="21"/>
-      <c r="IO1" s="21"/>
-      <c r="IP1" s="21"/>
-      <c r="IQ1" s="21"/>
-      <c r="IR1" s="21"/>
-      <c r="IS1" s="21"/>
-      <c r="IT1" s="21"/>
-      <c r="IU1" s="21"/>
-      <c r="IV1" s="21"/>
-      <c r="IW1" s="21"/>
-      <c r="IX1" s="21"/>
-      <c r="IY1" s="21"/>
-      <c r="IZ1" s="21"/>
-      <c r="JA1" s="21"/>
-      <c r="JB1" s="21"/>
-      <c r="JC1" s="21"/>
-      <c r="JD1" s="21"/>
-      <c r="JE1" s="21"/>
-      <c r="JF1" s="21"/>
-      <c r="JG1" s="21"/>
-      <c r="JH1" s="21"/>
-      <c r="JI1" s="21"/>
-      <c r="JJ1" s="21"/>
-      <c r="JK1" s="21"/>
-      <c r="JL1" s="21"/>
-      <c r="JM1" s="21"/>
-      <c r="JN1" s="21"/>
-      <c r="JO1" s="21"/>
-      <c r="JP1" s="21"/>
-      <c r="JQ1" s="21"/>
-      <c r="JR1" s="21"/>
-      <c r="JS1" s="21"/>
-      <c r="JT1" s="21"/>
-      <c r="JU1" s="21"/>
-      <c r="JV1" s="21"/>
-      <c r="JW1" s="21"/>
-      <c r="JX1" s="21"/>
-      <c r="JY1" s="21"/>
-      <c r="JZ1" s="21"/>
-      <c r="KA1" s="21"/>
-      <c r="KB1" s="21"/>
-      <c r="KC1" s="21"/>
-      <c r="KD1" s="21"/>
-      <c r="KE1" s="21"/>
-      <c r="KF1" s="21"/>
-      <c r="KG1" s="21"/>
-      <c r="KH1" s="21"/>
-      <c r="KI1" s="21"/>
-      <c r="KJ1" s="21"/>
-      <c r="KK1" s="21"/>
-      <c r="KL1" s="21"/>
-      <c r="KM1" s="21"/>
-      <c r="KN1" s="21"/>
-      <c r="KO1" s="21"/>
-      <c r="KP1" s="21"/>
-      <c r="KQ1" s="21"/>
-      <c r="KR1" s="21"/>
-      <c r="KS1" s="21"/>
-      <c r="KT1" s="21"/>
-      <c r="KU1" s="21"/>
-      <c r="KV1" s="21"/>
-      <c r="KW1" s="21"/>
-      <c r="KX1" s="21"/>
-      <c r="KY1" s="21"/>
-      <c r="KZ1" s="21"/>
-      <c r="LA1" s="21"/>
-      <c r="LB1" s="21"/>
-      <c r="LC1" s="21"/>
-      <c r="LD1" s="21"/>
-      <c r="LE1" s="21"/>
-      <c r="LF1" s="21"/>
-      <c r="LG1" s="21"/>
-      <c r="LH1" s="21"/>
-      <c r="LI1" s="21"/>
-      <c r="LJ1" s="21"/>
-      <c r="LK1" s="21"/>
-      <c r="LL1" s="21"/>
-      <c r="LM1" s="21"/>
-      <c r="LN1" s="21"/>
-      <c r="LO1" s="21"/>
-      <c r="LP1" s="21"/>
-      <c r="LQ1" s="21"/>
-      <c r="LR1" s="21"/>
-      <c r="LS1" s="21"/>
-      <c r="LT1" s="21"/>
-      <c r="LU1" s="21"/>
-      <c r="LV1" s="21"/>
-      <c r="LW1" s="21"/>
-      <c r="LX1" s="21"/>
-      <c r="LY1" s="21"/>
-      <c r="LZ1" s="21"/>
-      <c r="MA1" s="21"/>
-      <c r="MB1" s="21"/>
-      <c r="MC1" s="21"/>
-      <c r="MD1" s="21"/>
-      <c r="ME1" s="21"/>
-      <c r="MF1" s="21"/>
-      <c r="MG1" s="21"/>
-      <c r="MH1" s="21"/>
-      <c r="MI1" s="21"/>
-      <c r="MJ1" s="21"/>
-      <c r="MK1" s="21"/>
-      <c r="ML1" s="21"/>
-      <c r="MM1" s="21"/>
-      <c r="MN1" s="21"/>
-      <c r="MO1" s="21"/>
-      <c r="MP1" s="21"/>
-      <c r="MQ1" s="21"/>
-      <c r="MR1" s="21"/>
-      <c r="MS1" s="21"/>
-      <c r="MT1" s="21"/>
-      <c r="MU1" s="21"/>
-      <c r="MV1" s="21"/>
-      <c r="MW1" s="21"/>
-      <c r="MX1" s="21"/>
-      <c r="MY1" s="21"/>
-      <c r="MZ1" s="21"/>
-      <c r="NA1" s="21"/>
-      <c r="NB1" s="21"/>
-      <c r="NC1" s="21"/>
-      <c r="ND1" s="21"/>
-      <c r="NE1" s="21"/>
-      <c r="NF1" s="21"/>
-      <c r="NG1" s="21"/>
-      <c r="NH1" s="21"/>
-      <c r="NI1" s="21"/>
-      <c r="NJ1" s="21"/>
-      <c r="NK1" s="21"/>
-      <c r="NL1" s="21"/>
-      <c r="NM1" s="21"/>
-      <c r="NN1" s="21"/>
-      <c r="NO1" s="21"/>
-      <c r="NP1" s="21"/>
-      <c r="NQ1" s="21"/>
-      <c r="NR1" s="21"/>
-      <c r="NS1" s="21"/>
-      <c r="NT1" s="21"/>
-      <c r="NU1" s="21"/>
-      <c r="NV1" s="21"/>
-      <c r="NW1" s="21"/>
-      <c r="NX1" s="21"/>
-      <c r="NY1" s="21"/>
-      <c r="NZ1" s="21"/>
-      <c r="OA1" s="21"/>
-      <c r="OB1" s="21"/>
-      <c r="OC1" s="21"/>
-      <c r="OD1" s="21"/>
-      <c r="OE1" s="21"/>
-      <c r="OF1" s="21"/>
-      <c r="OG1" s="21"/>
-      <c r="OH1" s="21"/>
-      <c r="OI1" s="21"/>
-      <c r="OJ1" s="21"/>
-      <c r="OK1" s="21"/>
-      <c r="OL1" s="21"/>
-      <c r="OM1" s="21"/>
-      <c r="ON1" s="21"/>
-      <c r="OO1" s="21"/>
-      <c r="OP1" s="21"/>
-      <c r="OQ1" s="21"/>
-      <c r="OR1" s="21"/>
-      <c r="OS1" s="21"/>
-      <c r="OT1" s="21"/>
-      <c r="OU1" s="21"/>
-      <c r="OV1" s="21"/>
-      <c r="OW1" s="21"/>
-      <c r="OX1" s="21"/>
-      <c r="OY1" s="21"/>
-      <c r="OZ1" s="21"/>
-      <c r="PA1" s="21"/>
-      <c r="PB1" s="21"/>
-      <c r="PC1" s="21"/>
-      <c r="PD1" s="21"/>
-      <c r="PE1" s="21"/>
-      <c r="PF1" s="21"/>
-      <c r="PG1" s="21"/>
-      <c r="PH1" s="21"/>
-      <c r="PI1" s="21"/>
-      <c r="PJ1" s="21"/>
-      <c r="PK1" s="21"/>
-      <c r="PL1" s="21"/>
-      <c r="PM1" s="21"/>
-      <c r="PN1" s="21"/>
-      <c r="PO1" s="21"/>
-      <c r="PP1" s="21"/>
-      <c r="PQ1" s="21"/>
-      <c r="PR1" s="21"/>
-      <c r="PS1" s="21"/>
-      <c r="PT1" s="21"/>
-      <c r="PU1" s="21"/>
-      <c r="PV1" s="21"/>
-      <c r="PW1" s="21"/>
-      <c r="PX1" s="21"/>
-      <c r="PY1" s="21"/>
-      <c r="PZ1" s="21"/>
-      <c r="QA1" s="21"/>
-      <c r="QB1" s="21"/>
-      <c r="QC1" s="21"/>
-      <c r="QD1" s="21"/>
-      <c r="QE1" s="21"/>
-      <c r="QF1" s="21"/>
-      <c r="QG1" s="21"/>
-      <c r="QH1" s="21"/>
-      <c r="QI1" s="21"/>
-      <c r="QJ1" s="21"/>
-      <c r="QK1" s="21"/>
-      <c r="QL1" s="21"/>
-      <c r="QM1" s="21"/>
-      <c r="QN1" s="21"/>
-      <c r="QO1" s="21"/>
-      <c r="QP1" s="21"/>
-      <c r="QQ1" s="21"/>
-      <c r="QR1" s="21"/>
-      <c r="QS1" s="21"/>
-      <c r="QT1" s="21"/>
-      <c r="QU1" s="21"/>
-      <c r="QV1" s="21"/>
-      <c r="QW1" s="21"/>
-      <c r="QX1" s="21"/>
-      <c r="QY1" s="21"/>
-      <c r="QZ1" s="21"/>
-      <c r="RA1" s="21"/>
-      <c r="RB1" s="21"/>
-      <c r="RC1" s="21"/>
-      <c r="RD1" s="21"/>
-      <c r="RE1" s="21"/>
-      <c r="RF1" s="21"/>
-      <c r="RG1" s="21"/>
-      <c r="RH1" s="21"/>
-      <c r="RI1" s="21"/>
-      <c r="RJ1" s="21"/>
-      <c r="RK1" s="21"/>
-      <c r="RL1" s="21"/>
-      <c r="RM1" s="21"/>
-      <c r="RN1" s="21"/>
-      <c r="RO1" s="21"/>
-      <c r="RP1" s="21"/>
-      <c r="RQ1" s="21"/>
-      <c r="RR1" s="21"/>
-      <c r="RS1" s="21"/>
-      <c r="RT1" s="21"/>
-      <c r="RU1" s="21"/>
-      <c r="RV1" s="21"/>
-      <c r="RW1" s="21"/>
-      <c r="RX1" s="21"/>
-      <c r="RY1" s="21"/>
-      <c r="RZ1" s="21"/>
-      <c r="SA1" s="21"/>
-      <c r="SB1" s="21"/>
-      <c r="SC1" s="21"/>
-      <c r="SD1" s="21"/>
-      <c r="SE1" s="21"/>
-      <c r="SF1" s="21"/>
-      <c r="SG1" s="21"/>
-      <c r="SH1" s="21"/>
-      <c r="SI1" s="21"/>
-      <c r="SJ1" s="21"/>
-      <c r="SK1" s="21"/>
-      <c r="SL1" s="21"/>
-      <c r="SM1" s="21"/>
-      <c r="SN1" s="21"/>
-      <c r="SO1" s="21"/>
-      <c r="SP1" s="21"/>
-      <c r="SQ1" s="21"/>
-      <c r="SR1" s="21"/>
-      <c r="SS1" s="21"/>
-      <c r="ST1" s="21"/>
-      <c r="SU1" s="21"/>
-      <c r="SV1" s="21"/>
-      <c r="SW1" s="21"/>
-      <c r="SX1" s="21"/>
-      <c r="SY1" s="21"/>
-      <c r="SZ1" s="21"/>
-      <c r="TA1" s="21"/>
-      <c r="TB1" s="21"/>
-      <c r="TC1" s="21"/>
-      <c r="TD1" s="21"/>
-      <c r="TE1" s="21"/>
-      <c r="TF1" s="21"/>
-      <c r="TG1" s="21"/>
-      <c r="TH1" s="21"/>
-      <c r="TI1" s="21"/>
-      <c r="TJ1" s="21"/>
-      <c r="TK1" s="21"/>
-      <c r="TL1" s="21"/>
-      <c r="TM1" s="21"/>
-      <c r="TN1" s="21"/>
-      <c r="TO1" s="21"/>
-      <c r="TP1" s="21"/>
-      <c r="TQ1" s="21"/>
-      <c r="TR1" s="21"/>
-      <c r="TS1" s="21"/>
-      <c r="TT1" s="21"/>
-      <c r="TU1" s="21"/>
-      <c r="TV1" s="21"/>
-      <c r="TW1" s="21"/>
-      <c r="TX1" s="21"/>
-      <c r="TY1" s="21"/>
-      <c r="TZ1" s="21"/>
-      <c r="UA1" s="21"/>
-      <c r="UB1" s="21"/>
-      <c r="UC1" s="21"/>
-      <c r="UD1" s="21"/>
-      <c r="UE1" s="21"/>
-      <c r="UF1" s="21"/>
-      <c r="UG1" s="21"/>
-      <c r="UH1" s="21"/>
-      <c r="UI1" s="21"/>
-      <c r="UJ1" s="21"/>
-      <c r="UK1" s="21"/>
-      <c r="UL1" s="21"/>
-      <c r="UM1" s="21"/>
-      <c r="UN1" s="21"/>
-      <c r="UO1" s="21"/>
-      <c r="UP1" s="21"/>
-      <c r="UQ1" s="21"/>
-      <c r="UR1" s="21"/>
-      <c r="US1" s="21"/>
-      <c r="UT1" s="21"/>
-      <c r="UU1" s="21"/>
-      <c r="UV1" s="21"/>
-      <c r="UW1" s="21"/>
-      <c r="UX1" s="21"/>
-      <c r="UY1" s="21"/>
-      <c r="UZ1" s="21"/>
-      <c r="VA1" s="21"/>
-      <c r="VB1" s="21"/>
-      <c r="VC1" s="21"/>
-      <c r="VD1" s="21"/>
-      <c r="VE1" s="21"/>
-      <c r="VF1" s="21"/>
-      <c r="VG1" s="21"/>
-      <c r="VH1" s="21"/>
-      <c r="VI1" s="21"/>
-      <c r="VJ1" s="21"/>
-      <c r="VK1" s="21"/>
-      <c r="VL1" s="21"/>
-      <c r="VM1" s="21"/>
-      <c r="VN1" s="21"/>
-      <c r="VO1" s="21"/>
-      <c r="VP1" s="21"/>
-      <c r="VQ1" s="21"/>
-      <c r="VR1" s="21"/>
-      <c r="VS1" s="21"/>
-      <c r="VT1" s="21"/>
-      <c r="VU1" s="21"/>
-      <c r="VV1" s="21"/>
-      <c r="VW1" s="21"/>
-      <c r="VX1" s="21"/>
-      <c r="VY1" s="21"/>
-      <c r="VZ1" s="21"/>
-      <c r="WA1" s="21"/>
-      <c r="WB1" s="21"/>
-      <c r="WC1" s="21"/>
-      <c r="WD1" s="21"/>
-      <c r="WE1" s="21"/>
-      <c r="WF1" s="21"/>
-      <c r="WG1" s="21"/>
-      <c r="WH1" s="21"/>
-      <c r="WI1" s="21"/>
-      <c r="WJ1" s="21"/>
-      <c r="WK1" s="21"/>
-      <c r="WL1" s="21"/>
-      <c r="WM1" s="21"/>
-      <c r="WN1" s="21"/>
-      <c r="WO1" s="21"/>
-      <c r="WP1" s="21"/>
-      <c r="WQ1" s="21"/>
-      <c r="WR1" s="21"/>
-      <c r="WS1" s="21"/>
-      <c r="WT1" s="21"/>
-      <c r="WU1" s="21"/>
-      <c r="WV1" s="21"/>
-      <c r="WW1" s="21"/>
-      <c r="WX1" s="21"/>
-      <c r="WY1" s="21"/>
-      <c r="WZ1" s="21"/>
-      <c r="XA1" s="21"/>
-      <c r="XB1" s="21"/>
-      <c r="XC1" s="21"/>
-      <c r="XD1" s="21"/>
-      <c r="XE1" s="21"/>
-      <c r="XF1" s="21"/>
-      <c r="XG1" s="21"/>
-      <c r="XH1" s="21"/>
-      <c r="XI1" s="21"/>
-      <c r="XJ1" s="21"/>
-      <c r="XK1" s="21"/>
-      <c r="XL1" s="21"/>
-      <c r="XM1" s="21"/>
-      <c r="XN1" s="21"/>
-      <c r="XO1" s="21"/>
-      <c r="XP1" s="21"/>
-      <c r="XQ1" s="21"/>
-      <c r="XR1" s="21"/>
-      <c r="XS1" s="21"/>
-      <c r="XT1" s="21"/>
-      <c r="XU1" s="21"/>
-      <c r="XV1" s="21"/>
-      <c r="XW1" s="21"/>
-      <c r="XX1" s="21"/>
-      <c r="XY1" s="21"/>
-      <c r="XZ1" s="21"/>
-      <c r="YA1" s="21"/>
-      <c r="YB1" s="21"/>
-      <c r="YC1" s="21"/>
-      <c r="YD1" s="21"/>
-      <c r="YE1" s="21"/>
-      <c r="YF1" s="21"/>
-      <c r="YG1" s="21"/>
-      <c r="YH1" s="21"/>
-      <c r="YI1" s="21"/>
-      <c r="YJ1" s="21"/>
-      <c r="YK1" s="21"/>
-      <c r="YL1" s="21"/>
-      <c r="YM1" s="21"/>
-      <c r="YN1" s="21"/>
-      <c r="YO1" s="21"/>
-      <c r="YP1" s="21"/>
-      <c r="YQ1" s="21"/>
-      <c r="YR1" s="21"/>
-      <c r="YS1" s="21"/>
-      <c r="YT1" s="21"/>
-      <c r="YU1" s="21"/>
-      <c r="YV1" s="21"/>
-      <c r="YW1" s="21"/>
-      <c r="YX1" s="21"/>
-      <c r="YY1" s="21"/>
-      <c r="YZ1" s="21"/>
-      <c r="ZA1" s="21"/>
-      <c r="ZB1" s="21"/>
-      <c r="ZC1" s="21"/>
-      <c r="ZD1" s="21"/>
-      <c r="ZE1" s="21"/>
-      <c r="ZF1" s="21"/>
-      <c r="ZG1" s="21"/>
-      <c r="ZH1" s="21"/>
-      <c r="ZI1" s="21"/>
-      <c r="ZJ1" s="21"/>
-      <c r="ZK1" s="21"/>
-      <c r="ZL1" s="21"/>
-      <c r="ZM1" s="21"/>
-      <c r="ZN1" s="21"/>
-      <c r="ZO1" s="21"/>
-      <c r="ZP1" s="21"/>
-      <c r="ZQ1" s="21"/>
-      <c r="ZR1" s="21"/>
-      <c r="ZS1" s="21"/>
-      <c r="ZT1" s="21"/>
-      <c r="ZU1" s="21"/>
-      <c r="ZV1" s="21"/>
-      <c r="ZW1" s="21"/>
-      <c r="ZX1" s="21"/>
-      <c r="ZY1" s="21"/>
-      <c r="ZZ1" s="21"/>
-      <c r="AAA1" s="21"/>
-      <c r="AAB1" s="21"/>
-      <c r="AAC1" s="21"/>
-      <c r="AAD1" s="21"/>
-      <c r="AAE1" s="21"/>
-      <c r="AAF1" s="21"/>
-      <c r="AAG1" s="21"/>
-      <c r="AAH1" s="21"/>
-      <c r="AAI1" s="21"/>
-      <c r="AAJ1" s="21"/>
-      <c r="AAK1" s="21"/>
-      <c r="AAL1" s="21"/>
-      <c r="AAM1" s="21"/>
-      <c r="AAN1" s="21"/>
-      <c r="AAO1" s="21"/>
-      <c r="AAP1" s="21"/>
-      <c r="AAQ1" s="21"/>
-      <c r="AAR1" s="21"/>
-      <c r="AAS1" s="21"/>
-      <c r="AAT1" s="21"/>
-      <c r="AAU1" s="21"/>
-      <c r="AAV1" s="21"/>
-      <c r="AAW1" s="21"/>
-      <c r="AAX1" s="21"/>
-      <c r="AAY1" s="21"/>
-      <c r="AAZ1" s="21"/>
-      <c r="ABA1" s="21"/>
-      <c r="ABB1" s="21"/>
-      <c r="ABC1" s="21"/>
-      <c r="ABD1" s="21"/>
-      <c r="ABE1" s="21"/>
-      <c r="ABF1" s="21"/>
-      <c r="ABG1" s="21"/>
-      <c r="ABH1" s="21"/>
-      <c r="ABI1" s="21"/>
-      <c r="ABJ1" s="21"/>
-      <c r="ABK1" s="21"/>
-      <c r="ABL1" s="21"/>
-      <c r="ABM1" s="21"/>
-      <c r="ABN1" s="21"/>
-      <c r="ABO1" s="21"/>
-      <c r="ABP1" s="21"/>
-      <c r="ABQ1" s="21"/>
-      <c r="ABR1" s="21"/>
-      <c r="ABS1" s="21"/>
-      <c r="ABT1" s="21"/>
-      <c r="ABU1" s="21"/>
-      <c r="ABV1" s="21"/>
-      <c r="ABW1" s="21"/>
-      <c r="ABX1" s="21"/>
-      <c r="ABY1" s="21"/>
-      <c r="ABZ1" s="21"/>
-      <c r="ACA1" s="21"/>
-      <c r="ACB1" s="21"/>
-      <c r="ACC1" s="21"/>
-      <c r="ACD1" s="21"/>
-      <c r="ACE1" s="21"/>
-      <c r="ACF1" s="21"/>
-      <c r="ACG1" s="21"/>
-      <c r="ACH1" s="21"/>
-      <c r="ACI1" s="21"/>
-      <c r="ACJ1" s="21"/>
-      <c r="ACK1" s="21"/>
-      <c r="ACL1" s="21"/>
-      <c r="ACM1" s="21"/>
-      <c r="ACN1" s="21"/>
-      <c r="ACO1" s="21"/>
-      <c r="ACP1" s="21"/>
-      <c r="ACQ1" s="21"/>
-      <c r="ACR1" s="21"/>
-      <c r="ACS1" s="21"/>
-      <c r="ACT1" s="21"/>
-      <c r="ACU1" s="21"/>
-      <c r="ACV1" s="21"/>
-      <c r="ACW1" s="21"/>
-      <c r="ACX1" s="21"/>
-      <c r="ACY1" s="21"/>
-      <c r="ACZ1" s="21"/>
-      <c r="ADA1" s="21"/>
-      <c r="ADB1" s="21"/>
-      <c r="ADC1" s="21"/>
-      <c r="ADD1" s="21"/>
-      <c r="ADE1" s="21"/>
-      <c r="ADF1" s="21"/>
-      <c r="ADG1" s="21"/>
-      <c r="ADH1" s="21"/>
-      <c r="ADI1" s="21"/>
-      <c r="ADJ1" s="21"/>
-      <c r="ADK1" s="21"/>
-      <c r="ADL1" s="21"/>
-      <c r="ADM1" s="21"/>
-      <c r="ADN1" s="21"/>
-      <c r="ADO1" s="21"/>
-      <c r="ADP1" s="21"/>
-      <c r="ADQ1" s="21"/>
-      <c r="ADR1" s="21"/>
-      <c r="ADS1" s="21"/>
-      <c r="ADT1" s="21"/>
-      <c r="ADU1" s="21"/>
-      <c r="ADV1" s="21"/>
-      <c r="ADW1" s="21"/>
-      <c r="ADX1" s="21"/>
-      <c r="ADY1" s="21"/>
-      <c r="ADZ1" s="21"/>
-      <c r="AEA1" s="21"/>
-      <c r="AEB1" s="21"/>
-      <c r="AEC1" s="21"/>
-      <c r="AED1" s="21"/>
-      <c r="AEE1" s="21"/>
-      <c r="AEF1" s="21"/>
-      <c r="AEG1" s="21"/>
-      <c r="AEH1" s="21"/>
-      <c r="AEI1" s="21"/>
-      <c r="AEJ1" s="21"/>
-      <c r="AEK1" s="21"/>
-      <c r="AEL1" s="21"/>
-      <c r="AEM1" s="21"/>
-      <c r="AEN1" s="21"/>
-      <c r="AEO1" s="21"/>
-      <c r="AEP1" s="21"/>
-      <c r="AEQ1" s="21"/>
-      <c r="AER1" s="21"/>
-      <c r="AES1" s="21"/>
-      <c r="AET1" s="21"/>
-      <c r="AEU1" s="21"/>
-      <c r="AEV1" s="21"/>
-      <c r="AEW1" s="21"/>
-      <c r="AEX1" s="21"/>
-      <c r="AEY1" s="21"/>
-      <c r="AEZ1" s="21"/>
-      <c r="AFA1" s="21"/>
-      <c r="AFB1" s="21"/>
-      <c r="AFC1" s="21"/>
-      <c r="AFD1" s="21"/>
-      <c r="AFE1" s="21"/>
-      <c r="AFF1" s="21"/>
-      <c r="AFG1" s="21"/>
-      <c r="AFH1" s="21"/>
-      <c r="AFI1" s="21"/>
-      <c r="AFJ1" s="21"/>
-      <c r="AFK1" s="21"/>
-      <c r="AFL1" s="21"/>
-      <c r="AFM1" s="21"/>
-      <c r="AFN1" s="21"/>
-      <c r="AFO1" s="21"/>
-      <c r="AFP1" s="21"/>
-      <c r="AFQ1" s="21"/>
-      <c r="AFR1" s="21"/>
-      <c r="AFS1" s="21"/>
-      <c r="AFT1" s="21"/>
-      <c r="AFU1" s="21"/>
-      <c r="AFV1" s="21"/>
-      <c r="AFW1" s="21"/>
-      <c r="AFX1" s="21"/>
-      <c r="AFY1" s="21"/>
-      <c r="AFZ1" s="21"/>
-      <c r="AGA1" s="21"/>
-      <c r="AGB1" s="21"/>
-      <c r="AGC1" s="21"/>
-      <c r="AGD1" s="21"/>
-      <c r="AGE1" s="21"/>
-      <c r="AGF1" s="21"/>
-      <c r="AGG1" s="21"/>
-      <c r="AGH1" s="21"/>
-      <c r="AGI1" s="21"/>
-      <c r="AGJ1" s="21"/>
-      <c r="AGK1" s="21"/>
-      <c r="AGL1" s="21"/>
-      <c r="AGM1" s="21"/>
-      <c r="AGN1" s="21"/>
-      <c r="AGO1" s="21"/>
-      <c r="AGP1" s="21"/>
-      <c r="AGQ1" s="21"/>
-      <c r="AGR1" s="21"/>
-      <c r="AGS1" s="21"/>
-      <c r="AGT1" s="21"/>
-      <c r="AGU1" s="21"/>
-      <c r="AGV1" s="21"/>
-      <c r="AGW1" s="21"/>
-      <c r="AGX1" s="21"/>
-      <c r="AGY1" s="21"/>
-      <c r="AGZ1" s="21"/>
-      <c r="AHA1" s="21"/>
-      <c r="AHB1" s="21"/>
-      <c r="AHC1" s="21"/>
-      <c r="AHD1" s="21"/>
-      <c r="AHE1" s="21"/>
-      <c r="AHF1" s="21"/>
-      <c r="AHG1" s="21"/>
-      <c r="AHH1" s="21"/>
-      <c r="AHI1" s="21"/>
-      <c r="AHJ1" s="21"/>
-      <c r="AHK1" s="21"/>
-      <c r="AHL1" s="21"/>
-      <c r="AHM1" s="21"/>
-      <c r="AHN1" s="21"/>
-      <c r="AHO1" s="21"/>
-      <c r="AHP1" s="21"/>
-      <c r="AHQ1" s="21"/>
-      <c r="AHR1" s="21"/>
-      <c r="AHS1" s="21"/>
-      <c r="AHT1" s="21"/>
-      <c r="AHU1" s="21"/>
-      <c r="AHV1" s="21"/>
-      <c r="AHW1" s="21"/>
-      <c r="AHX1" s="21"/>
-      <c r="AHY1" s="21"/>
-      <c r="AHZ1" s="21"/>
-      <c r="AIA1" s="21"/>
-      <c r="AIB1" s="21"/>
-      <c r="AIC1" s="21"/>
-      <c r="AID1" s="21"/>
-      <c r="AIE1" s="21"/>
-      <c r="AIF1" s="21"/>
-      <c r="AIG1" s="21"/>
-      <c r="AIH1" s="21"/>
-      <c r="AII1" s="21"/>
-      <c r="AIJ1" s="21"/>
-      <c r="AIK1" s="21"/>
-      <c r="AIL1" s="21"/>
-      <c r="AIM1" s="21"/>
-      <c r="AIN1" s="21"/>
-      <c r="AIO1" s="21"/>
-      <c r="AIP1" s="21"/>
-      <c r="AIQ1" s="21"/>
-      <c r="AIR1" s="21"/>
-      <c r="AIS1" s="21"/>
-      <c r="AIT1" s="21"/>
-      <c r="AIU1" s="21"/>
-      <c r="AIV1" s="21"/>
-      <c r="AIW1" s="21"/>
-      <c r="AIX1" s="21"/>
-      <c r="AIY1" s="21"/>
-      <c r="AIZ1" s="21"/>
-      <c r="AJA1" s="21"/>
-      <c r="AJB1" s="21"/>
-      <c r="AJC1" s="21"/>
-      <c r="AJD1" s="21"/>
-      <c r="AJE1" s="21"/>
-      <c r="AJF1" s="21"/>
-      <c r="AJG1" s="21"/>
-      <c r="AJH1" s="21"/>
-      <c r="AJI1" s="21"/>
-      <c r="AJJ1" s="21"/>
-      <c r="AJK1" s="21"/>
-      <c r="AJL1" s="21"/>
-      <c r="AJM1" s="21"/>
-      <c r="AJN1" s="21"/>
-      <c r="AJO1" s="21"/>
-      <c r="AJP1" s="21"/>
-      <c r="AJQ1" s="21"/>
-      <c r="AJR1" s="21"/>
-      <c r="AJS1" s="21"/>
-      <c r="AJT1" s="21"/>
-      <c r="AJU1" s="21"/>
-      <c r="AJV1" s="21"/>
-      <c r="AJW1" s="21"/>
-      <c r="AJX1" s="21"/>
-      <c r="AJY1" s="21"/>
-      <c r="AJZ1" s="21"/>
-      <c r="AKA1" s="21"/>
-      <c r="AKB1" s="21"/>
-      <c r="AKC1" s="21"/>
-      <c r="AKD1" s="21"/>
-      <c r="AKE1" s="21"/>
-      <c r="AKF1" s="21"/>
-      <c r="AKG1" s="21"/>
-      <c r="AKH1" s="21"/>
-      <c r="AKI1" s="21"/>
-      <c r="AKJ1" s="21"/>
-      <c r="AKK1" s="21"/>
-      <c r="AKL1" s="21"/>
-      <c r="AKM1" s="21"/>
-      <c r="AKN1" s="21"/>
-      <c r="AKO1" s="21"/>
-      <c r="AKP1" s="21"/>
-      <c r="AKQ1" s="21"/>
-      <c r="AKR1" s="21"/>
-      <c r="AKS1" s="21"/>
-      <c r="AKT1" s="21"/>
-      <c r="AKU1" s="21"/>
-      <c r="AKV1" s="21"/>
-      <c r="AKW1" s="21"/>
-      <c r="AKX1" s="21"/>
-      <c r="AKY1" s="21"/>
-      <c r="AKZ1" s="21"/>
-      <c r="ALA1" s="21"/>
-      <c r="ALB1" s="21"/>
-      <c r="ALC1" s="21"/>
-      <c r="ALD1" s="21"/>
-      <c r="ALE1" s="21"/>
-      <c r="ALF1" s="21"/>
-      <c r="ALG1" s="21"/>
-      <c r="ALH1" s="21"/>
-      <c r="ALI1" s="21"/>
-      <c r="ALJ1" s="21"/>
-      <c r="ALK1" s="21"/>
-      <c r="ALL1" s="21"/>
-      <c r="ALM1" s="21"/>
-      <c r="ALN1" s="21"/>
-      <c r="ALO1" s="21"/>
-      <c r="ALP1" s="21"/>
-      <c r="ALQ1" s="21"/>
-      <c r="ALR1" s="21"/>
-      <c r="ALS1" s="21"/>
-      <c r="ALT1" s="21"/>
-      <c r="ALU1" s="21"/>
-      <c r="ALV1" s="21"/>
-      <c r="ALW1" s="21"/>
-      <c r="ALX1" s="21"/>
-      <c r="ALY1" s="21"/>
-      <c r="ALZ1" s="21"/>
-      <c r="AMA1" s="21"/>
-      <c r="AMB1" s="21"/>
-      <c r="AMC1" s="21"/>
-      <c r="AMD1" s="21"/>
-      <c r="AME1" s="21"/>
-      <c r="AMF1" s="21"/>
-      <c r="AMG1" s="21"/>
-      <c r="AMH1" s="21"/>
-      <c r="AMI1" s="21"/>
-      <c r="AMJ1" s="21"/>
-      <c r="AMK1" s="21"/>
-      <c r="AML1" s="21"/>
-      <c r="AMM1" s="21"/>
-      <c r="AMN1" s="21"/>
-      <c r="AMO1" s="21"/>
-      <c r="AMP1" s="21"/>
-      <c r="AMQ1"/>
-      <c r="AMR1"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="20"/>
+      <c r="FN1" s="20"/>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="20"/>
+      <c r="GL1" s="20"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="20"/>
+      <c r="HJ1" s="20"/>
+      <c r="HK1" s="20"/>
+      <c r="HL1" s="20"/>
+      <c r="HM1" s="20"/>
+      <c r="HN1" s="20"/>
+      <c r="HO1" s="20"/>
+      <c r="HP1" s="20"/>
+      <c r="HQ1" s="20"/>
+      <c r="HR1" s="20"/>
+      <c r="HS1" s="20"/>
+      <c r="HT1" s="20"/>
+      <c r="HU1" s="20"/>
+      <c r="HV1" s="20"/>
+      <c r="HW1" s="20"/>
+      <c r="HX1" s="20"/>
+      <c r="HY1" s="20"/>
+      <c r="HZ1" s="20"/>
+      <c r="IA1" s="20"/>
+      <c r="IB1" s="20"/>
+      <c r="IC1" s="20"/>
+      <c r="ID1" s="20"/>
+      <c r="IE1" s="20"/>
+      <c r="IF1" s="20"/>
+      <c r="IG1" s="20"/>
+      <c r="IH1" s="20"/>
+      <c r="II1" s="20"/>
+      <c r="IJ1" s="20"/>
+      <c r="IK1" s="20"/>
+      <c r="IL1" s="20"/>
+      <c r="IM1" s="20"/>
+      <c r="IN1" s="20"/>
+      <c r="IO1" s="20"/>
+      <c r="IP1" s="20"/>
+      <c r="IQ1" s="20"/>
+      <c r="IR1" s="20"/>
+      <c r="IS1" s="20"/>
+      <c r="IT1" s="20"/>
+      <c r="IU1" s="20"/>
+      <c r="IV1" s="20"/>
+      <c r="IW1" s="20"/>
+      <c r="IX1" s="20"/>
+      <c r="IY1" s="20"/>
+      <c r="IZ1" s="20"/>
+      <c r="JA1" s="20"/>
+      <c r="JB1" s="20"/>
+      <c r="JC1" s="20"/>
+      <c r="JD1" s="20"/>
+      <c r="JE1" s="20"/>
+      <c r="JF1" s="20"/>
+      <c r="JG1" s="20"/>
+      <c r="JH1" s="20"/>
+      <c r="JI1" s="20"/>
+      <c r="JJ1" s="20"/>
+      <c r="JK1" s="20"/>
+      <c r="JL1" s="20"/>
+      <c r="JM1" s="20"/>
+      <c r="JN1" s="20"/>
+      <c r="JO1" s="20"/>
+      <c r="JP1" s="20"/>
+      <c r="JQ1" s="20"/>
+      <c r="JR1" s="20"/>
+      <c r="JS1" s="20"/>
+      <c r="JT1" s="20"/>
+      <c r="JU1" s="20"/>
+      <c r="JV1" s="20"/>
+      <c r="JW1" s="20"/>
+      <c r="JX1" s="20"/>
+      <c r="JY1" s="20"/>
+      <c r="JZ1" s="20"/>
+      <c r="KA1" s="20"/>
+      <c r="KB1" s="20"/>
+      <c r="KC1" s="20"/>
+      <c r="KD1" s="20"/>
+      <c r="KE1" s="20"/>
+      <c r="KF1" s="20"/>
+      <c r="KG1" s="20"/>
+      <c r="KH1" s="20"/>
+      <c r="KI1" s="20"/>
+      <c r="KJ1" s="20"/>
+      <c r="KK1" s="20"/>
+      <c r="KL1" s="20"/>
+      <c r="KM1" s="20"/>
+      <c r="KN1" s="20"/>
+      <c r="KO1" s="20"/>
+      <c r="KP1" s="20"/>
+      <c r="KQ1" s="20"/>
+      <c r="KR1" s="20"/>
+      <c r="KS1" s="20"/>
+      <c r="KT1" s="20"/>
+      <c r="KU1" s="20"/>
+      <c r="KV1" s="20"/>
+      <c r="KW1" s="20"/>
+      <c r="KX1" s="20"/>
+      <c r="KY1" s="20"/>
+      <c r="KZ1" s="20"/>
+      <c r="LA1" s="20"/>
+      <c r="LB1" s="20"/>
+      <c r="LC1" s="20"/>
+      <c r="LD1" s="20"/>
+      <c r="LE1" s="20"/>
+      <c r="LF1" s="20"/>
+      <c r="LG1" s="20"/>
+      <c r="LH1" s="20"/>
+      <c r="LI1" s="20"/>
+      <c r="LJ1" s="20"/>
+      <c r="LK1" s="20"/>
+      <c r="LL1" s="20"/>
+      <c r="LM1" s="20"/>
+      <c r="LN1" s="20"/>
+      <c r="LO1" s="20"/>
+      <c r="LP1" s="20"/>
+      <c r="LQ1" s="20"/>
+      <c r="LR1" s="20"/>
+      <c r="LS1" s="20"/>
+      <c r="LT1" s="20"/>
+      <c r="LU1" s="20"/>
+      <c r="LV1" s="20"/>
+      <c r="LW1" s="20"/>
+      <c r="LX1" s="20"/>
+      <c r="LY1" s="20"/>
+      <c r="LZ1" s="20"/>
+      <c r="MA1" s="20"/>
+      <c r="MB1" s="20"/>
+      <c r="MC1" s="20"/>
+      <c r="MD1" s="20"/>
+      <c r="ME1" s="20"/>
+      <c r="MF1" s="20"/>
+      <c r="MG1" s="20"/>
+      <c r="MH1" s="20"/>
+      <c r="MI1" s="20"/>
+      <c r="MJ1" s="20"/>
+      <c r="MK1" s="20"/>
+      <c r="ML1" s="20"/>
+      <c r="MM1" s="20"/>
+      <c r="MN1" s="20"/>
+      <c r="MO1" s="20"/>
+      <c r="MP1" s="20"/>
+      <c r="MQ1" s="20"/>
+      <c r="MR1" s="20"/>
+      <c r="MS1" s="20"/>
+      <c r="MT1" s="20"/>
+      <c r="MU1" s="20"/>
+      <c r="MV1" s="20"/>
+      <c r="MW1" s="20"/>
+      <c r="MX1" s="20"/>
+      <c r="MY1" s="20"/>
+      <c r="MZ1" s="20"/>
+      <c r="NA1" s="20"/>
+      <c r="NB1" s="20"/>
+      <c r="NC1" s="20"/>
+      <c r="ND1" s="20"/>
+      <c r="NE1" s="20"/>
+      <c r="NF1" s="20"/>
+      <c r="NG1" s="20"/>
+      <c r="NH1" s="20"/>
+      <c r="NI1" s="20"/>
+      <c r="NJ1" s="20"/>
+      <c r="NK1" s="20"/>
+      <c r="NL1" s="20"/>
+      <c r="NM1" s="20"/>
+      <c r="NN1" s="20"/>
+      <c r="NO1" s="20"/>
+      <c r="NP1" s="20"/>
+      <c r="NQ1" s="20"/>
+      <c r="NR1" s="20"/>
+      <c r="NS1" s="20"/>
+      <c r="NT1" s="20"/>
+      <c r="NU1" s="20"/>
+      <c r="NV1" s="20"/>
+      <c r="NW1" s="20"/>
+      <c r="NX1" s="20"/>
+      <c r="NY1" s="20"/>
+      <c r="NZ1" s="20"/>
+      <c r="OA1" s="20"/>
+      <c r="OB1" s="20"/>
+      <c r="OC1" s="20"/>
+      <c r="OD1" s="20"/>
+      <c r="OE1" s="20"/>
+      <c r="OF1" s="20"/>
+      <c r="OG1" s="20"/>
+      <c r="OH1" s="20"/>
+      <c r="OI1" s="20"/>
+      <c r="OJ1" s="20"/>
+      <c r="OK1" s="20"/>
+      <c r="OL1" s="20"/>
+      <c r="OM1" s="20"/>
+      <c r="ON1" s="20"/>
+      <c r="OO1" s="20"/>
+      <c r="OP1" s="20"/>
+      <c r="OQ1" s="20"/>
+      <c r="OR1" s="20"/>
+      <c r="OS1" s="20"/>
+      <c r="OT1" s="20"/>
+      <c r="OU1" s="20"/>
+      <c r="OV1" s="20"/>
+      <c r="OW1" s="20"/>
+      <c r="OX1" s="20"/>
+      <c r="OY1" s="20"/>
+      <c r="OZ1" s="20"/>
+      <c r="PA1" s="20"/>
+      <c r="PB1" s="20"/>
+      <c r="PC1" s="20"/>
+      <c r="PD1" s="20"/>
+      <c r="PE1" s="20"/>
+      <c r="PF1" s="20"/>
+      <c r="PG1" s="20"/>
+      <c r="PH1" s="20"/>
+      <c r="PI1" s="20"/>
+      <c r="PJ1" s="20"/>
+      <c r="PK1" s="20"/>
+      <c r="PL1" s="20"/>
+      <c r="PM1" s="20"/>
+      <c r="PN1" s="20"/>
+      <c r="PO1" s="20"/>
+      <c r="PP1" s="20"/>
+      <c r="PQ1" s="20"/>
+      <c r="PR1" s="20"/>
+      <c r="PS1" s="20"/>
+      <c r="PT1" s="20"/>
+      <c r="PU1" s="20"/>
+      <c r="PV1" s="20"/>
+      <c r="PW1" s="20"/>
+      <c r="PX1" s="20"/>
+      <c r="PY1" s="20"/>
+      <c r="PZ1" s="20"/>
+      <c r="QA1" s="20"/>
+      <c r="QB1" s="20"/>
+      <c r="QC1" s="20"/>
+      <c r="QD1" s="20"/>
+      <c r="QE1" s="20"/>
+      <c r="QF1" s="20"/>
+      <c r="QG1" s="20"/>
+      <c r="QH1" s="20"/>
+      <c r="QI1" s="20"/>
+      <c r="QJ1" s="20"/>
+      <c r="QK1" s="20"/>
+      <c r="QL1" s="20"/>
+      <c r="QM1" s="20"/>
+      <c r="QN1" s="20"/>
+      <c r="QO1" s="20"/>
+      <c r="QP1" s="20"/>
+      <c r="QQ1" s="20"/>
+      <c r="QR1" s="20"/>
+      <c r="QS1" s="20"/>
+      <c r="QT1" s="20"/>
+      <c r="QU1" s="20"/>
+      <c r="QV1" s="20"/>
+      <c r="QW1" s="20"/>
+      <c r="QX1" s="20"/>
+      <c r="QY1" s="20"/>
+      <c r="QZ1" s="20"/>
+      <c r="RA1" s="20"/>
+      <c r="RB1" s="20"/>
+      <c r="RC1" s="20"/>
+      <c r="RD1" s="20"/>
+      <c r="RE1" s="20"/>
+      <c r="RF1" s="20"/>
+      <c r="RG1" s="20"/>
+      <c r="RH1" s="20"/>
+      <c r="RI1" s="20"/>
+      <c r="RJ1" s="20"/>
+      <c r="RK1" s="20"/>
+      <c r="RL1" s="20"/>
+      <c r="RM1" s="20"/>
+      <c r="RN1" s="20"/>
+      <c r="RO1" s="20"/>
+      <c r="RP1" s="20"/>
+      <c r="RQ1" s="20"/>
+      <c r="RR1" s="20"/>
+      <c r="RS1" s="20"/>
+      <c r="RT1" s="20"/>
+      <c r="RU1" s="20"/>
+      <c r="RV1" s="20"/>
+      <c r="RW1" s="20"/>
+      <c r="RX1" s="20"/>
+      <c r="RY1" s="20"/>
+      <c r="RZ1" s="20"/>
+      <c r="SA1" s="20"/>
+      <c r="SB1" s="20"/>
+      <c r="SC1" s="20"/>
+      <c r="SD1" s="20"/>
+      <c r="SE1" s="20"/>
+      <c r="SF1" s="20"/>
+      <c r="SG1" s="20"/>
+      <c r="SH1" s="20"/>
+      <c r="SI1" s="20"/>
+      <c r="SJ1" s="20"/>
+      <c r="SK1" s="20"/>
+      <c r="SL1" s="20"/>
+      <c r="SM1" s="20"/>
+      <c r="SN1" s="20"/>
+      <c r="SO1" s="20"/>
+      <c r="SP1" s="20"/>
+      <c r="SQ1" s="20"/>
+      <c r="SR1" s="20"/>
+      <c r="SS1" s="20"/>
+      <c r="ST1" s="20"/>
+      <c r="SU1" s="20"/>
+      <c r="SV1" s="20"/>
+      <c r="SW1" s="20"/>
+      <c r="SX1" s="20"/>
+      <c r="SY1" s="20"/>
+      <c r="SZ1" s="20"/>
+      <c r="TA1" s="20"/>
+      <c r="TB1" s="20"/>
+      <c r="TC1" s="20"/>
+      <c r="TD1" s="20"/>
+      <c r="TE1" s="20"/>
+      <c r="TF1" s="20"/>
+      <c r="TG1" s="20"/>
+      <c r="TH1" s="20"/>
+      <c r="TI1" s="20"/>
+      <c r="TJ1" s="20"/>
+      <c r="TK1" s="20"/>
+      <c r="TL1" s="20"/>
+      <c r="TM1" s="20"/>
+      <c r="TN1" s="20"/>
+      <c r="TO1" s="20"/>
+      <c r="TP1" s="20"/>
+      <c r="TQ1" s="20"/>
+      <c r="TR1" s="20"/>
+      <c r="TS1" s="20"/>
+      <c r="TT1" s="20"/>
+      <c r="TU1" s="20"/>
+      <c r="TV1" s="20"/>
+      <c r="TW1" s="20"/>
+      <c r="TX1" s="20"/>
+      <c r="TY1" s="20"/>
+      <c r="TZ1" s="20"/>
+      <c r="UA1" s="20"/>
+      <c r="UB1" s="20"/>
+      <c r="UC1" s="20"/>
+      <c r="UD1" s="20"/>
+      <c r="UE1" s="20"/>
+      <c r="UF1" s="20"/>
+      <c r="UG1" s="20"/>
+      <c r="UH1" s="20"/>
+      <c r="UI1" s="20"/>
+      <c r="UJ1" s="20"/>
+      <c r="UK1" s="20"/>
+      <c r="UL1" s="20"/>
+      <c r="UM1" s="20"/>
+      <c r="UN1" s="20"/>
+      <c r="UO1" s="20"/>
+      <c r="UP1" s="20"/>
+      <c r="UQ1" s="20"/>
+      <c r="UR1" s="20"/>
+      <c r="US1" s="20"/>
+      <c r="UT1" s="20"/>
+      <c r="UU1" s="20"/>
+      <c r="UV1" s="20"/>
+      <c r="UW1" s="20"/>
+      <c r="UX1" s="20"/>
+      <c r="UY1" s="20"/>
+      <c r="UZ1" s="20"/>
+      <c r="VA1" s="20"/>
+      <c r="VB1" s="20"/>
+      <c r="VC1" s="20"/>
+      <c r="VD1" s="20"/>
+      <c r="VE1" s="20"/>
+      <c r="VF1" s="20"/>
+      <c r="VG1" s="20"/>
+      <c r="VH1" s="20"/>
+      <c r="VI1" s="20"/>
+      <c r="VJ1" s="20"/>
+      <c r="VK1" s="20"/>
+      <c r="VL1" s="20"/>
+      <c r="VM1" s="20"/>
+      <c r="VN1" s="20"/>
+      <c r="VO1" s="20"/>
+      <c r="VP1" s="20"/>
+      <c r="VQ1" s="20"/>
+      <c r="VR1" s="20"/>
+      <c r="VS1" s="20"/>
+      <c r="VT1" s="20"/>
+      <c r="VU1" s="20"/>
+      <c r="VV1" s="20"/>
+      <c r="VW1" s="20"/>
+      <c r="VX1" s="20"/>
+      <c r="VY1" s="20"/>
+      <c r="VZ1" s="20"/>
+      <c r="WA1" s="20"/>
+      <c r="WB1" s="20"/>
+      <c r="WC1" s="20"/>
+      <c r="WD1" s="20"/>
+      <c r="WE1" s="20"/>
+      <c r="WF1" s="20"/>
+      <c r="WG1" s="20"/>
+      <c r="WH1" s="20"/>
+      <c r="WI1" s="20"/>
+      <c r="WJ1" s="20"/>
+      <c r="WK1" s="20"/>
+      <c r="WL1" s="20"/>
+      <c r="WM1" s="20"/>
+      <c r="WN1" s="20"/>
+      <c r="WO1" s="20"/>
+      <c r="WP1" s="20"/>
+      <c r="WQ1" s="20"/>
+      <c r="WR1" s="20"/>
+      <c r="WS1" s="20"/>
+      <c r="WT1" s="20"/>
+      <c r="WU1" s="20"/>
+      <c r="WV1" s="20"/>
+      <c r="WW1" s="20"/>
+      <c r="WX1" s="20"/>
+      <c r="WY1" s="20"/>
+      <c r="WZ1" s="20"/>
+      <c r="XA1" s="20"/>
+      <c r="XB1" s="20"/>
+      <c r="XC1" s="20"/>
+      <c r="XD1" s="20"/>
+      <c r="XE1" s="20"/>
+      <c r="XF1" s="20"/>
+      <c r="XG1" s="20"/>
+      <c r="XH1" s="20"/>
+      <c r="XI1" s="20"/>
+      <c r="XJ1" s="20"/>
+      <c r="XK1" s="20"/>
+      <c r="XL1" s="20"/>
+      <c r="XM1" s="20"/>
+      <c r="XN1" s="20"/>
+      <c r="XO1" s="20"/>
+      <c r="XP1" s="20"/>
+      <c r="XQ1" s="20"/>
+      <c r="XR1" s="20"/>
+      <c r="XS1" s="20"/>
+      <c r="XT1" s="20"/>
+      <c r="XU1" s="20"/>
+      <c r="XV1" s="20"/>
+      <c r="XW1" s="20"/>
+      <c r="XX1" s="20"/>
+      <c r="XY1" s="20"/>
+      <c r="XZ1" s="20"/>
+      <c r="YA1" s="20"/>
+      <c r="YB1" s="20"/>
+      <c r="YC1" s="20"/>
+      <c r="YD1" s="20"/>
+      <c r="YE1" s="20"/>
+      <c r="YF1" s="20"/>
+      <c r="YG1" s="20"/>
+      <c r="YH1" s="20"/>
+      <c r="YI1" s="20"/>
+      <c r="YJ1" s="20"/>
+      <c r="YK1" s="20"/>
+      <c r="YL1" s="20"/>
+      <c r="YM1" s="20"/>
+      <c r="YN1" s="20"/>
+      <c r="YO1" s="20"/>
+      <c r="YP1" s="20"/>
+      <c r="YQ1" s="20"/>
+      <c r="YR1" s="20"/>
+      <c r="YS1" s="20"/>
+      <c r="YT1" s="20"/>
+      <c r="YU1" s="20"/>
+      <c r="YV1" s="20"/>
+      <c r="YW1" s="20"/>
+      <c r="YX1" s="20"/>
+      <c r="YY1" s="20"/>
+      <c r="YZ1" s="20"/>
+      <c r="ZA1" s="20"/>
+      <c r="ZB1" s="20"/>
+      <c r="ZC1" s="20"/>
+      <c r="ZD1" s="20"/>
+      <c r="ZE1" s="20"/>
+      <c r="ZF1" s="20"/>
+      <c r="ZG1" s="20"/>
+      <c r="ZH1" s="20"/>
+      <c r="ZI1" s="20"/>
+      <c r="ZJ1" s="20"/>
+      <c r="ZK1" s="20"/>
+      <c r="ZL1" s="20"/>
+      <c r="ZM1" s="20"/>
+      <c r="ZN1" s="20"/>
+      <c r="ZO1" s="20"/>
+      <c r="ZP1" s="20"/>
+      <c r="ZQ1" s="20"/>
+      <c r="ZR1" s="20"/>
+      <c r="ZS1" s="20"/>
+      <c r="ZT1" s="20"/>
+      <c r="ZU1" s="20"/>
+      <c r="ZV1" s="20"/>
+      <c r="ZW1" s="20"/>
+      <c r="ZX1" s="20"/>
+      <c r="ZY1" s="20"/>
+      <c r="ZZ1" s="20"/>
+      <c r="AAA1" s="20"/>
+      <c r="AAB1" s="20"/>
+      <c r="AAC1" s="20"/>
+      <c r="AAD1" s="20"/>
+      <c r="AAE1" s="20"/>
+      <c r="AAF1" s="20"/>
+      <c r="AAG1" s="20"/>
+      <c r="AAH1" s="20"/>
+      <c r="AAI1" s="20"/>
+      <c r="AAJ1" s="20"/>
+      <c r="AAK1" s="20"/>
+      <c r="AAL1" s="20"/>
+      <c r="AAM1" s="20"/>
+      <c r="AAN1" s="20"/>
+      <c r="AAO1" s="20"/>
+      <c r="AAP1" s="20"/>
+      <c r="AAQ1" s="20"/>
+      <c r="AAR1" s="20"/>
+      <c r="AAS1" s="20"/>
+      <c r="AAT1" s="20"/>
+      <c r="AAU1" s="20"/>
+      <c r="AAV1" s="20"/>
+      <c r="AAW1" s="20"/>
+      <c r="AAX1" s="20"/>
+      <c r="AAY1" s="20"/>
+      <c r="AAZ1" s="20"/>
+      <c r="ABA1" s="20"/>
+      <c r="ABB1" s="20"/>
+      <c r="ABC1" s="20"/>
+      <c r="ABD1" s="20"/>
+      <c r="ABE1" s="20"/>
+      <c r="ABF1" s="20"/>
+      <c r="ABG1" s="20"/>
+      <c r="ABH1" s="20"/>
+      <c r="ABI1" s="20"/>
+      <c r="ABJ1" s="20"/>
+      <c r="ABK1" s="20"/>
+      <c r="ABL1" s="20"/>
+      <c r="ABM1" s="20"/>
+      <c r="ABN1" s="20"/>
+      <c r="ABO1" s="20"/>
+      <c r="ABP1" s="20"/>
+      <c r="ABQ1" s="20"/>
+      <c r="ABR1" s="20"/>
+      <c r="ABS1" s="20"/>
+      <c r="ABT1" s="20"/>
+      <c r="ABU1" s="20"/>
+      <c r="ABV1" s="20"/>
+      <c r="ABW1" s="20"/>
+      <c r="ABX1" s="20"/>
+      <c r="ABY1" s="20"/>
+      <c r="ABZ1" s="20"/>
+      <c r="ACA1" s="20"/>
+      <c r="ACB1" s="20"/>
+      <c r="ACC1" s="20"/>
+      <c r="ACD1" s="20"/>
+      <c r="ACE1" s="20"/>
+      <c r="ACF1" s="20"/>
+      <c r="ACG1" s="20"/>
+      <c r="ACH1" s="20"/>
+      <c r="ACI1" s="20"/>
+      <c r="ACJ1" s="20"/>
+      <c r="ACK1" s="20"/>
+      <c r="ACL1" s="20"/>
+      <c r="ACM1" s="20"/>
+      <c r="ACN1" s="20"/>
+      <c r="ACO1" s="20"/>
+      <c r="ACP1" s="20"/>
+      <c r="ACQ1" s="20"/>
+      <c r="ACR1" s="20"/>
+      <c r="ACS1" s="20"/>
+      <c r="ACT1" s="20"/>
+      <c r="ACU1" s="20"/>
+      <c r="ACV1" s="20"/>
+      <c r="ACW1" s="20"/>
+      <c r="ACX1" s="20"/>
+      <c r="ACY1" s="20"/>
+      <c r="ACZ1" s="20"/>
+      <c r="ADA1" s="20"/>
+      <c r="ADB1" s="20"/>
+      <c r="ADC1" s="20"/>
+      <c r="ADD1" s="20"/>
+      <c r="ADE1" s="20"/>
+      <c r="ADF1" s="20"/>
+      <c r="ADG1" s="20"/>
+      <c r="ADH1" s="20"/>
+      <c r="ADI1" s="20"/>
+      <c r="ADJ1" s="20"/>
+      <c r="ADK1" s="20"/>
+      <c r="ADL1" s="20"/>
+      <c r="ADM1" s="20"/>
+      <c r="ADN1" s="20"/>
+      <c r="ADO1" s="20"/>
+      <c r="ADP1" s="20"/>
+      <c r="ADQ1" s="20"/>
+      <c r="ADR1" s="20"/>
+      <c r="ADS1" s="20"/>
+      <c r="ADT1" s="20"/>
+      <c r="ADU1" s="20"/>
+      <c r="ADV1" s="20"/>
+      <c r="ADW1" s="20"/>
+      <c r="ADX1" s="20"/>
+      <c r="ADY1" s="20"/>
+      <c r="ADZ1" s="20"/>
+      <c r="AEA1" s="20"/>
+      <c r="AEB1" s="20"/>
+      <c r="AEC1" s="20"/>
+      <c r="AED1" s="20"/>
+      <c r="AEE1" s="20"/>
+      <c r="AEF1" s="20"/>
+      <c r="AEG1" s="20"/>
+      <c r="AEH1" s="20"/>
+      <c r="AEI1" s="20"/>
+      <c r="AEJ1" s="20"/>
+      <c r="AEK1" s="20"/>
+      <c r="AEL1" s="20"/>
+      <c r="AEM1" s="20"/>
+      <c r="AEN1" s="20"/>
+      <c r="AEO1" s="20"/>
+      <c r="AEP1" s="20"/>
+      <c r="AEQ1" s="20"/>
+      <c r="AER1" s="20"/>
+      <c r="AES1" s="20"/>
+      <c r="AET1" s="20"/>
+      <c r="AEU1" s="20"/>
+      <c r="AEV1" s="20"/>
+      <c r="AEW1" s="20"/>
+      <c r="AEX1" s="20"/>
+      <c r="AEY1" s="20"/>
+      <c r="AEZ1" s="20"/>
+      <c r="AFA1" s="20"/>
+      <c r="AFB1" s="20"/>
+      <c r="AFC1" s="20"/>
+      <c r="AFD1" s="20"/>
+      <c r="AFE1" s="20"/>
+      <c r="AFF1" s="20"/>
+      <c r="AFG1" s="20"/>
+      <c r="AFH1" s="20"/>
+      <c r="AFI1" s="20"/>
+      <c r="AFJ1" s="20"/>
+      <c r="AFK1" s="20"/>
+      <c r="AFL1" s="20"/>
+      <c r="AFM1" s="20"/>
+      <c r="AFN1" s="20"/>
+      <c r="AFO1" s="20"/>
+      <c r="AFP1" s="20"/>
+      <c r="AFQ1" s="20"/>
+      <c r="AFR1" s="20"/>
+      <c r="AFS1" s="20"/>
+      <c r="AFT1" s="20"/>
+      <c r="AFU1" s="20"/>
+      <c r="AFV1" s="20"/>
+      <c r="AFW1" s="20"/>
+      <c r="AFX1" s="20"/>
+      <c r="AFY1" s="20"/>
+      <c r="AFZ1" s="20"/>
+      <c r="AGA1" s="20"/>
+      <c r="AGB1" s="20"/>
+      <c r="AGC1" s="20"/>
+      <c r="AGD1" s="20"/>
+      <c r="AGE1" s="20"/>
+      <c r="AGF1" s="20"/>
+      <c r="AGG1" s="20"/>
+      <c r="AGH1" s="20"/>
+      <c r="AGI1" s="20"/>
+      <c r="AGJ1" s="20"/>
+      <c r="AGK1" s="20"/>
+      <c r="AGL1" s="20"/>
+      <c r="AGM1" s="20"/>
+      <c r="AGN1" s="20"/>
+      <c r="AGO1" s="20"/>
+      <c r="AGP1" s="20"/>
+      <c r="AGQ1" s="20"/>
+      <c r="AGR1" s="20"/>
+      <c r="AGS1" s="20"/>
+      <c r="AGT1" s="20"/>
+      <c r="AGU1" s="20"/>
+      <c r="AGV1" s="20"/>
+      <c r="AGW1" s="20"/>
+      <c r="AGX1" s="20"/>
+      <c r="AGY1" s="20"/>
+      <c r="AGZ1" s="20"/>
+      <c r="AHA1" s="20"/>
+      <c r="AHB1" s="20"/>
+      <c r="AHC1" s="20"/>
+      <c r="AHD1" s="20"/>
+      <c r="AHE1" s="20"/>
+      <c r="AHF1" s="20"/>
+      <c r="AHG1" s="20"/>
+      <c r="AHH1" s="20"/>
+      <c r="AHI1" s="20"/>
+      <c r="AHJ1" s="20"/>
+      <c r="AHK1" s="20"/>
+      <c r="AHL1" s="20"/>
+      <c r="AHM1" s="20"/>
+      <c r="AHN1" s="20"/>
+      <c r="AHO1" s="20"/>
+      <c r="AHP1" s="20"/>
+      <c r="AHQ1" s="20"/>
+      <c r="AHR1" s="20"/>
+      <c r="AHS1" s="20"/>
+      <c r="AHT1" s="20"/>
+      <c r="AHU1" s="20"/>
+      <c r="AHV1" s="20"/>
+      <c r="AHW1" s="20"/>
+      <c r="AHX1" s="20"/>
+      <c r="AHY1" s="20"/>
+      <c r="AHZ1" s="20"/>
+      <c r="AIA1" s="20"/>
+      <c r="AIB1" s="20"/>
+      <c r="AIC1" s="20"/>
+      <c r="AID1" s="20"/>
+      <c r="AIE1" s="20"/>
+      <c r="AIF1" s="20"/>
+      <c r="AIG1" s="20"/>
+      <c r="AIH1" s="20"/>
+      <c r="AII1" s="20"/>
+      <c r="AIJ1" s="20"/>
+      <c r="AIK1" s="20"/>
+      <c r="AIL1" s="20"/>
+      <c r="AIM1" s="20"/>
+      <c r="AIN1" s="20"/>
+      <c r="AIO1" s="20"/>
+      <c r="AIP1" s="20"/>
+      <c r="AIQ1" s="20"/>
+      <c r="AIR1" s="20"/>
+      <c r="AIS1" s="20"/>
+      <c r="AIT1" s="20"/>
+      <c r="AIU1" s="20"/>
+      <c r="AIV1" s="20"/>
+      <c r="AIW1" s="20"/>
+      <c r="AIX1" s="20"/>
+      <c r="AIY1" s="20"/>
+      <c r="AIZ1" s="20"/>
+      <c r="AJA1" s="20"/>
+      <c r="AJB1" s="20"/>
+      <c r="AJC1" s="20"/>
+      <c r="AJD1" s="20"/>
+      <c r="AJE1" s="20"/>
+      <c r="AJF1" s="20"/>
+      <c r="AJG1" s="20"/>
+      <c r="AJH1" s="20"/>
+      <c r="AJI1" s="20"/>
+      <c r="AJJ1" s="20"/>
+      <c r="AJK1" s="20"/>
+      <c r="AJL1" s="20"/>
+      <c r="AJM1" s="20"/>
+      <c r="AJN1" s="20"/>
+      <c r="AJO1" s="20"/>
+      <c r="AJP1" s="20"/>
+      <c r="AJQ1" s="20"/>
+      <c r="AJR1" s="20"/>
+      <c r="AJS1" s="20"/>
+      <c r="AJT1" s="20"/>
+      <c r="AJU1" s="20"/>
+      <c r="AJV1" s="20"/>
+      <c r="AJW1" s="20"/>
+      <c r="AJX1" s="20"/>
+      <c r="AJY1" s="20"/>
+      <c r="AJZ1" s="20"/>
+      <c r="AKA1" s="20"/>
+      <c r="AKB1" s="20"/>
+      <c r="AKC1" s="20"/>
+      <c r="AKD1" s="20"/>
+      <c r="AKE1" s="20"/>
+      <c r="AKF1" s="20"/>
+      <c r="AKG1" s="20"/>
+      <c r="AKH1" s="20"/>
+      <c r="AKI1" s="20"/>
+      <c r="AKJ1" s="20"/>
+      <c r="AKK1" s="20"/>
+      <c r="AKL1" s="20"/>
+      <c r="AKM1" s="20"/>
+      <c r="AKN1" s="20"/>
+      <c r="AKO1" s="20"/>
+      <c r="AKP1" s="20"/>
+      <c r="AKQ1" s="20"/>
+      <c r="AKR1" s="20"/>
+      <c r="AKS1" s="20"/>
+      <c r="AKT1" s="20"/>
+      <c r="AKU1" s="20"/>
+      <c r="AKV1" s="20"/>
+      <c r="AKW1" s="20"/>
+      <c r="AKX1" s="20"/>
+      <c r="AKY1" s="20"/>
+      <c r="AKZ1" s="20"/>
+      <c r="ALA1" s="20"/>
+      <c r="ALB1" s="20"/>
+      <c r="ALC1" s="20"/>
+      <c r="ALD1" s="20"/>
+      <c r="ALE1" s="20"/>
+      <c r="ALF1" s="20"/>
+      <c r="ALG1" s="20"/>
+      <c r="ALH1" s="20"/>
+      <c r="ALI1" s="20"/>
+      <c r="ALJ1" s="20"/>
+      <c r="ALK1" s="20"/>
+      <c r="ALL1" s="20"/>
+      <c r="ALM1" s="20"/>
+      <c r="ALN1" s="20"/>
+      <c r="ALO1" s="20"/>
+      <c r="ALP1" s="20"/>
+      <c r="ALQ1" s="20"/>
+      <c r="ALR1" s="20"/>
+      <c r="ALS1" s="20"/>
+      <c r="ALT1" s="20"/>
+      <c r="ALU1" s="20"/>
+      <c r="ALV1" s="20"/>
+      <c r="ALW1" s="20"/>
+      <c r="ALX1" s="20"/>
+      <c r="ALY1" s="20"/>
+      <c r="ALZ1" s="20"/>
+      <c r="AMA1" s="20"/>
+      <c r="AMB1" s="20"/>
+      <c r="AMC1" s="20"/>
+      <c r="AMD1" s="20"/>
+      <c r="AME1" s="20"/>
+      <c r="AMF1" s="20"/>
+      <c r="AMG1" s="20"/>
+      <c r="AMH1" s="20"/>
+      <c r="AMI1" s="20"/>
+      <c r="AMJ1" s="20"/>
+      <c r="AMK1" s="20"/>
+      <c r="AML1" s="20"/>
+      <c r="AMM1" s="20"/>
+      <c r="AMN1" s="20"/>
+      <c r="AMO1" s="20"/>
+      <c r="AMP1" s="20"/>
+      <c r="AMQ1" s="20"/>
+      <c r="AMR1" s="20"/>
       <c r="AMS1"/>
       <c r="AMT1"/>
       <c r="AMU1"/>
@@ -20549,7 +20540,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20586,1039 +20577,1043 @@
         <v>71</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="21"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="21"/>
-      <c r="BP2" s="21"/>
-      <c r="BQ2" s="21"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="21"/>
-      <c r="BX2" s="21"/>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="21"/>
-      <c r="CN2" s="21"/>
-      <c r="CO2" s="21"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="21"/>
-      <c r="CR2" s="21"/>
-      <c r="CS2" s="21"/>
-      <c r="CT2" s="21"/>
-      <c r="CU2" s="21"/>
-      <c r="CV2" s="21"/>
-      <c r="CW2" s="21"/>
-      <c r="CX2" s="21"/>
-      <c r="CY2" s="21"/>
-      <c r="CZ2" s="21"/>
-      <c r="DA2" s="21"/>
-      <c r="DB2" s="21"/>
-      <c r="DC2" s="21"/>
-      <c r="DD2" s="21"/>
-      <c r="DE2" s="21"/>
-      <c r="DF2" s="21"/>
-      <c r="DG2" s="21"/>
-      <c r="DH2" s="21"/>
-      <c r="DI2" s="21"/>
-      <c r="DJ2" s="21"/>
-      <c r="DK2" s="21"/>
-      <c r="DL2" s="21"/>
-      <c r="DM2" s="21"/>
-      <c r="DN2" s="21"/>
-      <c r="DO2" s="21"/>
-      <c r="DP2" s="21"/>
-      <c r="DQ2" s="21"/>
-      <c r="DR2" s="21"/>
-      <c r="DS2" s="21"/>
-      <c r="DT2" s="21"/>
-      <c r="DU2" s="21"/>
-      <c r="DV2" s="21"/>
-      <c r="DW2" s="21"/>
-      <c r="DX2" s="21"/>
-      <c r="DY2" s="21"/>
-      <c r="DZ2" s="21"/>
-      <c r="EA2" s="21"/>
-      <c r="EB2" s="21"/>
-      <c r="EC2" s="21"/>
-      <c r="ED2" s="21"/>
-      <c r="EE2" s="21"/>
-      <c r="EF2" s="21"/>
-      <c r="EG2" s="21"/>
-      <c r="EH2" s="21"/>
-      <c r="EI2" s="21"/>
-      <c r="EJ2" s="21"/>
-      <c r="EK2" s="21"/>
-      <c r="EL2" s="21"/>
-      <c r="EM2" s="21"/>
-      <c r="EN2" s="21"/>
-      <c r="EO2" s="21"/>
-      <c r="EP2" s="21"/>
-      <c r="EQ2" s="21"/>
-      <c r="ER2" s="21"/>
-      <c r="ES2" s="21"/>
-      <c r="ET2" s="21"/>
-      <c r="EU2" s="21"/>
-      <c r="EV2" s="21"/>
-      <c r="EW2" s="21"/>
-      <c r="EX2" s="21"/>
-      <c r="EY2" s="21"/>
-      <c r="EZ2" s="21"/>
-      <c r="FA2" s="21"/>
-      <c r="FB2" s="21"/>
-      <c r="FC2" s="21"/>
-      <c r="FD2" s="21"/>
-      <c r="FE2" s="21"/>
-      <c r="FF2" s="21"/>
-      <c r="FG2" s="21"/>
-      <c r="FH2" s="21"/>
-      <c r="FI2" s="21"/>
-      <c r="FJ2" s="21"/>
-      <c r="FK2" s="21"/>
-      <c r="FL2" s="21"/>
-      <c r="FM2" s="21"/>
-      <c r="FN2" s="21"/>
-      <c r="FO2" s="21"/>
-      <c r="FP2" s="21"/>
-      <c r="FQ2" s="21"/>
-      <c r="FR2" s="21"/>
-      <c r="FS2" s="21"/>
-      <c r="FT2" s="21"/>
-      <c r="FU2" s="21"/>
-      <c r="FV2" s="21"/>
-      <c r="FW2" s="21"/>
-      <c r="FX2" s="21"/>
-      <c r="FY2" s="21"/>
-      <c r="FZ2" s="21"/>
-      <c r="GA2" s="21"/>
-      <c r="GB2" s="21"/>
-      <c r="GC2" s="21"/>
-      <c r="GD2" s="21"/>
-      <c r="GE2" s="21"/>
-      <c r="GF2" s="21"/>
-      <c r="GG2" s="21"/>
-      <c r="GH2" s="21"/>
-      <c r="GI2" s="21"/>
-      <c r="GJ2" s="21"/>
-      <c r="GK2" s="21"/>
-      <c r="GL2" s="21"/>
-      <c r="GM2" s="21"/>
-      <c r="GN2" s="21"/>
-      <c r="GO2" s="21"/>
-      <c r="GP2" s="21"/>
-      <c r="GQ2" s="21"/>
-      <c r="GR2" s="21"/>
-      <c r="GS2" s="21"/>
-      <c r="GT2" s="21"/>
-      <c r="GU2" s="21"/>
-      <c r="GV2" s="21"/>
-      <c r="GW2" s="21"/>
-      <c r="GX2" s="21"/>
-      <c r="GY2" s="21"/>
-      <c r="GZ2" s="21"/>
-      <c r="HA2" s="21"/>
-      <c r="HB2" s="21"/>
-      <c r="HC2" s="21"/>
-      <c r="HD2" s="21"/>
-      <c r="HE2" s="21"/>
-      <c r="HF2" s="21"/>
-      <c r="HG2" s="21"/>
-      <c r="HH2" s="21"/>
-      <c r="HI2" s="21"/>
-      <c r="HJ2" s="21"/>
-      <c r="HK2" s="21"/>
-      <c r="HL2" s="21"/>
-      <c r="HM2" s="21"/>
-      <c r="HN2" s="21"/>
-      <c r="HO2" s="21"/>
-      <c r="HP2" s="21"/>
-      <c r="HQ2" s="21"/>
-      <c r="HR2" s="21"/>
-      <c r="HS2" s="21"/>
-      <c r="HT2" s="21"/>
-      <c r="HU2" s="21"/>
-      <c r="HV2" s="21"/>
-      <c r="HW2" s="21"/>
-      <c r="HX2" s="21"/>
-      <c r="HY2" s="21"/>
-      <c r="HZ2" s="21"/>
-      <c r="IA2" s="21"/>
-      <c r="IB2" s="21"/>
-      <c r="IC2" s="21"/>
-      <c r="ID2" s="21"/>
-      <c r="IE2" s="21"/>
-      <c r="IF2" s="21"/>
-      <c r="IG2" s="21"/>
-      <c r="IH2" s="21"/>
-      <c r="II2" s="21"/>
-      <c r="IJ2" s="21"/>
-      <c r="IK2" s="21"/>
-      <c r="IL2" s="21"/>
-      <c r="IM2" s="21"/>
-      <c r="IN2" s="21"/>
-      <c r="IO2" s="21"/>
-      <c r="IP2" s="21"/>
-      <c r="IQ2" s="21"/>
-      <c r="IR2" s="21"/>
-      <c r="IS2" s="21"/>
-      <c r="IT2" s="21"/>
-      <c r="IU2" s="21"/>
-      <c r="IV2" s="21"/>
-      <c r="IW2" s="21"/>
-      <c r="IX2" s="21"/>
-      <c r="IY2" s="21"/>
-      <c r="IZ2" s="21"/>
-      <c r="JA2" s="21"/>
-      <c r="JB2" s="21"/>
-      <c r="JC2" s="21"/>
-      <c r="JD2" s="21"/>
-      <c r="JE2" s="21"/>
-      <c r="JF2" s="21"/>
-      <c r="JG2" s="21"/>
-      <c r="JH2" s="21"/>
-      <c r="JI2" s="21"/>
-      <c r="JJ2" s="21"/>
-      <c r="JK2" s="21"/>
-      <c r="JL2" s="21"/>
-      <c r="JM2" s="21"/>
-      <c r="JN2" s="21"/>
-      <c r="JO2" s="21"/>
-      <c r="JP2" s="21"/>
-      <c r="JQ2" s="21"/>
-      <c r="JR2" s="21"/>
-      <c r="JS2" s="21"/>
-      <c r="JT2" s="21"/>
-      <c r="JU2" s="21"/>
-      <c r="JV2" s="21"/>
-      <c r="JW2" s="21"/>
-      <c r="JX2" s="21"/>
-      <c r="JY2" s="21"/>
-      <c r="JZ2" s="21"/>
-      <c r="KA2" s="21"/>
-      <c r="KB2" s="21"/>
-      <c r="KC2" s="21"/>
-      <c r="KD2" s="21"/>
-      <c r="KE2" s="21"/>
-      <c r="KF2" s="21"/>
-      <c r="KG2" s="21"/>
-      <c r="KH2" s="21"/>
-      <c r="KI2" s="21"/>
-      <c r="KJ2" s="21"/>
-      <c r="KK2" s="21"/>
-      <c r="KL2" s="21"/>
-      <c r="KM2" s="21"/>
-      <c r="KN2" s="21"/>
-      <c r="KO2" s="21"/>
-      <c r="KP2" s="21"/>
-      <c r="KQ2" s="21"/>
-      <c r="KR2" s="21"/>
-      <c r="KS2" s="21"/>
-      <c r="KT2" s="21"/>
-      <c r="KU2" s="21"/>
-      <c r="KV2" s="21"/>
-      <c r="KW2" s="21"/>
-      <c r="KX2" s="21"/>
-      <c r="KY2" s="21"/>
-      <c r="KZ2" s="21"/>
-      <c r="LA2" s="21"/>
-      <c r="LB2" s="21"/>
-      <c r="LC2" s="21"/>
-      <c r="LD2" s="21"/>
-      <c r="LE2" s="21"/>
-      <c r="LF2" s="21"/>
-      <c r="LG2" s="21"/>
-      <c r="LH2" s="21"/>
-      <c r="LI2" s="21"/>
-      <c r="LJ2" s="21"/>
-      <c r="LK2" s="21"/>
-      <c r="LL2" s="21"/>
-      <c r="LM2" s="21"/>
-      <c r="LN2" s="21"/>
-      <c r="LO2" s="21"/>
-      <c r="LP2" s="21"/>
-      <c r="LQ2" s="21"/>
-      <c r="LR2" s="21"/>
-      <c r="LS2" s="21"/>
-      <c r="LT2" s="21"/>
-      <c r="LU2" s="21"/>
-      <c r="LV2" s="21"/>
-      <c r="LW2" s="21"/>
-      <c r="LX2" s="21"/>
-      <c r="LY2" s="21"/>
-      <c r="LZ2" s="21"/>
-      <c r="MA2" s="21"/>
-      <c r="MB2" s="21"/>
-      <c r="MC2" s="21"/>
-      <c r="MD2" s="21"/>
-      <c r="ME2" s="21"/>
-      <c r="MF2" s="21"/>
-      <c r="MG2" s="21"/>
-      <c r="MH2" s="21"/>
-      <c r="MI2" s="21"/>
-      <c r="MJ2" s="21"/>
-      <c r="MK2" s="21"/>
-      <c r="ML2" s="21"/>
-      <c r="MM2" s="21"/>
-      <c r="MN2" s="21"/>
-      <c r="MO2" s="21"/>
-      <c r="MP2" s="21"/>
-      <c r="MQ2" s="21"/>
-      <c r="MR2" s="21"/>
-      <c r="MS2" s="21"/>
-      <c r="MT2" s="21"/>
-      <c r="MU2" s="21"/>
-      <c r="MV2" s="21"/>
-      <c r="MW2" s="21"/>
-      <c r="MX2" s="21"/>
-      <c r="MY2" s="21"/>
-      <c r="MZ2" s="21"/>
-      <c r="NA2" s="21"/>
-      <c r="NB2" s="21"/>
-      <c r="NC2" s="21"/>
-      <c r="ND2" s="21"/>
-      <c r="NE2" s="21"/>
-      <c r="NF2" s="21"/>
-      <c r="NG2" s="21"/>
-      <c r="NH2" s="21"/>
-      <c r="NI2" s="21"/>
-      <c r="NJ2" s="21"/>
-      <c r="NK2" s="21"/>
-      <c r="NL2" s="21"/>
-      <c r="NM2" s="21"/>
-      <c r="NN2" s="21"/>
-      <c r="NO2" s="21"/>
-      <c r="NP2" s="21"/>
-      <c r="NQ2" s="21"/>
-      <c r="NR2" s="21"/>
-      <c r="NS2" s="21"/>
-      <c r="NT2" s="21"/>
-      <c r="NU2" s="21"/>
-      <c r="NV2" s="21"/>
-      <c r="NW2" s="21"/>
-      <c r="NX2" s="21"/>
-      <c r="NY2" s="21"/>
-      <c r="NZ2" s="21"/>
-      <c r="OA2" s="21"/>
-      <c r="OB2" s="21"/>
-      <c r="OC2" s="21"/>
-      <c r="OD2" s="21"/>
-      <c r="OE2" s="21"/>
-      <c r="OF2" s="21"/>
-      <c r="OG2" s="21"/>
-      <c r="OH2" s="21"/>
-      <c r="OI2" s="21"/>
-      <c r="OJ2" s="21"/>
-      <c r="OK2" s="21"/>
-      <c r="OL2" s="21"/>
-      <c r="OM2" s="21"/>
-      <c r="ON2" s="21"/>
-      <c r="OO2" s="21"/>
-      <c r="OP2" s="21"/>
-      <c r="OQ2" s="21"/>
-      <c r="OR2" s="21"/>
-      <c r="OS2" s="21"/>
-      <c r="OT2" s="21"/>
-      <c r="OU2" s="21"/>
-      <c r="OV2" s="21"/>
-      <c r="OW2" s="21"/>
-      <c r="OX2" s="21"/>
-      <c r="OY2" s="21"/>
-      <c r="OZ2" s="21"/>
-      <c r="PA2" s="21"/>
-      <c r="PB2" s="21"/>
-      <c r="PC2" s="21"/>
-      <c r="PD2" s="21"/>
-      <c r="PE2" s="21"/>
-      <c r="PF2" s="21"/>
-      <c r="PG2" s="21"/>
-      <c r="PH2" s="21"/>
-      <c r="PI2" s="21"/>
-      <c r="PJ2" s="21"/>
-      <c r="PK2" s="21"/>
-      <c r="PL2" s="21"/>
-      <c r="PM2" s="21"/>
-      <c r="PN2" s="21"/>
-      <c r="PO2" s="21"/>
-      <c r="PP2" s="21"/>
-      <c r="PQ2" s="21"/>
-      <c r="PR2" s="21"/>
-      <c r="PS2" s="21"/>
-      <c r="PT2" s="21"/>
-      <c r="PU2" s="21"/>
-      <c r="PV2" s="21"/>
-      <c r="PW2" s="21"/>
-      <c r="PX2" s="21"/>
-      <c r="PY2" s="21"/>
-      <c r="PZ2" s="21"/>
-      <c r="QA2" s="21"/>
-      <c r="QB2" s="21"/>
-      <c r="QC2" s="21"/>
-      <c r="QD2" s="21"/>
-      <c r="QE2" s="21"/>
-      <c r="QF2" s="21"/>
-      <c r="QG2" s="21"/>
-      <c r="QH2" s="21"/>
-      <c r="QI2" s="21"/>
-      <c r="QJ2" s="21"/>
-      <c r="QK2" s="21"/>
-      <c r="QL2" s="21"/>
-      <c r="QM2" s="21"/>
-      <c r="QN2" s="21"/>
-      <c r="QO2" s="21"/>
-      <c r="QP2" s="21"/>
-      <c r="QQ2" s="21"/>
-      <c r="QR2" s="21"/>
-      <c r="QS2" s="21"/>
-      <c r="QT2" s="21"/>
-      <c r="QU2" s="21"/>
-      <c r="QV2" s="21"/>
-      <c r="QW2" s="21"/>
-      <c r="QX2" s="21"/>
-      <c r="QY2" s="21"/>
-      <c r="QZ2" s="21"/>
-      <c r="RA2" s="21"/>
-      <c r="RB2" s="21"/>
-      <c r="RC2" s="21"/>
-      <c r="RD2" s="21"/>
-      <c r="RE2" s="21"/>
-      <c r="RF2" s="21"/>
-      <c r="RG2" s="21"/>
-      <c r="RH2" s="21"/>
-      <c r="RI2" s="21"/>
-      <c r="RJ2" s="21"/>
-      <c r="RK2" s="21"/>
-      <c r="RL2" s="21"/>
-      <c r="RM2" s="21"/>
-      <c r="RN2" s="21"/>
-      <c r="RO2" s="21"/>
-      <c r="RP2" s="21"/>
-      <c r="RQ2" s="21"/>
-      <c r="RR2" s="21"/>
-      <c r="RS2" s="21"/>
-      <c r="RT2" s="21"/>
-      <c r="RU2" s="21"/>
-      <c r="RV2" s="21"/>
-      <c r="RW2" s="21"/>
-      <c r="RX2" s="21"/>
-      <c r="RY2" s="21"/>
-      <c r="RZ2" s="21"/>
-      <c r="SA2" s="21"/>
-      <c r="SB2" s="21"/>
-      <c r="SC2" s="21"/>
-      <c r="SD2" s="21"/>
-      <c r="SE2" s="21"/>
-      <c r="SF2" s="21"/>
-      <c r="SG2" s="21"/>
-      <c r="SH2" s="21"/>
-      <c r="SI2" s="21"/>
-      <c r="SJ2" s="21"/>
-      <c r="SK2" s="21"/>
-      <c r="SL2" s="21"/>
-      <c r="SM2" s="21"/>
-      <c r="SN2" s="21"/>
-      <c r="SO2" s="21"/>
-      <c r="SP2" s="21"/>
-      <c r="SQ2" s="21"/>
-      <c r="SR2" s="21"/>
-      <c r="SS2" s="21"/>
-      <c r="ST2" s="21"/>
-      <c r="SU2" s="21"/>
-      <c r="SV2" s="21"/>
-      <c r="SW2" s="21"/>
-      <c r="SX2" s="21"/>
-      <c r="SY2" s="21"/>
-      <c r="SZ2" s="21"/>
-      <c r="TA2" s="21"/>
-      <c r="TB2" s="21"/>
-      <c r="TC2" s="21"/>
-      <c r="TD2" s="21"/>
-      <c r="TE2" s="21"/>
-      <c r="TF2" s="21"/>
-      <c r="TG2" s="21"/>
-      <c r="TH2" s="21"/>
-      <c r="TI2" s="21"/>
-      <c r="TJ2" s="21"/>
-      <c r="TK2" s="21"/>
-      <c r="TL2" s="21"/>
-      <c r="TM2" s="21"/>
-      <c r="TN2" s="21"/>
-      <c r="TO2" s="21"/>
-      <c r="TP2" s="21"/>
-      <c r="TQ2" s="21"/>
-      <c r="TR2" s="21"/>
-      <c r="TS2" s="21"/>
-      <c r="TT2" s="21"/>
-      <c r="TU2" s="21"/>
-      <c r="TV2" s="21"/>
-      <c r="TW2" s="21"/>
-      <c r="TX2" s="21"/>
-      <c r="TY2" s="21"/>
-      <c r="TZ2" s="21"/>
-      <c r="UA2" s="21"/>
-      <c r="UB2" s="21"/>
-      <c r="UC2" s="21"/>
-      <c r="UD2" s="21"/>
-      <c r="UE2" s="21"/>
-      <c r="UF2" s="21"/>
-      <c r="UG2" s="21"/>
-      <c r="UH2" s="21"/>
-      <c r="UI2" s="21"/>
-      <c r="UJ2" s="21"/>
-      <c r="UK2" s="21"/>
-      <c r="UL2" s="21"/>
-      <c r="UM2" s="21"/>
-      <c r="UN2" s="21"/>
-      <c r="UO2" s="21"/>
-      <c r="UP2" s="21"/>
-      <c r="UQ2" s="21"/>
-      <c r="UR2" s="21"/>
-      <c r="US2" s="21"/>
-      <c r="UT2" s="21"/>
-      <c r="UU2" s="21"/>
-      <c r="UV2" s="21"/>
-      <c r="UW2" s="21"/>
-      <c r="UX2" s="21"/>
-      <c r="UY2" s="21"/>
-      <c r="UZ2" s="21"/>
-      <c r="VA2" s="21"/>
-      <c r="VB2" s="21"/>
-      <c r="VC2" s="21"/>
-      <c r="VD2" s="21"/>
-      <c r="VE2" s="21"/>
-      <c r="VF2" s="21"/>
-      <c r="VG2" s="21"/>
-      <c r="VH2" s="21"/>
-      <c r="VI2" s="21"/>
-      <c r="VJ2" s="21"/>
-      <c r="VK2" s="21"/>
-      <c r="VL2" s="21"/>
-      <c r="VM2" s="21"/>
-      <c r="VN2" s="21"/>
-      <c r="VO2" s="21"/>
-      <c r="VP2" s="21"/>
-      <c r="VQ2" s="21"/>
-      <c r="VR2" s="21"/>
-      <c r="VS2" s="21"/>
-      <c r="VT2" s="21"/>
-      <c r="VU2" s="21"/>
-      <c r="VV2" s="21"/>
-      <c r="VW2" s="21"/>
-      <c r="VX2" s="21"/>
-      <c r="VY2" s="21"/>
-      <c r="VZ2" s="21"/>
-      <c r="WA2" s="21"/>
-      <c r="WB2" s="21"/>
-      <c r="WC2" s="21"/>
-      <c r="WD2" s="21"/>
-      <c r="WE2" s="21"/>
-      <c r="WF2" s="21"/>
-      <c r="WG2" s="21"/>
-      <c r="WH2" s="21"/>
-      <c r="WI2" s="21"/>
-      <c r="WJ2" s="21"/>
-      <c r="WK2" s="21"/>
-      <c r="WL2" s="21"/>
-      <c r="WM2" s="21"/>
-      <c r="WN2" s="21"/>
-      <c r="WO2" s="21"/>
-      <c r="WP2" s="21"/>
-      <c r="WQ2" s="21"/>
-      <c r="WR2" s="21"/>
-      <c r="WS2" s="21"/>
-      <c r="WT2" s="21"/>
-      <c r="WU2" s="21"/>
-      <c r="WV2" s="21"/>
-      <c r="WW2" s="21"/>
-      <c r="WX2" s="21"/>
-      <c r="WY2" s="21"/>
-      <c r="WZ2" s="21"/>
-      <c r="XA2" s="21"/>
-      <c r="XB2" s="21"/>
-      <c r="XC2" s="21"/>
-      <c r="XD2" s="21"/>
-      <c r="XE2" s="21"/>
-      <c r="XF2" s="21"/>
-      <c r="XG2" s="21"/>
-      <c r="XH2" s="21"/>
-      <c r="XI2" s="21"/>
-      <c r="XJ2" s="21"/>
-      <c r="XK2" s="21"/>
-      <c r="XL2" s="21"/>
-      <c r="XM2" s="21"/>
-      <c r="XN2" s="21"/>
-      <c r="XO2" s="21"/>
-      <c r="XP2" s="21"/>
-      <c r="XQ2" s="21"/>
-      <c r="XR2" s="21"/>
-      <c r="XS2" s="21"/>
-      <c r="XT2" s="21"/>
-      <c r="XU2" s="21"/>
-      <c r="XV2" s="21"/>
-      <c r="XW2" s="21"/>
-      <c r="XX2" s="21"/>
-      <c r="XY2" s="21"/>
-      <c r="XZ2" s="21"/>
-      <c r="YA2" s="21"/>
-      <c r="YB2" s="21"/>
-      <c r="YC2" s="21"/>
-      <c r="YD2" s="21"/>
-      <c r="YE2" s="21"/>
-      <c r="YF2" s="21"/>
-      <c r="YG2" s="21"/>
-      <c r="YH2" s="21"/>
-      <c r="YI2" s="21"/>
-      <c r="YJ2" s="21"/>
-      <c r="YK2" s="21"/>
-      <c r="YL2" s="21"/>
-      <c r="YM2" s="21"/>
-      <c r="YN2" s="21"/>
-      <c r="YO2" s="21"/>
-      <c r="YP2" s="21"/>
-      <c r="YQ2" s="21"/>
-      <c r="YR2" s="21"/>
-      <c r="YS2" s="21"/>
-      <c r="YT2" s="21"/>
-      <c r="YU2" s="21"/>
-      <c r="YV2" s="21"/>
-      <c r="YW2" s="21"/>
-      <c r="YX2" s="21"/>
-      <c r="YY2" s="21"/>
-      <c r="YZ2" s="21"/>
-      <c r="ZA2" s="21"/>
-      <c r="ZB2" s="21"/>
-      <c r="ZC2" s="21"/>
-      <c r="ZD2" s="21"/>
-      <c r="ZE2" s="21"/>
-      <c r="ZF2" s="21"/>
-      <c r="ZG2" s="21"/>
-      <c r="ZH2" s="21"/>
-      <c r="ZI2" s="21"/>
-      <c r="ZJ2" s="21"/>
-      <c r="ZK2" s="21"/>
-      <c r="ZL2" s="21"/>
-      <c r="ZM2" s="21"/>
-      <c r="ZN2" s="21"/>
-      <c r="ZO2" s="21"/>
-      <c r="ZP2" s="21"/>
-      <c r="ZQ2" s="21"/>
-      <c r="ZR2" s="21"/>
-      <c r="ZS2" s="21"/>
-      <c r="ZT2" s="21"/>
-      <c r="ZU2" s="21"/>
-      <c r="ZV2" s="21"/>
-      <c r="ZW2" s="21"/>
-      <c r="ZX2" s="21"/>
-      <c r="ZY2" s="21"/>
-      <c r="ZZ2" s="21"/>
-      <c r="AAA2" s="21"/>
-      <c r="AAB2" s="21"/>
-      <c r="AAC2" s="21"/>
-      <c r="AAD2" s="21"/>
-      <c r="AAE2" s="21"/>
-      <c r="AAF2" s="21"/>
-      <c r="AAG2" s="21"/>
-      <c r="AAH2" s="21"/>
-      <c r="AAI2" s="21"/>
-      <c r="AAJ2" s="21"/>
-      <c r="AAK2" s="21"/>
-      <c r="AAL2" s="21"/>
-      <c r="AAM2" s="21"/>
-      <c r="AAN2" s="21"/>
-      <c r="AAO2" s="21"/>
-      <c r="AAP2" s="21"/>
-      <c r="AAQ2" s="21"/>
-      <c r="AAR2" s="21"/>
-      <c r="AAS2" s="21"/>
-      <c r="AAT2" s="21"/>
-      <c r="AAU2" s="21"/>
-      <c r="AAV2" s="21"/>
-      <c r="AAW2" s="21"/>
-      <c r="AAX2" s="21"/>
-      <c r="AAY2" s="21"/>
-      <c r="AAZ2" s="21"/>
-      <c r="ABA2" s="21"/>
-      <c r="ABB2" s="21"/>
-      <c r="ABC2" s="21"/>
-      <c r="ABD2" s="21"/>
-      <c r="ABE2" s="21"/>
-      <c r="ABF2" s="21"/>
-      <c r="ABG2" s="21"/>
-      <c r="ABH2" s="21"/>
-      <c r="ABI2" s="21"/>
-      <c r="ABJ2" s="21"/>
-      <c r="ABK2" s="21"/>
-      <c r="ABL2" s="21"/>
-      <c r="ABM2" s="21"/>
-      <c r="ABN2" s="21"/>
-      <c r="ABO2" s="21"/>
-      <c r="ABP2" s="21"/>
-      <c r="ABQ2" s="21"/>
-      <c r="ABR2" s="21"/>
-      <c r="ABS2" s="21"/>
-      <c r="ABT2" s="21"/>
-      <c r="ABU2" s="21"/>
-      <c r="ABV2" s="21"/>
-      <c r="ABW2" s="21"/>
-      <c r="ABX2" s="21"/>
-      <c r="ABY2" s="21"/>
-      <c r="ABZ2" s="21"/>
-      <c r="ACA2" s="21"/>
-      <c r="ACB2" s="21"/>
-      <c r="ACC2" s="21"/>
-      <c r="ACD2" s="21"/>
-      <c r="ACE2" s="21"/>
-      <c r="ACF2" s="21"/>
-      <c r="ACG2" s="21"/>
-      <c r="ACH2" s="21"/>
-      <c r="ACI2" s="21"/>
-      <c r="ACJ2" s="21"/>
-      <c r="ACK2" s="21"/>
-      <c r="ACL2" s="21"/>
-      <c r="ACM2" s="21"/>
-      <c r="ACN2" s="21"/>
-      <c r="ACO2" s="21"/>
-      <c r="ACP2" s="21"/>
-      <c r="ACQ2" s="21"/>
-      <c r="ACR2" s="21"/>
-      <c r="ACS2" s="21"/>
-      <c r="ACT2" s="21"/>
-      <c r="ACU2" s="21"/>
-      <c r="ACV2" s="21"/>
-      <c r="ACW2" s="21"/>
-      <c r="ACX2" s="21"/>
-      <c r="ACY2" s="21"/>
-      <c r="ACZ2" s="21"/>
-      <c r="ADA2" s="21"/>
-      <c r="ADB2" s="21"/>
-      <c r="ADC2" s="21"/>
-      <c r="ADD2" s="21"/>
-      <c r="ADE2" s="21"/>
-      <c r="ADF2" s="21"/>
-      <c r="ADG2" s="21"/>
-      <c r="ADH2" s="21"/>
-      <c r="ADI2" s="21"/>
-      <c r="ADJ2" s="21"/>
-      <c r="ADK2" s="21"/>
-      <c r="ADL2" s="21"/>
-      <c r="ADM2" s="21"/>
-      <c r="ADN2" s="21"/>
-      <c r="ADO2" s="21"/>
-      <c r="ADP2" s="21"/>
-      <c r="ADQ2" s="21"/>
-      <c r="ADR2" s="21"/>
-      <c r="ADS2" s="21"/>
-      <c r="ADT2" s="21"/>
-      <c r="ADU2" s="21"/>
-      <c r="ADV2" s="21"/>
-      <c r="ADW2" s="21"/>
-      <c r="ADX2" s="21"/>
-      <c r="ADY2" s="21"/>
-      <c r="ADZ2" s="21"/>
-      <c r="AEA2" s="21"/>
-      <c r="AEB2" s="21"/>
-      <c r="AEC2" s="21"/>
-      <c r="AED2" s="21"/>
-      <c r="AEE2" s="21"/>
-      <c r="AEF2" s="21"/>
-      <c r="AEG2" s="21"/>
-      <c r="AEH2" s="21"/>
-      <c r="AEI2" s="21"/>
-      <c r="AEJ2" s="21"/>
-      <c r="AEK2" s="21"/>
-      <c r="AEL2" s="21"/>
-      <c r="AEM2" s="21"/>
-      <c r="AEN2" s="21"/>
-      <c r="AEO2" s="21"/>
-      <c r="AEP2" s="21"/>
-      <c r="AEQ2" s="21"/>
-      <c r="AER2" s="21"/>
-      <c r="AES2" s="21"/>
-      <c r="AET2" s="21"/>
-      <c r="AEU2" s="21"/>
-      <c r="AEV2" s="21"/>
-      <c r="AEW2" s="21"/>
-      <c r="AEX2" s="21"/>
-      <c r="AEY2" s="21"/>
-      <c r="AEZ2" s="21"/>
-      <c r="AFA2" s="21"/>
-      <c r="AFB2" s="21"/>
-      <c r="AFC2" s="21"/>
-      <c r="AFD2" s="21"/>
-      <c r="AFE2" s="21"/>
-      <c r="AFF2" s="21"/>
-      <c r="AFG2" s="21"/>
-      <c r="AFH2" s="21"/>
-      <c r="AFI2" s="21"/>
-      <c r="AFJ2" s="21"/>
-      <c r="AFK2" s="21"/>
-      <c r="AFL2" s="21"/>
-      <c r="AFM2" s="21"/>
-      <c r="AFN2" s="21"/>
-      <c r="AFO2" s="21"/>
-      <c r="AFP2" s="21"/>
-      <c r="AFQ2" s="21"/>
-      <c r="AFR2" s="21"/>
-      <c r="AFS2" s="21"/>
-      <c r="AFT2" s="21"/>
-      <c r="AFU2" s="21"/>
-      <c r="AFV2" s="21"/>
-      <c r="AFW2" s="21"/>
-      <c r="AFX2" s="21"/>
-      <c r="AFY2" s="21"/>
-      <c r="AFZ2" s="21"/>
-      <c r="AGA2" s="21"/>
-      <c r="AGB2" s="21"/>
-      <c r="AGC2" s="21"/>
-      <c r="AGD2" s="21"/>
-      <c r="AGE2" s="21"/>
-      <c r="AGF2" s="21"/>
-      <c r="AGG2" s="21"/>
-      <c r="AGH2" s="21"/>
-      <c r="AGI2" s="21"/>
-      <c r="AGJ2" s="21"/>
-      <c r="AGK2" s="21"/>
-      <c r="AGL2" s="21"/>
-      <c r="AGM2" s="21"/>
-      <c r="AGN2" s="21"/>
-      <c r="AGO2" s="21"/>
-      <c r="AGP2" s="21"/>
-      <c r="AGQ2" s="21"/>
-      <c r="AGR2" s="21"/>
-      <c r="AGS2" s="21"/>
-      <c r="AGT2" s="21"/>
-      <c r="AGU2" s="21"/>
-      <c r="AGV2" s="21"/>
-      <c r="AGW2" s="21"/>
-      <c r="AGX2" s="21"/>
-      <c r="AGY2" s="21"/>
-      <c r="AGZ2" s="21"/>
-      <c r="AHA2" s="21"/>
-      <c r="AHB2" s="21"/>
-      <c r="AHC2" s="21"/>
-      <c r="AHD2" s="21"/>
-      <c r="AHE2" s="21"/>
-      <c r="AHF2" s="21"/>
-      <c r="AHG2" s="21"/>
-      <c r="AHH2" s="21"/>
-      <c r="AHI2" s="21"/>
-      <c r="AHJ2" s="21"/>
-      <c r="AHK2" s="21"/>
-      <c r="AHL2" s="21"/>
-      <c r="AHM2" s="21"/>
-      <c r="AHN2" s="21"/>
-      <c r="AHO2" s="21"/>
-      <c r="AHP2" s="21"/>
-      <c r="AHQ2" s="21"/>
-      <c r="AHR2" s="21"/>
-      <c r="AHS2" s="21"/>
-      <c r="AHT2" s="21"/>
-      <c r="AHU2" s="21"/>
-      <c r="AHV2" s="21"/>
-      <c r="AHW2" s="21"/>
-      <c r="AHX2" s="21"/>
-      <c r="AHY2" s="21"/>
-      <c r="AHZ2" s="21"/>
-      <c r="AIA2" s="21"/>
-      <c r="AIB2" s="21"/>
-      <c r="AIC2" s="21"/>
-      <c r="AID2" s="21"/>
-      <c r="AIE2" s="21"/>
-      <c r="AIF2" s="21"/>
-      <c r="AIG2" s="21"/>
-      <c r="AIH2" s="21"/>
-      <c r="AII2" s="21"/>
-      <c r="AIJ2" s="21"/>
-      <c r="AIK2" s="21"/>
-      <c r="AIL2" s="21"/>
-      <c r="AIM2" s="21"/>
-      <c r="AIN2" s="21"/>
-      <c r="AIO2" s="21"/>
-      <c r="AIP2" s="21"/>
-      <c r="AIQ2" s="21"/>
-      <c r="AIR2" s="21"/>
-      <c r="AIS2" s="21"/>
-      <c r="AIT2" s="21"/>
-      <c r="AIU2" s="21"/>
-      <c r="AIV2" s="21"/>
-      <c r="AIW2" s="21"/>
-      <c r="AIX2" s="21"/>
-      <c r="AIY2" s="21"/>
-      <c r="AIZ2" s="21"/>
-      <c r="AJA2" s="21"/>
-      <c r="AJB2" s="21"/>
-      <c r="AJC2" s="21"/>
-      <c r="AJD2" s="21"/>
-      <c r="AJE2" s="21"/>
-      <c r="AJF2" s="21"/>
-      <c r="AJG2" s="21"/>
-      <c r="AJH2" s="21"/>
-      <c r="AJI2" s="21"/>
-      <c r="AJJ2" s="21"/>
-      <c r="AJK2" s="21"/>
-      <c r="AJL2" s="21"/>
-      <c r="AJM2" s="21"/>
-      <c r="AJN2" s="21"/>
-      <c r="AJO2" s="21"/>
-      <c r="AJP2" s="21"/>
-      <c r="AJQ2" s="21"/>
-      <c r="AJR2" s="21"/>
-      <c r="AJS2" s="21"/>
-      <c r="AJT2" s="21"/>
-      <c r="AJU2" s="21"/>
-      <c r="AJV2" s="21"/>
-      <c r="AJW2" s="21"/>
-      <c r="AJX2" s="21"/>
-      <c r="AJY2" s="21"/>
-      <c r="AJZ2" s="21"/>
-      <c r="AKA2" s="21"/>
-      <c r="AKB2" s="21"/>
-      <c r="AKC2" s="21"/>
-      <c r="AKD2" s="21"/>
-      <c r="AKE2" s="21"/>
-      <c r="AKF2" s="21"/>
-      <c r="AKG2" s="21"/>
-      <c r="AKH2" s="21"/>
-      <c r="AKI2" s="21"/>
-      <c r="AKJ2" s="21"/>
-      <c r="AKK2" s="21"/>
-      <c r="AKL2" s="21"/>
-      <c r="AKM2" s="21"/>
-      <c r="AKN2" s="21"/>
-      <c r="AKO2" s="21"/>
-      <c r="AKP2" s="21"/>
-      <c r="AKQ2" s="21"/>
-      <c r="AKR2" s="21"/>
-      <c r="AKS2" s="21"/>
-      <c r="AKT2" s="21"/>
-      <c r="AKU2" s="21"/>
-      <c r="AKV2" s="21"/>
-      <c r="AKW2" s="21"/>
-      <c r="AKX2" s="21"/>
-      <c r="AKY2" s="21"/>
-      <c r="AKZ2" s="21"/>
-      <c r="ALA2" s="21"/>
-      <c r="ALB2" s="21"/>
-      <c r="ALC2" s="21"/>
-      <c r="ALD2" s="21"/>
-      <c r="ALE2" s="21"/>
-      <c r="ALF2" s="21"/>
-      <c r="ALG2" s="21"/>
-      <c r="ALH2" s="21"/>
-      <c r="ALI2" s="21"/>
-      <c r="ALJ2" s="21"/>
-      <c r="ALK2" s="21"/>
-      <c r="ALL2" s="21"/>
-      <c r="ALM2" s="21"/>
-      <c r="ALN2" s="21"/>
-      <c r="ALO2" s="21"/>
-      <c r="ALP2" s="21"/>
-      <c r="ALQ2" s="21"/>
-      <c r="ALR2" s="21"/>
-      <c r="ALS2" s="21"/>
-      <c r="ALT2" s="21"/>
-      <c r="ALU2" s="21"/>
-      <c r="ALV2" s="21"/>
-      <c r="ALW2" s="21"/>
-      <c r="ALX2" s="21"/>
-      <c r="ALY2" s="21"/>
-      <c r="ALZ2" s="21"/>
-      <c r="AMA2" s="21"/>
-      <c r="AMB2" s="21"/>
-      <c r="AMC2" s="21"/>
-      <c r="AMD2" s="21"/>
-      <c r="AME2" s="21"/>
-      <c r="AMF2" s="21"/>
-      <c r="AMG2" s="21"/>
-      <c r="AMH2" s="21"/>
-      <c r="AMI2" s="21"/>
-      <c r="AMJ2" s="21"/>
-      <c r="AMK2" s="21"/>
-      <c r="AML2" s="21"/>
-      <c r="AMM2" s="21"/>
-      <c r="AMN2" s="21"/>
-      <c r="AMO2" s="21"/>
-      <c r="AMP2" s="21"/>
-      <c r="AMQ2"/>
-      <c r="AMR2"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
+      <c r="CU2" s="20"/>
+      <c r="CV2" s="20"/>
+      <c r="CW2" s="20"/>
+      <c r="CX2" s="20"/>
+      <c r="CY2" s="20"/>
+      <c r="CZ2" s="20"/>
+      <c r="DA2" s="20"/>
+      <c r="DB2" s="20"/>
+      <c r="DC2" s="20"/>
+      <c r="DD2" s="20"/>
+      <c r="DE2" s="20"/>
+      <c r="DF2" s="20"/>
+      <c r="DG2" s="20"/>
+      <c r="DH2" s="20"/>
+      <c r="DI2" s="20"/>
+      <c r="DJ2" s="20"/>
+      <c r="DK2" s="20"/>
+      <c r="DL2" s="20"/>
+      <c r="DM2" s="20"/>
+      <c r="DN2" s="20"/>
+      <c r="DO2" s="20"/>
+      <c r="DP2" s="20"/>
+      <c r="DQ2" s="20"/>
+      <c r="DR2" s="20"/>
+      <c r="DS2" s="20"/>
+      <c r="DT2" s="20"/>
+      <c r="DU2" s="20"/>
+      <c r="DV2" s="20"/>
+      <c r="DW2" s="20"/>
+      <c r="DX2" s="20"/>
+      <c r="DY2" s="20"/>
+      <c r="DZ2" s="20"/>
+      <c r="EA2" s="20"/>
+      <c r="EB2" s="20"/>
+      <c r="EC2" s="20"/>
+      <c r="ED2" s="20"/>
+      <c r="EE2" s="20"/>
+      <c r="EF2" s="20"/>
+      <c r="EG2" s="20"/>
+      <c r="EH2" s="20"/>
+      <c r="EI2" s="20"/>
+      <c r="EJ2" s="20"/>
+      <c r="EK2" s="20"/>
+      <c r="EL2" s="20"/>
+      <c r="EM2" s="20"/>
+      <c r="EN2" s="20"/>
+      <c r="EO2" s="20"/>
+      <c r="EP2" s="20"/>
+      <c r="EQ2" s="20"/>
+      <c r="ER2" s="20"/>
+      <c r="ES2" s="20"/>
+      <c r="ET2" s="20"/>
+      <c r="EU2" s="20"/>
+      <c r="EV2" s="20"/>
+      <c r="EW2" s="20"/>
+      <c r="EX2" s="20"/>
+      <c r="EY2" s="20"/>
+      <c r="EZ2" s="20"/>
+      <c r="FA2" s="20"/>
+      <c r="FB2" s="20"/>
+      <c r="FC2" s="20"/>
+      <c r="FD2" s="20"/>
+      <c r="FE2" s="20"/>
+      <c r="FF2" s="20"/>
+      <c r="FG2" s="20"/>
+      <c r="FH2" s="20"/>
+      <c r="FI2" s="20"/>
+      <c r="FJ2" s="20"/>
+      <c r="FK2" s="20"/>
+      <c r="FL2" s="20"/>
+      <c r="FM2" s="20"/>
+      <c r="FN2" s="20"/>
+      <c r="FO2" s="20"/>
+      <c r="FP2" s="20"/>
+      <c r="FQ2" s="20"/>
+      <c r="FR2" s="20"/>
+      <c r="FS2" s="20"/>
+      <c r="FT2" s="20"/>
+      <c r="FU2" s="20"/>
+      <c r="FV2" s="20"/>
+      <c r="FW2" s="20"/>
+      <c r="FX2" s="20"/>
+      <c r="FY2" s="20"/>
+      <c r="FZ2" s="20"/>
+      <c r="GA2" s="20"/>
+      <c r="GB2" s="20"/>
+      <c r="GC2" s="20"/>
+      <c r="GD2" s="20"/>
+      <c r="GE2" s="20"/>
+      <c r="GF2" s="20"/>
+      <c r="GG2" s="20"/>
+      <c r="GH2" s="20"/>
+      <c r="GI2" s="20"/>
+      <c r="GJ2" s="20"/>
+      <c r="GK2" s="20"/>
+      <c r="GL2" s="20"/>
+      <c r="GM2" s="20"/>
+      <c r="GN2" s="20"/>
+      <c r="GO2" s="20"/>
+      <c r="GP2" s="20"/>
+      <c r="GQ2" s="20"/>
+      <c r="GR2" s="20"/>
+      <c r="GS2" s="20"/>
+      <c r="GT2" s="20"/>
+      <c r="GU2" s="20"/>
+      <c r="GV2" s="20"/>
+      <c r="GW2" s="20"/>
+      <c r="GX2" s="20"/>
+      <c r="GY2" s="20"/>
+      <c r="GZ2" s="20"/>
+      <c r="HA2" s="20"/>
+      <c r="HB2" s="20"/>
+      <c r="HC2" s="20"/>
+      <c r="HD2" s="20"/>
+      <c r="HE2" s="20"/>
+      <c r="HF2" s="20"/>
+      <c r="HG2" s="20"/>
+      <c r="HH2" s="20"/>
+      <c r="HI2" s="20"/>
+      <c r="HJ2" s="20"/>
+      <c r="HK2" s="20"/>
+      <c r="HL2" s="20"/>
+      <c r="HM2" s="20"/>
+      <c r="HN2" s="20"/>
+      <c r="HO2" s="20"/>
+      <c r="HP2" s="20"/>
+      <c r="HQ2" s="20"/>
+      <c r="HR2" s="20"/>
+      <c r="HS2" s="20"/>
+      <c r="HT2" s="20"/>
+      <c r="HU2" s="20"/>
+      <c r="HV2" s="20"/>
+      <c r="HW2" s="20"/>
+      <c r="HX2" s="20"/>
+      <c r="HY2" s="20"/>
+      <c r="HZ2" s="20"/>
+      <c r="IA2" s="20"/>
+      <c r="IB2" s="20"/>
+      <c r="IC2" s="20"/>
+      <c r="ID2" s="20"/>
+      <c r="IE2" s="20"/>
+      <c r="IF2" s="20"/>
+      <c r="IG2" s="20"/>
+      <c r="IH2" s="20"/>
+      <c r="II2" s="20"/>
+      <c r="IJ2" s="20"/>
+      <c r="IK2" s="20"/>
+      <c r="IL2" s="20"/>
+      <c r="IM2" s="20"/>
+      <c r="IN2" s="20"/>
+      <c r="IO2" s="20"/>
+      <c r="IP2" s="20"/>
+      <c r="IQ2" s="20"/>
+      <c r="IR2" s="20"/>
+      <c r="IS2" s="20"/>
+      <c r="IT2" s="20"/>
+      <c r="IU2" s="20"/>
+      <c r="IV2" s="20"/>
+      <c r="IW2" s="20"/>
+      <c r="IX2" s="20"/>
+      <c r="IY2" s="20"/>
+      <c r="IZ2" s="20"/>
+      <c r="JA2" s="20"/>
+      <c r="JB2" s="20"/>
+      <c r="JC2" s="20"/>
+      <c r="JD2" s="20"/>
+      <c r="JE2" s="20"/>
+      <c r="JF2" s="20"/>
+      <c r="JG2" s="20"/>
+      <c r="JH2" s="20"/>
+      <c r="JI2" s="20"/>
+      <c r="JJ2" s="20"/>
+      <c r="JK2" s="20"/>
+      <c r="JL2" s="20"/>
+      <c r="JM2" s="20"/>
+      <c r="JN2" s="20"/>
+      <c r="JO2" s="20"/>
+      <c r="JP2" s="20"/>
+      <c r="JQ2" s="20"/>
+      <c r="JR2" s="20"/>
+      <c r="JS2" s="20"/>
+      <c r="JT2" s="20"/>
+      <c r="JU2" s="20"/>
+      <c r="JV2" s="20"/>
+      <c r="JW2" s="20"/>
+      <c r="JX2" s="20"/>
+      <c r="JY2" s="20"/>
+      <c r="JZ2" s="20"/>
+      <c r="KA2" s="20"/>
+      <c r="KB2" s="20"/>
+      <c r="KC2" s="20"/>
+      <c r="KD2" s="20"/>
+      <c r="KE2" s="20"/>
+      <c r="KF2" s="20"/>
+      <c r="KG2" s="20"/>
+      <c r="KH2" s="20"/>
+      <c r="KI2" s="20"/>
+      <c r="KJ2" s="20"/>
+      <c r="KK2" s="20"/>
+      <c r="KL2" s="20"/>
+      <c r="KM2" s="20"/>
+      <c r="KN2" s="20"/>
+      <c r="KO2" s="20"/>
+      <c r="KP2" s="20"/>
+      <c r="KQ2" s="20"/>
+      <c r="KR2" s="20"/>
+      <c r="KS2" s="20"/>
+      <c r="KT2" s="20"/>
+      <c r="KU2" s="20"/>
+      <c r="KV2" s="20"/>
+      <c r="KW2" s="20"/>
+      <c r="KX2" s="20"/>
+      <c r="KY2" s="20"/>
+      <c r="KZ2" s="20"/>
+      <c r="LA2" s="20"/>
+      <c r="LB2" s="20"/>
+      <c r="LC2" s="20"/>
+      <c r="LD2" s="20"/>
+      <c r="LE2" s="20"/>
+      <c r="LF2" s="20"/>
+      <c r="LG2" s="20"/>
+      <c r="LH2" s="20"/>
+      <c r="LI2" s="20"/>
+      <c r="LJ2" s="20"/>
+      <c r="LK2" s="20"/>
+      <c r="LL2" s="20"/>
+      <c r="LM2" s="20"/>
+      <c r="LN2" s="20"/>
+      <c r="LO2" s="20"/>
+      <c r="LP2" s="20"/>
+      <c r="LQ2" s="20"/>
+      <c r="LR2" s="20"/>
+      <c r="LS2" s="20"/>
+      <c r="LT2" s="20"/>
+      <c r="LU2" s="20"/>
+      <c r="LV2" s="20"/>
+      <c r="LW2" s="20"/>
+      <c r="LX2" s="20"/>
+      <c r="LY2" s="20"/>
+      <c r="LZ2" s="20"/>
+      <c r="MA2" s="20"/>
+      <c r="MB2" s="20"/>
+      <c r="MC2" s="20"/>
+      <c r="MD2" s="20"/>
+      <c r="ME2" s="20"/>
+      <c r="MF2" s="20"/>
+      <c r="MG2" s="20"/>
+      <c r="MH2" s="20"/>
+      <c r="MI2" s="20"/>
+      <c r="MJ2" s="20"/>
+      <c r="MK2" s="20"/>
+      <c r="ML2" s="20"/>
+      <c r="MM2" s="20"/>
+      <c r="MN2" s="20"/>
+      <c r="MO2" s="20"/>
+      <c r="MP2" s="20"/>
+      <c r="MQ2" s="20"/>
+      <c r="MR2" s="20"/>
+      <c r="MS2" s="20"/>
+      <c r="MT2" s="20"/>
+      <c r="MU2" s="20"/>
+      <c r="MV2" s="20"/>
+      <c r="MW2" s="20"/>
+      <c r="MX2" s="20"/>
+      <c r="MY2" s="20"/>
+      <c r="MZ2" s="20"/>
+      <c r="NA2" s="20"/>
+      <c r="NB2" s="20"/>
+      <c r="NC2" s="20"/>
+      <c r="ND2" s="20"/>
+      <c r="NE2" s="20"/>
+      <c r="NF2" s="20"/>
+      <c r="NG2" s="20"/>
+      <c r="NH2" s="20"/>
+      <c r="NI2" s="20"/>
+      <c r="NJ2" s="20"/>
+      <c r="NK2" s="20"/>
+      <c r="NL2" s="20"/>
+      <c r="NM2" s="20"/>
+      <c r="NN2" s="20"/>
+      <c r="NO2" s="20"/>
+      <c r="NP2" s="20"/>
+      <c r="NQ2" s="20"/>
+      <c r="NR2" s="20"/>
+      <c r="NS2" s="20"/>
+      <c r="NT2" s="20"/>
+      <c r="NU2" s="20"/>
+      <c r="NV2" s="20"/>
+      <c r="NW2" s="20"/>
+      <c r="NX2" s="20"/>
+      <c r="NY2" s="20"/>
+      <c r="NZ2" s="20"/>
+      <c r="OA2" s="20"/>
+      <c r="OB2" s="20"/>
+      <c r="OC2" s="20"/>
+      <c r="OD2" s="20"/>
+      <c r="OE2" s="20"/>
+      <c r="OF2" s="20"/>
+      <c r="OG2" s="20"/>
+      <c r="OH2" s="20"/>
+      <c r="OI2" s="20"/>
+      <c r="OJ2" s="20"/>
+      <c r="OK2" s="20"/>
+      <c r="OL2" s="20"/>
+      <c r="OM2" s="20"/>
+      <c r="ON2" s="20"/>
+      <c r="OO2" s="20"/>
+      <c r="OP2" s="20"/>
+      <c r="OQ2" s="20"/>
+      <c r="OR2" s="20"/>
+      <c r="OS2" s="20"/>
+      <c r="OT2" s="20"/>
+      <c r="OU2" s="20"/>
+      <c r="OV2" s="20"/>
+      <c r="OW2" s="20"/>
+      <c r="OX2" s="20"/>
+      <c r="OY2" s="20"/>
+      <c r="OZ2" s="20"/>
+      <c r="PA2" s="20"/>
+      <c r="PB2" s="20"/>
+      <c r="PC2" s="20"/>
+      <c r="PD2" s="20"/>
+      <c r="PE2" s="20"/>
+      <c r="PF2" s="20"/>
+      <c r="PG2" s="20"/>
+      <c r="PH2" s="20"/>
+      <c r="PI2" s="20"/>
+      <c r="PJ2" s="20"/>
+      <c r="PK2" s="20"/>
+      <c r="PL2" s="20"/>
+      <c r="PM2" s="20"/>
+      <c r="PN2" s="20"/>
+      <c r="PO2" s="20"/>
+      <c r="PP2" s="20"/>
+      <c r="PQ2" s="20"/>
+      <c r="PR2" s="20"/>
+      <c r="PS2" s="20"/>
+      <c r="PT2" s="20"/>
+      <c r="PU2" s="20"/>
+      <c r="PV2" s="20"/>
+      <c r="PW2" s="20"/>
+      <c r="PX2" s="20"/>
+      <c r="PY2" s="20"/>
+      <c r="PZ2" s="20"/>
+      <c r="QA2" s="20"/>
+      <c r="QB2" s="20"/>
+      <c r="QC2" s="20"/>
+      <c r="QD2" s="20"/>
+      <c r="QE2" s="20"/>
+      <c r="QF2" s="20"/>
+      <c r="QG2" s="20"/>
+      <c r="QH2" s="20"/>
+      <c r="QI2" s="20"/>
+      <c r="QJ2" s="20"/>
+      <c r="QK2" s="20"/>
+      <c r="QL2" s="20"/>
+      <c r="QM2" s="20"/>
+      <c r="QN2" s="20"/>
+      <c r="QO2" s="20"/>
+      <c r="QP2" s="20"/>
+      <c r="QQ2" s="20"/>
+      <c r="QR2" s="20"/>
+      <c r="QS2" s="20"/>
+      <c r="QT2" s="20"/>
+      <c r="QU2" s="20"/>
+      <c r="QV2" s="20"/>
+      <c r="QW2" s="20"/>
+      <c r="QX2" s="20"/>
+      <c r="QY2" s="20"/>
+      <c r="QZ2" s="20"/>
+      <c r="RA2" s="20"/>
+      <c r="RB2" s="20"/>
+      <c r="RC2" s="20"/>
+      <c r="RD2" s="20"/>
+      <c r="RE2" s="20"/>
+      <c r="RF2" s="20"/>
+      <c r="RG2" s="20"/>
+      <c r="RH2" s="20"/>
+      <c r="RI2" s="20"/>
+      <c r="RJ2" s="20"/>
+      <c r="RK2" s="20"/>
+      <c r="RL2" s="20"/>
+      <c r="RM2" s="20"/>
+      <c r="RN2" s="20"/>
+      <c r="RO2" s="20"/>
+      <c r="RP2" s="20"/>
+      <c r="RQ2" s="20"/>
+      <c r="RR2" s="20"/>
+      <c r="RS2" s="20"/>
+      <c r="RT2" s="20"/>
+      <c r="RU2" s="20"/>
+      <c r="RV2" s="20"/>
+      <c r="RW2" s="20"/>
+      <c r="RX2" s="20"/>
+      <c r="RY2" s="20"/>
+      <c r="RZ2" s="20"/>
+      <c r="SA2" s="20"/>
+      <c r="SB2" s="20"/>
+      <c r="SC2" s="20"/>
+      <c r="SD2" s="20"/>
+      <c r="SE2" s="20"/>
+      <c r="SF2" s="20"/>
+      <c r="SG2" s="20"/>
+      <c r="SH2" s="20"/>
+      <c r="SI2" s="20"/>
+      <c r="SJ2" s="20"/>
+      <c r="SK2" s="20"/>
+      <c r="SL2" s="20"/>
+      <c r="SM2" s="20"/>
+      <c r="SN2" s="20"/>
+      <c r="SO2" s="20"/>
+      <c r="SP2" s="20"/>
+      <c r="SQ2" s="20"/>
+      <c r="SR2" s="20"/>
+      <c r="SS2" s="20"/>
+      <c r="ST2" s="20"/>
+      <c r="SU2" s="20"/>
+      <c r="SV2" s="20"/>
+      <c r="SW2" s="20"/>
+      <c r="SX2" s="20"/>
+      <c r="SY2" s="20"/>
+      <c r="SZ2" s="20"/>
+      <c r="TA2" s="20"/>
+      <c r="TB2" s="20"/>
+      <c r="TC2" s="20"/>
+      <c r="TD2" s="20"/>
+      <c r="TE2" s="20"/>
+      <c r="TF2" s="20"/>
+      <c r="TG2" s="20"/>
+      <c r="TH2" s="20"/>
+      <c r="TI2" s="20"/>
+      <c r="TJ2" s="20"/>
+      <c r="TK2" s="20"/>
+      <c r="TL2" s="20"/>
+      <c r="TM2" s="20"/>
+      <c r="TN2" s="20"/>
+      <c r="TO2" s="20"/>
+      <c r="TP2" s="20"/>
+      <c r="TQ2" s="20"/>
+      <c r="TR2" s="20"/>
+      <c r="TS2" s="20"/>
+      <c r="TT2" s="20"/>
+      <c r="TU2" s="20"/>
+      <c r="TV2" s="20"/>
+      <c r="TW2" s="20"/>
+      <c r="TX2" s="20"/>
+      <c r="TY2" s="20"/>
+      <c r="TZ2" s="20"/>
+      <c r="UA2" s="20"/>
+      <c r="UB2" s="20"/>
+      <c r="UC2" s="20"/>
+      <c r="UD2" s="20"/>
+      <c r="UE2" s="20"/>
+      <c r="UF2" s="20"/>
+      <c r="UG2" s="20"/>
+      <c r="UH2" s="20"/>
+      <c r="UI2" s="20"/>
+      <c r="UJ2" s="20"/>
+      <c r="UK2" s="20"/>
+      <c r="UL2" s="20"/>
+      <c r="UM2" s="20"/>
+      <c r="UN2" s="20"/>
+      <c r="UO2" s="20"/>
+      <c r="UP2" s="20"/>
+      <c r="UQ2" s="20"/>
+      <c r="UR2" s="20"/>
+      <c r="US2" s="20"/>
+      <c r="UT2" s="20"/>
+      <c r="UU2" s="20"/>
+      <c r="UV2" s="20"/>
+      <c r="UW2" s="20"/>
+      <c r="UX2" s="20"/>
+      <c r="UY2" s="20"/>
+      <c r="UZ2" s="20"/>
+      <c r="VA2" s="20"/>
+      <c r="VB2" s="20"/>
+      <c r="VC2" s="20"/>
+      <c r="VD2" s="20"/>
+      <c r="VE2" s="20"/>
+      <c r="VF2" s="20"/>
+      <c r="VG2" s="20"/>
+      <c r="VH2" s="20"/>
+      <c r="VI2" s="20"/>
+      <c r="VJ2" s="20"/>
+      <c r="VK2" s="20"/>
+      <c r="VL2" s="20"/>
+      <c r="VM2" s="20"/>
+      <c r="VN2" s="20"/>
+      <c r="VO2" s="20"/>
+      <c r="VP2" s="20"/>
+      <c r="VQ2" s="20"/>
+      <c r="VR2" s="20"/>
+      <c r="VS2" s="20"/>
+      <c r="VT2" s="20"/>
+      <c r="VU2" s="20"/>
+      <c r="VV2" s="20"/>
+      <c r="VW2" s="20"/>
+      <c r="VX2" s="20"/>
+      <c r="VY2" s="20"/>
+      <c r="VZ2" s="20"/>
+      <c r="WA2" s="20"/>
+      <c r="WB2" s="20"/>
+      <c r="WC2" s="20"/>
+      <c r="WD2" s="20"/>
+      <c r="WE2" s="20"/>
+      <c r="WF2" s="20"/>
+      <c r="WG2" s="20"/>
+      <c r="WH2" s="20"/>
+      <c r="WI2" s="20"/>
+      <c r="WJ2" s="20"/>
+      <c r="WK2" s="20"/>
+      <c r="WL2" s="20"/>
+      <c r="WM2" s="20"/>
+      <c r="WN2" s="20"/>
+      <c r="WO2" s="20"/>
+      <c r="WP2" s="20"/>
+      <c r="WQ2" s="20"/>
+      <c r="WR2" s="20"/>
+      <c r="WS2" s="20"/>
+      <c r="WT2" s="20"/>
+      <c r="WU2" s="20"/>
+      <c r="WV2" s="20"/>
+      <c r="WW2" s="20"/>
+      <c r="WX2" s="20"/>
+      <c r="WY2" s="20"/>
+      <c r="WZ2" s="20"/>
+      <c r="XA2" s="20"/>
+      <c r="XB2" s="20"/>
+      <c r="XC2" s="20"/>
+      <c r="XD2" s="20"/>
+      <c r="XE2" s="20"/>
+      <c r="XF2" s="20"/>
+      <c r="XG2" s="20"/>
+      <c r="XH2" s="20"/>
+      <c r="XI2" s="20"/>
+      <c r="XJ2" s="20"/>
+      <c r="XK2" s="20"/>
+      <c r="XL2" s="20"/>
+      <c r="XM2" s="20"/>
+      <c r="XN2" s="20"/>
+      <c r="XO2" s="20"/>
+      <c r="XP2" s="20"/>
+      <c r="XQ2" s="20"/>
+      <c r="XR2" s="20"/>
+      <c r="XS2" s="20"/>
+      <c r="XT2" s="20"/>
+      <c r="XU2" s="20"/>
+      <c r="XV2" s="20"/>
+      <c r="XW2" s="20"/>
+      <c r="XX2" s="20"/>
+      <c r="XY2" s="20"/>
+      <c r="XZ2" s="20"/>
+      <c r="YA2" s="20"/>
+      <c r="YB2" s="20"/>
+      <c r="YC2" s="20"/>
+      <c r="YD2" s="20"/>
+      <c r="YE2" s="20"/>
+      <c r="YF2" s="20"/>
+      <c r="YG2" s="20"/>
+      <c r="YH2" s="20"/>
+      <c r="YI2" s="20"/>
+      <c r="YJ2" s="20"/>
+      <c r="YK2" s="20"/>
+      <c r="YL2" s="20"/>
+      <c r="YM2" s="20"/>
+      <c r="YN2" s="20"/>
+      <c r="YO2" s="20"/>
+      <c r="YP2" s="20"/>
+      <c r="YQ2" s="20"/>
+      <c r="YR2" s="20"/>
+      <c r="YS2" s="20"/>
+      <c r="YT2" s="20"/>
+      <c r="YU2" s="20"/>
+      <c r="YV2" s="20"/>
+      <c r="YW2" s="20"/>
+      <c r="YX2" s="20"/>
+      <c r="YY2" s="20"/>
+      <c r="YZ2" s="20"/>
+      <c r="ZA2" s="20"/>
+      <c r="ZB2" s="20"/>
+      <c r="ZC2" s="20"/>
+      <c r="ZD2" s="20"/>
+      <c r="ZE2" s="20"/>
+      <c r="ZF2" s="20"/>
+      <c r="ZG2" s="20"/>
+      <c r="ZH2" s="20"/>
+      <c r="ZI2" s="20"/>
+      <c r="ZJ2" s="20"/>
+      <c r="ZK2" s="20"/>
+      <c r="ZL2" s="20"/>
+      <c r="ZM2" s="20"/>
+      <c r="ZN2" s="20"/>
+      <c r="ZO2" s="20"/>
+      <c r="ZP2" s="20"/>
+      <c r="ZQ2" s="20"/>
+      <c r="ZR2" s="20"/>
+      <c r="ZS2" s="20"/>
+      <c r="ZT2" s="20"/>
+      <c r="ZU2" s="20"/>
+      <c r="ZV2" s="20"/>
+      <c r="ZW2" s="20"/>
+      <c r="ZX2" s="20"/>
+      <c r="ZY2" s="20"/>
+      <c r="ZZ2" s="20"/>
+      <c r="AAA2" s="20"/>
+      <c r="AAB2" s="20"/>
+      <c r="AAC2" s="20"/>
+      <c r="AAD2" s="20"/>
+      <c r="AAE2" s="20"/>
+      <c r="AAF2" s="20"/>
+      <c r="AAG2" s="20"/>
+      <c r="AAH2" s="20"/>
+      <c r="AAI2" s="20"/>
+      <c r="AAJ2" s="20"/>
+      <c r="AAK2" s="20"/>
+      <c r="AAL2" s="20"/>
+      <c r="AAM2" s="20"/>
+      <c r="AAN2" s="20"/>
+      <c r="AAO2" s="20"/>
+      <c r="AAP2" s="20"/>
+      <c r="AAQ2" s="20"/>
+      <c r="AAR2" s="20"/>
+      <c r="AAS2" s="20"/>
+      <c r="AAT2" s="20"/>
+      <c r="AAU2" s="20"/>
+      <c r="AAV2" s="20"/>
+      <c r="AAW2" s="20"/>
+      <c r="AAX2" s="20"/>
+      <c r="AAY2" s="20"/>
+      <c r="AAZ2" s="20"/>
+      <c r="ABA2" s="20"/>
+      <c r="ABB2" s="20"/>
+      <c r="ABC2" s="20"/>
+      <c r="ABD2" s="20"/>
+      <c r="ABE2" s="20"/>
+      <c r="ABF2" s="20"/>
+      <c r="ABG2" s="20"/>
+      <c r="ABH2" s="20"/>
+      <c r="ABI2" s="20"/>
+      <c r="ABJ2" s="20"/>
+      <c r="ABK2" s="20"/>
+      <c r="ABL2" s="20"/>
+      <c r="ABM2" s="20"/>
+      <c r="ABN2" s="20"/>
+      <c r="ABO2" s="20"/>
+      <c r="ABP2" s="20"/>
+      <c r="ABQ2" s="20"/>
+      <c r="ABR2" s="20"/>
+      <c r="ABS2" s="20"/>
+      <c r="ABT2" s="20"/>
+      <c r="ABU2" s="20"/>
+      <c r="ABV2" s="20"/>
+      <c r="ABW2" s="20"/>
+      <c r="ABX2" s="20"/>
+      <c r="ABY2" s="20"/>
+      <c r="ABZ2" s="20"/>
+      <c r="ACA2" s="20"/>
+      <c r="ACB2" s="20"/>
+      <c r="ACC2" s="20"/>
+      <c r="ACD2" s="20"/>
+      <c r="ACE2" s="20"/>
+      <c r="ACF2" s="20"/>
+      <c r="ACG2" s="20"/>
+      <c r="ACH2" s="20"/>
+      <c r="ACI2" s="20"/>
+      <c r="ACJ2" s="20"/>
+      <c r="ACK2" s="20"/>
+      <c r="ACL2" s="20"/>
+      <c r="ACM2" s="20"/>
+      <c r="ACN2" s="20"/>
+      <c r="ACO2" s="20"/>
+      <c r="ACP2" s="20"/>
+      <c r="ACQ2" s="20"/>
+      <c r="ACR2" s="20"/>
+      <c r="ACS2" s="20"/>
+      <c r="ACT2" s="20"/>
+      <c r="ACU2" s="20"/>
+      <c r="ACV2" s="20"/>
+      <c r="ACW2" s="20"/>
+      <c r="ACX2" s="20"/>
+      <c r="ACY2" s="20"/>
+      <c r="ACZ2" s="20"/>
+      <c r="ADA2" s="20"/>
+      <c r="ADB2" s="20"/>
+      <c r="ADC2" s="20"/>
+      <c r="ADD2" s="20"/>
+      <c r="ADE2" s="20"/>
+      <c r="ADF2" s="20"/>
+      <c r="ADG2" s="20"/>
+      <c r="ADH2" s="20"/>
+      <c r="ADI2" s="20"/>
+      <c r="ADJ2" s="20"/>
+      <c r="ADK2" s="20"/>
+      <c r="ADL2" s="20"/>
+      <c r="ADM2" s="20"/>
+      <c r="ADN2" s="20"/>
+      <c r="ADO2" s="20"/>
+      <c r="ADP2" s="20"/>
+      <c r="ADQ2" s="20"/>
+      <c r="ADR2" s="20"/>
+      <c r="ADS2" s="20"/>
+      <c r="ADT2" s="20"/>
+      <c r="ADU2" s="20"/>
+      <c r="ADV2" s="20"/>
+      <c r="ADW2" s="20"/>
+      <c r="ADX2" s="20"/>
+      <c r="ADY2" s="20"/>
+      <c r="ADZ2" s="20"/>
+      <c r="AEA2" s="20"/>
+      <c r="AEB2" s="20"/>
+      <c r="AEC2" s="20"/>
+      <c r="AED2" s="20"/>
+      <c r="AEE2" s="20"/>
+      <c r="AEF2" s="20"/>
+      <c r="AEG2" s="20"/>
+      <c r="AEH2" s="20"/>
+      <c r="AEI2" s="20"/>
+      <c r="AEJ2" s="20"/>
+      <c r="AEK2" s="20"/>
+      <c r="AEL2" s="20"/>
+      <c r="AEM2" s="20"/>
+      <c r="AEN2" s="20"/>
+      <c r="AEO2" s="20"/>
+      <c r="AEP2" s="20"/>
+      <c r="AEQ2" s="20"/>
+      <c r="AER2" s="20"/>
+      <c r="AES2" s="20"/>
+      <c r="AET2" s="20"/>
+      <c r="AEU2" s="20"/>
+      <c r="AEV2" s="20"/>
+      <c r="AEW2" s="20"/>
+      <c r="AEX2" s="20"/>
+      <c r="AEY2" s="20"/>
+      <c r="AEZ2" s="20"/>
+      <c r="AFA2" s="20"/>
+      <c r="AFB2" s="20"/>
+      <c r="AFC2" s="20"/>
+      <c r="AFD2" s="20"/>
+      <c r="AFE2" s="20"/>
+      <c r="AFF2" s="20"/>
+      <c r="AFG2" s="20"/>
+      <c r="AFH2" s="20"/>
+      <c r="AFI2" s="20"/>
+      <c r="AFJ2" s="20"/>
+      <c r="AFK2" s="20"/>
+      <c r="AFL2" s="20"/>
+      <c r="AFM2" s="20"/>
+      <c r="AFN2" s="20"/>
+      <c r="AFO2" s="20"/>
+      <c r="AFP2" s="20"/>
+      <c r="AFQ2" s="20"/>
+      <c r="AFR2" s="20"/>
+      <c r="AFS2" s="20"/>
+      <c r="AFT2" s="20"/>
+      <c r="AFU2" s="20"/>
+      <c r="AFV2" s="20"/>
+      <c r="AFW2" s="20"/>
+      <c r="AFX2" s="20"/>
+      <c r="AFY2" s="20"/>
+      <c r="AFZ2" s="20"/>
+      <c r="AGA2" s="20"/>
+      <c r="AGB2" s="20"/>
+      <c r="AGC2" s="20"/>
+      <c r="AGD2" s="20"/>
+      <c r="AGE2" s="20"/>
+      <c r="AGF2" s="20"/>
+      <c r="AGG2" s="20"/>
+      <c r="AGH2" s="20"/>
+      <c r="AGI2" s="20"/>
+      <c r="AGJ2" s="20"/>
+      <c r="AGK2" s="20"/>
+      <c r="AGL2" s="20"/>
+      <c r="AGM2" s="20"/>
+      <c r="AGN2" s="20"/>
+      <c r="AGO2" s="20"/>
+      <c r="AGP2" s="20"/>
+      <c r="AGQ2" s="20"/>
+      <c r="AGR2" s="20"/>
+      <c r="AGS2" s="20"/>
+      <c r="AGT2" s="20"/>
+      <c r="AGU2" s="20"/>
+      <c r="AGV2" s="20"/>
+      <c r="AGW2" s="20"/>
+      <c r="AGX2" s="20"/>
+      <c r="AGY2" s="20"/>
+      <c r="AGZ2" s="20"/>
+      <c r="AHA2" s="20"/>
+      <c r="AHB2" s="20"/>
+      <c r="AHC2" s="20"/>
+      <c r="AHD2" s="20"/>
+      <c r="AHE2" s="20"/>
+      <c r="AHF2" s="20"/>
+      <c r="AHG2" s="20"/>
+      <c r="AHH2" s="20"/>
+      <c r="AHI2" s="20"/>
+      <c r="AHJ2" s="20"/>
+      <c r="AHK2" s="20"/>
+      <c r="AHL2" s="20"/>
+      <c r="AHM2" s="20"/>
+      <c r="AHN2" s="20"/>
+      <c r="AHO2" s="20"/>
+      <c r="AHP2" s="20"/>
+      <c r="AHQ2" s="20"/>
+      <c r="AHR2" s="20"/>
+      <c r="AHS2" s="20"/>
+      <c r="AHT2" s="20"/>
+      <c r="AHU2" s="20"/>
+      <c r="AHV2" s="20"/>
+      <c r="AHW2" s="20"/>
+      <c r="AHX2" s="20"/>
+      <c r="AHY2" s="20"/>
+      <c r="AHZ2" s="20"/>
+      <c r="AIA2" s="20"/>
+      <c r="AIB2" s="20"/>
+      <c r="AIC2" s="20"/>
+      <c r="AID2" s="20"/>
+      <c r="AIE2" s="20"/>
+      <c r="AIF2" s="20"/>
+      <c r="AIG2" s="20"/>
+      <c r="AIH2" s="20"/>
+      <c r="AII2" s="20"/>
+      <c r="AIJ2" s="20"/>
+      <c r="AIK2" s="20"/>
+      <c r="AIL2" s="20"/>
+      <c r="AIM2" s="20"/>
+      <c r="AIN2" s="20"/>
+      <c r="AIO2" s="20"/>
+      <c r="AIP2" s="20"/>
+      <c r="AIQ2" s="20"/>
+      <c r="AIR2" s="20"/>
+      <c r="AIS2" s="20"/>
+      <c r="AIT2" s="20"/>
+      <c r="AIU2" s="20"/>
+      <c r="AIV2" s="20"/>
+      <c r="AIW2" s="20"/>
+      <c r="AIX2" s="20"/>
+      <c r="AIY2" s="20"/>
+      <c r="AIZ2" s="20"/>
+      <c r="AJA2" s="20"/>
+      <c r="AJB2" s="20"/>
+      <c r="AJC2" s="20"/>
+      <c r="AJD2" s="20"/>
+      <c r="AJE2" s="20"/>
+      <c r="AJF2" s="20"/>
+      <c r="AJG2" s="20"/>
+      <c r="AJH2" s="20"/>
+      <c r="AJI2" s="20"/>
+      <c r="AJJ2" s="20"/>
+      <c r="AJK2" s="20"/>
+      <c r="AJL2" s="20"/>
+      <c r="AJM2" s="20"/>
+      <c r="AJN2" s="20"/>
+      <c r="AJO2" s="20"/>
+      <c r="AJP2" s="20"/>
+      <c r="AJQ2" s="20"/>
+      <c r="AJR2" s="20"/>
+      <c r="AJS2" s="20"/>
+      <c r="AJT2" s="20"/>
+      <c r="AJU2" s="20"/>
+      <c r="AJV2" s="20"/>
+      <c r="AJW2" s="20"/>
+      <c r="AJX2" s="20"/>
+      <c r="AJY2" s="20"/>
+      <c r="AJZ2" s="20"/>
+      <c r="AKA2" s="20"/>
+      <c r="AKB2" s="20"/>
+      <c r="AKC2" s="20"/>
+      <c r="AKD2" s="20"/>
+      <c r="AKE2" s="20"/>
+      <c r="AKF2" s="20"/>
+      <c r="AKG2" s="20"/>
+      <c r="AKH2" s="20"/>
+      <c r="AKI2" s="20"/>
+      <c r="AKJ2" s="20"/>
+      <c r="AKK2" s="20"/>
+      <c r="AKL2" s="20"/>
+      <c r="AKM2" s="20"/>
+      <c r="AKN2" s="20"/>
+      <c r="AKO2" s="20"/>
+      <c r="AKP2" s="20"/>
+      <c r="AKQ2" s="20"/>
+      <c r="AKR2" s="20"/>
+      <c r="AKS2" s="20"/>
+      <c r="AKT2" s="20"/>
+      <c r="AKU2" s="20"/>
+      <c r="AKV2" s="20"/>
+      <c r="AKW2" s="20"/>
+      <c r="AKX2" s="20"/>
+      <c r="AKY2" s="20"/>
+      <c r="AKZ2" s="20"/>
+      <c r="ALA2" s="20"/>
+      <c r="ALB2" s="20"/>
+      <c r="ALC2" s="20"/>
+      <c r="ALD2" s="20"/>
+      <c r="ALE2" s="20"/>
+      <c r="ALF2" s="20"/>
+      <c r="ALG2" s="20"/>
+      <c r="ALH2" s="20"/>
+      <c r="ALI2" s="20"/>
+      <c r="ALJ2" s="20"/>
+      <c r="ALK2" s="20"/>
+      <c r="ALL2" s="20"/>
+      <c r="ALM2" s="20"/>
+      <c r="ALN2" s="20"/>
+      <c r="ALO2" s="20"/>
+      <c r="ALP2" s="20"/>
+      <c r="ALQ2" s="20"/>
+      <c r="ALR2" s="20"/>
+      <c r="ALS2" s="20"/>
+      <c r="ALT2" s="20"/>
+      <c r="ALU2" s="20"/>
+      <c r="ALV2" s="20"/>
+      <c r="ALW2" s="20"/>
+      <c r="ALX2" s="20"/>
+      <c r="ALY2" s="20"/>
+      <c r="ALZ2" s="20"/>
+      <c r="AMA2" s="20"/>
+      <c r="AMB2" s="20"/>
+      <c r="AMC2" s="20"/>
+      <c r="AMD2" s="20"/>
+      <c r="AME2" s="20"/>
+      <c r="AMF2" s="20"/>
+      <c r="AMG2" s="20"/>
+      <c r="AMH2" s="20"/>
+      <c r="AMI2" s="20"/>
+      <c r="AMJ2" s="20"/>
+      <c r="AMK2" s="20"/>
+      <c r="AML2" s="20"/>
+      <c r="AMM2" s="20"/>
+      <c r="AMN2" s="20"/>
+      <c r="AMO2" s="20"/>
+      <c r="AMP2" s="20"/>
+      <c r="AMQ2" s="20"/>
+      <c r="AMR2" s="20"/>
       <c r="AMS2"/>
       <c r="AMT2"/>
       <c r="AMU2"/>
@@ -36972,30 +36967,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:18">
+    <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I3" s="12">
         <v>4.58e-17</v>
@@ -37004,42 +36999,48 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="1" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I4" s="12">
         <v>1e-12</v>
@@ -37048,19 +37049,25 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -37069,7 +37076,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -37092,164 +37099,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14" style="27" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="27" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="27" customWidth="1"/>
-    <col min="13" max="1026" width="8.78333333333333" style="27"/>
-    <col min="1027" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="9" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="7" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14" style="26" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="26" customWidth="1"/>
+    <col min="9" max="10" width="8.625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="26" customWidth="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="26"/>
+    <col min="1027" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="27">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>4</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>6</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -37295,10 +37302,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -37321,114 +37328,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -37510,121 +37517,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.000148</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0.000148</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="26">
+        <v>79</v>
+      </c>
+      <c r="E3" s="25">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>119</v>
+      <c r="G3" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="26">
+        <v>79</v>
+      </c>
+      <c r="E4" s="25">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>119</v>
+      <c r="G4" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="26">
+        <v>79</v>
+      </c>
+      <c r="E5" s="25">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>119</v>
+      <c r="G5" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="26">
+        <v>79</v>
+      </c>
+      <c r="E6" s="25">
         <v>0.001</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>119</v>
+      <c r="G6" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="26">
+        <v>79</v>
+      </c>
+      <c r="E7" s="25">
         <v>0.002</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>119</v>
+      <c r="G7" s="25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
@@ -43,9 +43,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="245">
   <si>
     <t>Table</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Structure</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
   </si>
   <si>
     <t>Empirical formula</t>
@@ -603,9 +612,6 @@
     <t>dFBA objective reaction</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
   </si>
   <si>
@@ -797,12 +803,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -885,7 +891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,6 +899,38 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -909,14 +947,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,14 +969,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,11 +983,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,30 +994,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,7 +1025,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,19 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1097,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,127 +1199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1228,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1241,7 +1256,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,6 +1276,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1272,15 +1298,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,17 +1319,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1322,132 +1328,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1523,24 +1529,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2224,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>70</v>
@@ -2281,7 +2287,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -2304,10 +2310,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -2315,10 +2321,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -2367,7 +2373,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -2385,22 +2391,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
@@ -2423,22 +2429,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3" s="19">
         <v>1</v>
@@ -2447,28 +2453,28 @@
         <v>2</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2477,78 +2483,78 @@
         <v>2</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J4" s="23"/>
       <c r="M4" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2598,16 +2604,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2651,19 +2657,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2780,7 +2786,7 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2805,19 +2811,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -2893,13 +2899,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2919,22 +2925,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2977,13 +2983,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>70</v>
@@ -3006,45 +3012,45 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" s="15">
         <v>-3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3087,13 +3093,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>70</v>
@@ -3116,10 +3122,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -3128,121 +3134,121 @@
         <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12">
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D11" s="12">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -3253,7 +3259,7 @@
         <v>1100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -3264,7 +3270,7 @@
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3310,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -3352,7 +3358,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9" t="s">
@@ -3364,11 +3370,11 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="Q1" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T1" s="8"/>
     </row>
@@ -3380,22 +3386,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>50</v>
@@ -3407,19 +3413,19 @@
         <v>61</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>27</v>
@@ -3596,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H1" s="8"/>
     </row>
@@ -3608,16 +3614,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
@@ -3714,46 +3720,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3799,28 +3805,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3861,28 +3867,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3903,7 +3909,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4157,19 +4163,19 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
@@ -20540,7 +20546,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -37087,182 +37093,201 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="26" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7" style="26" customWidth="1"/>
-    <col min="7" max="7" width="14" style="26" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="26" customWidth="1"/>
-    <col min="9" max="10" width="8.625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="26" customWidth="1"/>
-    <col min="13" max="1026" width="8.78333333333333" style="26"/>
-    <col min="1027" max="16384" width="9" style="26"/>
+    <col min="3" max="5" width="8.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="7" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14" style="26" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="26" customWidth="1"/>
+    <col min="11" max="12" width="8.625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="26" customWidth="1"/>
+    <col min="15" max="1028" width="8.78333333333333" style="26"/>
+    <col min="1029" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" s="26" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="E2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="L2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="26">
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="26">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
+      <c r="H4" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="28"/>
+      <c r="I4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="29"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="26">
+        <v>3</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="26">
+        <v>4</v>
+      </c>
+      <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="28"/>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="29"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="26">
-        <v>4</v>
-      </c>
-      <c r="F5" s="26">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="26">
+        <v>5</v>
+      </c>
+      <c r="H7" s="26">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="28"/>
+      <c r="I7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="29"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="26">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="26">
+        <v>6</v>
+      </c>
+      <c r="H8" s="26">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="26">
-        <v>6</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>95</v>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7">
+  <autoFilter ref="A2:K8">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -37302,10 +37327,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -37328,114 +37353,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -37517,10 +37542,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>79</v>
@@ -37529,15 +37554,15 @@
         <v>0.000148</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>79</v>
@@ -37546,15 +37571,15 @@
         <v>0.0002</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>79</v>
@@ -37563,15 +37588,15 @@
         <v>0.0005</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>79</v>
@@ -37580,15 +37605,15 @@
         <v>0.0005</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -37597,15 +37622,15 @@
         <v>0.001</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
@@ -37614,15 +37639,15 @@
         <v>0.002</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>79</v>
@@ -37631,7 +37656,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -26,19 +26,20 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId16"/>
     <sheet name="Parameters" sheetId="14" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="21" r:id="rId20"/>
-    <sheet name="References" sheetId="16" r:id="rId21"/>
-    <sheet name="Authors" sheetId="22" r:id="rId22"/>
-    <sheet name="Changes" sheetId="23" r:id="rId23"/>
+    <sheet name="Observations" sheetId="19" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="25" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="21" r:id="rId21"/>
+    <sheet name="References" sheetId="16" r:id="rId22"/>
+    <sheet name="Authors" sheetId="22" r:id="rId23"/>
+    <sheet name="Changes" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
@@ -52,16 +53,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="247">
   <si>
     <t>Table</t>
   </si>
@@ -123,10 +124,13 @@
     <t>Stop conditions</t>
   </si>
   <si>
-    <t>Evidence</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -223,6 +227,9 @@
   </si>
   <si>
     <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
   <si>
     <t>submodel_1</t>
@@ -687,10 +694,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
+    <t>Data generation process</t>
   </si>
   <si>
-    <t>Analysis method</t>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -711,7 +718,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -794,21 +804,18 @@
   <si>
     <t>Intention type</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -876,8 +883,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,7 +906,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -907,22 +923,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -937,9 +937,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +946,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,6 +954,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,16 +975,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,14 +997,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1032,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,169 +1206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,6 +1232,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1252,37 +1283,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,21 +1313,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1325,135 +1321,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1529,11 +1536,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1552,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1946,12 +1953,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -2139,7 +2146,7 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2148,7 +2155,7 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2157,7 +2164,7 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2169,9 +2176,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2192,11 +2208,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2224,31 +2240,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2281,53 +2297,53 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2389,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -2385,66 +2401,66 @@
     </row>
     <row r="2" s="10" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G3" s="19">
         <v>1</v>
@@ -2453,28 +2469,28 @@
         <v>2</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2483,78 +2499,78 @@
         <v>2</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J4" s="23"/>
       <c r="M4" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2598,57 +2614,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2657,19 +2673,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2678,19 +2694,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2699,19 +2715,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2721,19 +2737,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2743,19 +2759,19 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2805,60 +2821,60 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2893,54 +2909,54 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2977,80 +2993,80 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="15">
         <v>-3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3087,190 +3103,190 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D10" s="12">
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D11" s="12">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1">
         <v>1100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1">
         <v>1000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3304,31 +3320,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3341,14 +3357,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3358,7 +3374,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9" t="s">
@@ -3370,86 +3386,83 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="Q1" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3483,89 +3496,89 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="30"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="30"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="30"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="30"/>
     </row>
@@ -3582,14 +3595,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="A2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3602,49 +3673,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -3692,7 +3766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -3714,58 +3788,58 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AMJ1" s="5"/>
     </row>
@@ -3779,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -3799,40 +3873,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -3861,55 +3935,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3937,44 +4011,44 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4005,20 +4079,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -4026,25 +4100,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4149,28 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMI1" s="24"/>
       <c r="AMJ1" s="24"/>
@@ -4104,25 +4178,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4164,14 +4238,14 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="20"/>
       <c r="M1" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
@@ -20547,67 +20621,67 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
@@ -36975,28 +37049,28 @@
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="12">
         <v>4.58e-17</v>
@@ -37005,13 +37079,13 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -37020,33 +37094,33 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="12">
         <v>1e-12</v>
@@ -37055,13 +37129,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" s="1">
         <v>7.75</v>
@@ -37070,10 +37144,10 @@
         <v>0.775</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -37095,7 +37169,7 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -37122,7 +37196,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
@@ -37132,54 +37206,54 @@
     </row>
     <row r="2" s="26" customFormat="1" customHeight="1" spans="1:14">
       <c r="A2" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="26">
         <v>1</v>
@@ -37188,16 +37262,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J3" s="29"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
@@ -37206,16 +37280,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="29"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="26">
         <v>3</v>
@@ -37224,16 +37298,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" s="29"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="26">
         <v>4</v>
@@ -37242,16 +37316,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="29"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="26">
         <v>5</v>
@@ -37260,16 +37334,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J7" s="29"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="26">
         <v>6</v>
@@ -37278,7 +37352,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -37321,146 +37395,146 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -37504,159 +37578,159 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="25">
         <v>0.000148</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="25">
         <v>0.0002</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="25">
         <v>0.0005</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="25">
         <v>0.0005</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="25">
         <v>0.001</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="25">
         <v>0.002</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
